--- a/data/raw/CW_field_meassurements/Raw_data_lab/240120_Resultaten_ronde_T0.xlsx
+++ b/data/raw/CW_field_meassurements/Raw_data_lab/240120_Resultaten_ronde_T0.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aseye001\Sona_Phd\MIBIREM\MiBiPreT_FieldSites\constructed-wetland\data\raw\CW_field_meassurements\Raw_data_lab\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A45D46A-6F53-4053-AE31-A7282FDDCB12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F00D1F50-5C6A-4626-885A-74BB282EEC1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Analyseresultaten" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2092" uniqueCount="637">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2092" uniqueCount="639">
   <si>
     <t>Analysis</t>
   </si>
@@ -1948,6 +1948,12 @@
   </si>
   <si>
     <t>CW1MF07-1-1</t>
+  </si>
+  <si>
+    <t>nitriet-N</t>
+  </si>
+  <si>
+    <t>nitraat-N</t>
   </si>
 </sst>
 </file>
@@ -2370,8 +2376,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A3:Y82"/>
   <sheetViews>
-    <sheetView topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="AA21" sqref="AA21"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="A80" sqref="A80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -7422,7 +7428,7 @@
     </row>
     <row r="78" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>520</v>
+        <v>637</v>
       </c>
       <c r="B78" s="1" t="s">
         <v>521</v>
@@ -7572,7 +7578,7 @@
     </row>
     <row r="80" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
-        <v>522</v>
+        <v>638</v>
       </c>
       <c r="B80" s="1" t="s">
         <v>521</v>
@@ -7732,6 +7738,7 @@
     <mergeCell ref="B82:E82"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -7739,7 +7746,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94644F02-27D9-4E57-8301-0D35BA94A3EC}">
   <dimension ref="A1:AK29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AC1" workbookViewId="0">
+    <sheetView topLeftCell="AC1" workbookViewId="0">
       <selection activeCell="AK28" sqref="A28:AK28"/>
     </sheetView>
   </sheetViews>
@@ -9642,6 +9649,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="7233923c-a7e0-4e49-b29e-d359fd888d60">
@@ -9651,15 +9667,6 @@
     <Documenttype xmlns="7233923c-a7e0-4e49-b29e-d359fd888d60">Document</Documenttype>
   </documentManagement>
 </p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -9898,20 +9905,20 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{08A04067-5DA7-43A9-846C-F6DCC738CC9A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C1250D19-A89E-42FB-8C44-4257CFEF0E0A}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="7233923c-a7e0-4e49-b29e-d359fd888d60"/>
     <ds:schemaRef ds:uri="6bf0a9f1-8f76-4db1-b737-dd267e3134be"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{08A04067-5DA7-43A9-846C-F6DCC738CC9A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/data/raw/CW_field_meassurements/Raw_data_lab/240120_Resultaten_ronde_T0.xlsx
+++ b/data/raw/CW_field_meassurements/Raw_data_lab/240120_Resultaten_ronde_T0.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aseye001\Sona_Phd\MIBIREM\MiBiPreT_FieldSites\constructed-wetland\data\raw\CW_field_meassurements\Raw_data_lab\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F00D1F50-5C6A-4626-885A-74BB282EEC1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E14F54CB-3D79-47C5-8413-2C9B2BA7A7DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2092" uniqueCount="639">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2116" uniqueCount="640">
   <si>
     <t>Analysis</t>
   </si>
@@ -1954,6 +1954,9 @@
   </si>
   <si>
     <t>nitraat-N</t>
+  </si>
+  <si>
+    <t>sulfide (vrij)</t>
   </si>
 </sst>
 </file>
@@ -2011,7 +2014,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -2035,6 +2038,9 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2374,10 +2380,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A3:Y82"/>
+  <dimension ref="A3:Y83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="A80" sqref="A80"/>
+    <sheetView tabSelected="1" topLeftCell="D2" workbookViewId="0">
+      <selection activeCell="M17" sqref="M17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -3162,7 +3168,9 @@
       <c r="L15" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="M15" s="3"/>
+      <c r="M15" s="3">
+        <v>6.3</v>
+      </c>
       <c r="N15" s="3" t="s">
         <v>80</v>
       </c>
@@ -3235,7 +3243,9 @@
       <c r="L16" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="M16" s="3"/>
+      <c r="M16" s="3">
+        <v>3.7</v>
+      </c>
       <c r="N16" s="3" t="s">
         <v>87</v>
       </c>
@@ -3352,2145 +3362,2145 @@
       <c r="Y18" s="3"/>
     </row>
     <row r="19" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
+      <c r="A19" s="9" t="s">
+        <v>639</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="I19" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="J19" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="K19" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="L19" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="M19" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="N19" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="O19" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="P19" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="Q19" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="R19" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="S19" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="T19" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="U19" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="V19" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="W19" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="X19" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B20" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="C20" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="D19" s="3" t="s">
+      <c r="D20" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="E19" s="3" t="s">
+      <c r="E20" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="F19" s="3" t="s">
+      <c r="F20" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="G19" s="3" t="s">
+      <c r="G20" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="H19" s="3" t="s">
+      <c r="H20" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="I19" s="3" t="s">
+      <c r="I20" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="J19" s="3" t="s">
+      <c r="J20" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="K19" s="3" t="s">
+      <c r="K20" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="L19" s="3" t="s">
+      <c r="L20" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="M19" s="3" t="s">
+      <c r="M20" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="N19" s="3" t="s">
+      <c r="N20" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="O19" s="3" t="s">
+      <c r="O20" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="P19" s="3" t="s">
+      <c r="P20" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="Q19" s="3" t="s">
+      <c r="Q20" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="R19" s="3" t="s">
+      <c r="R20" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="S19" s="3" t="s">
+      <c r="S20" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="T19" s="3" t="s">
+      <c r="T20" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="U19" s="3" t="s">
+      <c r="U20" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="V19" s="3" t="s">
+      <c r="V20" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="W19" s="3" t="s">
+      <c r="W20" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="X19" s="3" t="s">
+      <c r="X20" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="Y19" s="3"/>
-    </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
+      <c r="Y20" s="3"/>
+    </row>
+    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="I21" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="J21" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="K21" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="L21" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="M21" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="N21" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="O21" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="P21" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="Q21" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="R21" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="S21" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="T21" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="U21" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="V21" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="W21" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="X21" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="Y21" s="3"/>
     </row>
     <row r="22" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>163</v>
+        <v>143</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>118</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>164</v>
+        <v>144</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>100</v>
+        <v>145</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>165</v>
+        <v>146</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>166</v>
+        <v>148</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>167</v>
+        <v>149</v>
       </c>
       <c r="I22" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="K22" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="L22" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="M22" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="N22" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="O22" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="P22" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="Q22" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="R22" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="S22" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="J22" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="K22" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="L22" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="M22" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="N22" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="O22" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="P22" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="Q22" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="R22" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="S22" s="3" t="s">
-        <v>173</v>
-      </c>
       <c r="T22" s="3" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="U22" s="3" t="s">
-        <v>174</v>
+        <v>131</v>
       </c>
       <c r="V22" s="3" t="s">
-        <v>72</v>
+        <v>160</v>
       </c>
       <c r="W22" s="3" t="s">
-        <v>175</v>
+        <v>161</v>
       </c>
       <c r="X22" s="3" t="s">
-        <v>79</v>
+        <v>162</v>
       </c>
       <c r="Y22" s="3"/>
     </row>
     <row r="23" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>176</v>
+        <v>163</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>118</v>
       </c>
       <c r="C23" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="I23" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="J23" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="K23" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="L23" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="D23" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="G23" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="H23" s="3" t="s">
+      <c r="M23" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="N23" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="O23" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="P23" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q23" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="R23" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="S23" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="T23" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="U23" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="V23" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="W23" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="X23" s="3" t="s">
         <v>79</v>
-      </c>
-      <c r="I23" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="J23" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="K23" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="L23" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="M23" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="N23" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="O23" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="P23" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="Q23" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="R23" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="S23" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="T23" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="U23" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="V23" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="W23" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="X23" s="3" t="s">
-        <v>184</v>
       </c>
       <c r="Y23" s="3"/>
     </row>
     <row r="24" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>191</v>
+        <v>176</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>118</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>192</v>
+        <v>145</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>72</v>
+        <v>177</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>144</v>
+        <v>178</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="I24" s="3" t="s">
-        <v>194</v>
+        <v>180</v>
       </c>
       <c r="J24" s="3" t="s">
-        <v>195</v>
+        <v>181</v>
       </c>
       <c r="K24" s="3" t="s">
-        <v>194</v>
+        <v>182</v>
       </c>
       <c r="L24" s="3" t="s">
-        <v>166</v>
+        <v>183</v>
       </c>
       <c r="M24" s="3" t="s">
-        <v>144</v>
+        <v>184</v>
       </c>
       <c r="N24" s="3" t="s">
-        <v>78</v>
+        <v>185</v>
       </c>
       <c r="O24" s="3" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="P24" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q24" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="R24" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="S24" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="Q24" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="R24" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="S24" s="3" t="s">
-        <v>197</v>
-      </c>
       <c r="T24" s="3" t="s">
-        <v>198</v>
+        <v>182</v>
       </c>
       <c r="U24" s="3" t="s">
-        <v>199</v>
+        <v>124</v>
       </c>
       <c r="V24" s="3" t="s">
-        <v>144</v>
+        <v>190</v>
       </c>
       <c r="W24" s="3" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="X24" s="3" t="s">
-        <v>169</v>
+        <v>184</v>
       </c>
       <c r="Y24" s="3"/>
     </row>
     <row r="25" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>118</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
       <c r="D25" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="F25" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="E25" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="F25" s="3" t="s">
-        <v>101</v>
-      </c>
       <c r="G25" s="3" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
       <c r="H25" s="3" t="s">
-        <v>98</v>
+        <v>74</v>
       </c>
       <c r="I25" s="3" t="s">
-        <v>147</v>
+        <v>194</v>
       </c>
       <c r="J25" s="3" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="K25" s="3" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="L25" s="3" t="s">
-        <v>204</v>
+        <v>166</v>
       </c>
       <c r="M25" s="3" t="s">
-        <v>205</v>
+        <v>144</v>
       </c>
       <c r="N25" s="3" t="s">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="O25" s="3" t="s">
-        <v>178</v>
+        <v>194</v>
       </c>
       <c r="P25" s="3" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="Q25" s="3" t="s">
-        <v>204</v>
+        <v>166</v>
       </c>
       <c r="R25" s="3" t="s">
-        <v>206</v>
+        <v>196</v>
       </c>
       <c r="S25" s="3" t="s">
-        <v>120</v>
+        <v>197</v>
       </c>
       <c r="T25" s="3" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="U25" s="3" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="V25" s="3" t="s">
         <v>144</v>
       </c>
       <c r="W25" s="3" t="s">
-        <v>120</v>
+        <v>175</v>
       </c>
       <c r="X25" s="3" t="s">
-        <v>158</v>
+        <v>169</v>
       </c>
       <c r="Y25" s="3"/>
     </row>
     <row r="26" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>118</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>210</v>
+        <v>66</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>211</v>
+        <v>156</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>212</v>
+        <v>101</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>213</v>
+        <v>202</v>
       </c>
       <c r="H26" s="3" t="s">
-        <v>214</v>
+        <v>98</v>
       </c>
       <c r="I26" s="3" t="s">
-        <v>215</v>
+        <v>147</v>
       </c>
       <c r="J26" s="3" t="s">
-        <v>216</v>
+        <v>203</v>
       </c>
       <c r="K26" s="3" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="L26" s="3" t="s">
-        <v>217</v>
+        <v>204</v>
       </c>
       <c r="M26" s="3" t="s">
-        <v>190</v>
+        <v>205</v>
       </c>
       <c r="N26" s="3" t="s">
-        <v>218</v>
+        <v>66</v>
       </c>
       <c r="O26" s="3" t="s">
-        <v>219</v>
+        <v>178</v>
       </c>
       <c r="P26" s="3" t="s">
-        <v>93</v>
+        <v>137</v>
       </c>
       <c r="Q26" s="3" t="s">
-        <v>217</v>
+        <v>204</v>
       </c>
       <c r="R26" s="3" t="s">
-        <v>220</v>
+        <v>206</v>
       </c>
       <c r="S26" s="3" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="T26" s="3" t="s">
-        <v>215</v>
+        <v>204</v>
       </c>
       <c r="U26" s="3" t="s">
-        <v>107</v>
+        <v>207</v>
       </c>
       <c r="V26" s="3" t="s">
-        <v>221</v>
+        <v>144</v>
       </c>
       <c r="W26" s="3" t="s">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="X26" s="3" t="s">
-        <v>189</v>
+        <v>158</v>
       </c>
       <c r="Y26" s="3"/>
     </row>
     <row r="27" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>222</v>
+        <v>208</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>118</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>223</v>
+        <v>209</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>224</v>
+        <v>210</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>225</v>
+        <v>211</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>226</v>
+        <v>212</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>227</v>
+        <v>213</v>
       </c>
       <c r="H27" s="3" t="s">
-        <v>228</v>
+        <v>214</v>
       </c>
       <c r="I27" s="3" t="s">
-        <v>229</v>
+        <v>215</v>
       </c>
       <c r="J27" s="3" t="s">
-        <v>230</v>
+        <v>216</v>
       </c>
       <c r="K27" s="3" t="s">
-        <v>231</v>
+        <v>188</v>
       </c>
       <c r="L27" s="3" t="s">
-        <v>232</v>
+        <v>217</v>
       </c>
       <c r="M27" s="3" t="s">
-        <v>233</v>
+        <v>190</v>
       </c>
       <c r="N27" s="3" t="s">
-        <v>234</v>
+        <v>218</v>
       </c>
       <c r="O27" s="3" t="s">
-        <v>231</v>
+        <v>219</v>
       </c>
       <c r="P27" s="3" t="s">
-        <v>235</v>
+        <v>93</v>
       </c>
       <c r="Q27" s="3" t="s">
-        <v>236</v>
+        <v>217</v>
       </c>
       <c r="R27" s="3" t="s">
-        <v>237</v>
+        <v>220</v>
       </c>
       <c r="S27" s="3" t="s">
-        <v>238</v>
+        <v>115</v>
       </c>
       <c r="T27" s="3" t="s">
-        <v>231</v>
+        <v>215</v>
       </c>
       <c r="U27" s="3" t="s">
-        <v>239</v>
+        <v>107</v>
       </c>
       <c r="V27" s="3" t="s">
-        <v>240</v>
+        <v>221</v>
       </c>
       <c r="W27" s="3" t="s">
-        <v>241</v>
+        <v>100</v>
       </c>
       <c r="X27" s="3" t="s">
-        <v>242</v>
+        <v>189</v>
       </c>
       <c r="Y27" s="3"/>
     </row>
     <row r="28" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>243</v>
+        <v>222</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>118</v>
       </c>
       <c r="C28" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="G28" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="H28" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="I28" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="J28" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="K28" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="L28" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="M28" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="N28" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="O28" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="P28" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="Q28" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="R28" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="S28" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="T28" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="U28" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="V28" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="W28" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="X28" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="Y28" s="3"/>
+    </row>
+    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C29" s="3" t="s">
         <v>244</v>
       </c>
-      <c r="D28" s="3" t="s">
+      <c r="D29" s="3" t="s">
         <v>245</v>
       </c>
-      <c r="E28" s="3" t="s">
+      <c r="E29" s="3" t="s">
         <v>246</v>
       </c>
-      <c r="F28" s="3" t="s">
+      <c r="F29" s="3" t="s">
         <v>247</v>
       </c>
-      <c r="G28" s="3" t="s">
+      <c r="G29" s="3" t="s">
         <v>248</v>
       </c>
-      <c r="H28" s="3" t="s">
+      <c r="H29" s="3" t="s">
         <v>249</v>
       </c>
-      <c r="I28" s="3" t="s">
+      <c r="I29" s="3" t="s">
         <v>250</v>
       </c>
-      <c r="J28" s="3" t="s">
+      <c r="J29" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="K28" s="3" t="s">
+      <c r="K29" s="3" t="s">
         <v>251</v>
       </c>
-      <c r="L28" s="3" t="s">
+      <c r="L29" s="3" t="s">
         <v>252</v>
       </c>
-      <c r="M28" s="3" t="s">
+      <c r="M29" s="3" t="s">
         <v>253</v>
       </c>
-      <c r="N28" s="3" t="s">
+      <c r="N29" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="O28" s="3" t="s">
+      <c r="O29" s="3" t="s">
         <v>254</v>
       </c>
-      <c r="P28" s="3" t="s">
+      <c r="P29" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="Q28" s="3" t="s">
+      <c r="Q29" s="3" t="s">
         <v>255</v>
       </c>
-      <c r="R28" s="3" t="s">
+      <c r="R29" s="3" t="s">
         <v>256</v>
       </c>
-      <c r="S28" s="3" t="s">
+      <c r="S29" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="T28" s="3" t="s">
+      <c r="T29" s="3" t="s">
         <v>257</v>
       </c>
-      <c r="U28" s="3" t="s">
+      <c r="U29" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="V28" s="3" t="s">
+      <c r="V29" s="3" t="s">
         <v>246</v>
       </c>
-      <c r="W28" s="3" t="s">
+      <c r="W29" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="X28" s="3" t="s">
+      <c r="X29" s="3" t="s">
         <v>258</v>
       </c>
-      <c r="Y28" s="3"/>
-    </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A29" s="2" t="s">
+      <c r="Y29" s="3"/>
+    </row>
+    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
         <v>259</v>
       </c>
-    </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="E30" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="F30" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="G30" s="3" t="s">
-        <v>261</v>
-      </c>
-      <c r="H30" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="I30" s="3" t="s">
-        <v>262</v>
-      </c>
-      <c r="J30" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="K30" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="L30" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="M30" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="N30" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="O30" s="3" t="s">
-        <v>264</v>
-      </c>
-      <c r="P30" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="Q30" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="R30" s="3" t="s">
-        <v>265</v>
-      </c>
-      <c r="S30" s="3" t="s">
-        <v>266</v>
-      </c>
-      <c r="T30" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="U30" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="V30" s="3" t="s">
-        <v>267</v>
-      </c>
-      <c r="W30" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="X30" s="3" t="s">
-        <v>268</v>
-      </c>
-      <c r="Y30" s="3"/>
     </row>
     <row r="31" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>118</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>270</v>
+        <v>121</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>271</v>
+        <v>134</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>272</v>
+        <v>66</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>273</v>
+        <v>74</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>274</v>
+        <v>261</v>
       </c>
       <c r="H31" s="3" t="s">
-        <v>270</v>
+        <v>79</v>
       </c>
       <c r="I31" s="3" t="s">
-        <v>275</v>
+        <v>262</v>
       </c>
       <c r="J31" s="3" t="s">
-        <v>273</v>
+        <v>263</v>
       </c>
       <c r="K31" s="3" t="s">
-        <v>276</v>
+        <v>79</v>
       </c>
       <c r="L31" s="3" t="s">
-        <v>277</v>
+        <v>66</v>
       </c>
       <c r="M31" s="3" t="s">
-        <v>129</v>
+        <v>164</v>
       </c>
       <c r="N31" s="3" t="s">
-        <v>278</v>
+        <v>201</v>
       </c>
       <c r="O31" s="3" t="s">
-        <v>276</v>
+        <v>264</v>
       </c>
       <c r="P31" s="3" t="s">
-        <v>279</v>
+        <v>101</v>
       </c>
       <c r="Q31" s="3" t="s">
-        <v>277</v>
+        <v>64</v>
       </c>
       <c r="R31" s="3" t="s">
-        <v>120</v>
+        <v>265</v>
       </c>
       <c r="S31" s="3" t="s">
-        <v>280</v>
+        <v>266</v>
       </c>
       <c r="T31" s="3" t="s">
-        <v>281</v>
+        <v>96</v>
       </c>
       <c r="U31" s="3" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="V31" s="3" t="s">
-        <v>282</v>
+        <v>267</v>
       </c>
       <c r="W31" s="3" t="s">
-        <v>283</v>
+        <v>263</v>
       </c>
       <c r="X31" s="3" t="s">
-        <v>284</v>
+        <v>268</v>
       </c>
       <c r="Y31" s="3"/>
     </row>
     <row r="32" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>285</v>
+        <v>269</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>118</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>199</v>
+        <v>270</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>286</v>
+        <v>271</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>90</v>
+        <v>272</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>181</v>
+        <v>273</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>141</v>
+        <v>274</v>
       </c>
       <c r="H32" s="3" t="s">
-        <v>287</v>
+        <v>270</v>
       </c>
       <c r="I32" s="3" t="s">
-        <v>181</v>
+        <v>275</v>
       </c>
       <c r="J32" s="3" t="s">
         <v>273</v>
       </c>
       <c r="K32" s="3" t="s">
-        <v>90</v>
+        <v>276</v>
       </c>
       <c r="L32" s="3" t="s">
-        <v>197</v>
+        <v>277</v>
       </c>
       <c r="M32" s="3" t="s">
-        <v>197</v>
+        <v>129</v>
       </c>
       <c r="N32" s="3" t="s">
-        <v>90</v>
+        <v>278</v>
       </c>
       <c r="O32" s="3" t="s">
-        <v>90</v>
+        <v>276</v>
       </c>
       <c r="P32" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="Q32" s="3" t="s">
-        <v>197</v>
+        <v>277</v>
       </c>
       <c r="R32" s="3" t="s">
         <v>120</v>
       </c>
       <c r="S32" s="3" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
       <c r="T32" s="3" t="s">
-        <v>97</v>
+        <v>281</v>
       </c>
       <c r="U32" s="3" t="s">
         <v>271</v>
       </c>
       <c r="V32" s="3" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="W32" s="3" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="X32" s="3" t="s">
-        <v>133</v>
+        <v>284</v>
       </c>
       <c r="Y32" s="3"/>
     </row>
     <row r="33" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>118</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>291</v>
+        <v>199</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>271</v>
+        <v>286</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>292</v>
+        <v>90</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>293</v>
+        <v>181</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>294</v>
+        <v>141</v>
       </c>
       <c r="H33" s="3" t="s">
-        <v>168</v>
+        <v>287</v>
       </c>
       <c r="I33" s="3" t="s">
-        <v>199</v>
+        <v>181</v>
       </c>
       <c r="J33" s="3" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="K33" s="3" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="L33" s="3" t="s">
-        <v>292</v>
+        <v>197</v>
       </c>
       <c r="M33" s="3" t="s">
         <v>197</v>
       </c>
       <c r="N33" s="3" t="s">
-        <v>139</v>
+        <v>90</v>
       </c>
       <c r="O33" s="3" t="s">
-        <v>287</v>
+        <v>90</v>
       </c>
       <c r="P33" s="3" t="s">
-        <v>295</v>
+        <v>280</v>
       </c>
       <c r="Q33" s="3" t="s">
-        <v>296</v>
+        <v>197</v>
       </c>
       <c r="R33" s="3" t="s">
-        <v>194</v>
+        <v>120</v>
       </c>
       <c r="S33" s="3" t="s">
-        <v>270</v>
+        <v>288</v>
       </c>
       <c r="T33" s="3" t="s">
-        <v>297</v>
+        <v>97</v>
       </c>
       <c r="U33" s="3" t="s">
         <v>271</v>
       </c>
       <c r="V33" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="W33" s="3" t="s">
         <v>279</v>
       </c>
-      <c r="W33" s="3" t="s">
-        <v>298</v>
-      </c>
       <c r="X33" s="3" t="s">
-        <v>271</v>
+        <v>133</v>
       </c>
       <c r="Y33" s="3"/>
     </row>
     <row r="34" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>299</v>
+        <v>290</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>118</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>131</v>
+        <v>291</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>286</v>
+        <v>271</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>105</v>
+        <v>292</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>125</v>
+        <v>294</v>
       </c>
       <c r="H34" s="3" t="s">
-        <v>99</v>
+        <v>168</v>
       </c>
       <c r="I34" s="3" t="s">
-        <v>137</v>
+        <v>199</v>
       </c>
       <c r="J34" s="3" t="s">
-        <v>301</v>
+        <v>271</v>
       </c>
       <c r="K34" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L34" s="3" t="s">
-        <v>137</v>
+        <v>292</v>
       </c>
       <c r="M34" s="3" t="s">
-        <v>302</v>
+        <v>197</v>
       </c>
       <c r="N34" s="3" t="s">
-        <v>302</v>
+        <v>139</v>
       </c>
       <c r="O34" s="3" t="s">
-        <v>303</v>
+        <v>287</v>
       </c>
       <c r="P34" s="3" t="s">
-        <v>304</v>
+        <v>295</v>
       </c>
       <c r="Q34" s="3" t="s">
-        <v>115</v>
+        <v>296</v>
       </c>
       <c r="R34" s="3" t="s">
         <v>194</v>
       </c>
       <c r="S34" s="3" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="T34" s="3" t="s">
-        <v>134</v>
+        <v>297</v>
       </c>
       <c r="U34" s="3" t="s">
-        <v>301</v>
+        <v>271</v>
       </c>
       <c r="V34" s="3" t="s">
-        <v>97</v>
+        <v>279</v>
       </c>
       <c r="W34" s="3" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="X34" s="3" t="s">
-        <v>197</v>
+        <v>271</v>
       </c>
       <c r="Y34" s="3"/>
     </row>
     <row r="35" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>118</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="D35" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="G35" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="H35" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="I35" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="J35" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="K35" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="L35" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="M35" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="N35" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="O35" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="P35" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="Q35" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="R35" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="S35" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="T35" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="U35" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="V35" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="E35" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="F35" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="G35" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="H35" s="3" t="s">
-        <v>306</v>
-      </c>
-      <c r="I35" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="J35" s="3" t="s">
-        <v>271</v>
-      </c>
-      <c r="K35" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="L35" s="3" t="s">
-        <v>307</v>
-      </c>
-      <c r="M35" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="N35" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="O35" s="3" t="s">
-        <v>249</v>
-      </c>
-      <c r="P35" s="3" t="s">
-        <v>298</v>
-      </c>
-      <c r="Q35" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="R35" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="S35" s="3" t="s">
-        <v>308</v>
-      </c>
-      <c r="T35" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="U35" s="3" t="s">
-        <v>271</v>
-      </c>
-      <c r="V35" s="3" t="s">
-        <v>134</v>
-      </c>
       <c r="W35" s="3" t="s">
-        <v>271</v>
+        <v>296</v>
       </c>
       <c r="X35" s="3" t="s">
-        <v>106</v>
+        <v>197</v>
       </c>
       <c r="Y35" s="3"/>
     </row>
     <row r="36" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>118</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>310</v>
+        <v>97</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>311</v>
+        <v>94</v>
       </c>
       <c r="G36" s="3" t="s">
         <v>130</v>
       </c>
       <c r="H36" s="3" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="I36" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="J36" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="K36" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="L36" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="M36" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="N36" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="O36" s="3" t="s">
         <v>249</v>
       </c>
-      <c r="J36" s="3" t="s">
-        <v>271</v>
-      </c>
-      <c r="K36" s="3" t="s">
-        <v>249</v>
-      </c>
-      <c r="L36" s="3" t="s">
+      <c r="P36" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="Q36" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="R36" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="S36" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="T36" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="M36" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="N36" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="O36" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="P36" s="3" t="s">
-        <v>313</v>
-      </c>
-      <c r="Q36" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="R36" s="3" t="s">
-        <v>314</v>
-      </c>
-      <c r="S36" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="T36" s="3" t="s">
-        <v>137</v>
-      </c>
       <c r="U36" s="3" t="s">
         <v>271</v>
       </c>
       <c r="V36" s="3" t="s">
-        <v>99</v>
+        <v>134</v>
       </c>
       <c r="W36" s="3" t="s">
         <v>271</v>
       </c>
       <c r="X36" s="3" t="s">
-        <v>315</v>
+        <v>106</v>
       </c>
       <c r="Y36" s="3"/>
     </row>
     <row r="37" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>118</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>318</v>
+        <v>95</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>197</v>
+        <v>311</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>319</v>
+        <v>130</v>
       </c>
       <c r="H37" s="3" t="s">
-        <v>90</v>
+        <v>312</v>
       </c>
       <c r="I37" s="3" t="s">
-        <v>64</v>
+        <v>249</v>
       </c>
       <c r="J37" s="3" t="s">
         <v>271</v>
       </c>
       <c r="K37" s="3" t="s">
-        <v>96</v>
+        <v>249</v>
       </c>
       <c r="L37" s="3" t="s">
-        <v>320</v>
+        <v>103</v>
       </c>
       <c r="M37" s="3" t="s">
-        <v>321</v>
+        <v>103</v>
       </c>
       <c r="N37" s="3" t="s">
-        <v>105</v>
+        <v>127</v>
       </c>
       <c r="O37" s="3" t="s">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="P37" s="3" t="s">
-        <v>322</v>
+        <v>313</v>
       </c>
       <c r="Q37" s="3" t="s">
-        <v>321</v>
+        <v>103</v>
       </c>
       <c r="R37" s="3" t="s">
-        <v>111</v>
+        <v>314</v>
       </c>
       <c r="S37" s="3" t="s">
-        <v>323</v>
+        <v>293</v>
       </c>
       <c r="T37" s="3" t="s">
-        <v>76</v>
+        <v>137</v>
       </c>
       <c r="U37" s="3" t="s">
         <v>271</v>
       </c>
       <c r="V37" s="3" t="s">
-        <v>267</v>
+        <v>99</v>
       </c>
       <c r="W37" s="3" t="s">
         <v>271</v>
       </c>
       <c r="X37" s="3" t="s">
-        <v>324</v>
+        <v>315</v>
       </c>
       <c r="Y37" s="3"/>
     </row>
     <row r="38" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>325</v>
+        <v>316</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>118</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>326</v>
+        <v>131</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>327</v>
+        <v>317</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>134</v>
+        <v>318</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="G38" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="H38" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="H38" s="3" t="s">
-        <v>328</v>
-      </c>
       <c r="I38" s="3" t="s">
-        <v>110</v>
+        <v>64</v>
       </c>
       <c r="J38" s="3" t="s">
         <v>271</v>
       </c>
       <c r="K38" s="3" t="s">
-        <v>315</v>
+        <v>96</v>
       </c>
       <c r="L38" s="3" t="s">
-        <v>100</v>
+        <v>320</v>
       </c>
       <c r="M38" s="3" t="s">
-        <v>100</v>
+        <v>321</v>
       </c>
       <c r="N38" s="3" t="s">
-        <v>131</v>
+        <v>105</v>
       </c>
       <c r="O38" s="3" t="s">
-        <v>245</v>
+        <v>74</v>
       </c>
       <c r="P38" s="3" t="s">
-        <v>273</v>
+        <v>322</v>
       </c>
       <c r="Q38" s="3" t="s">
-        <v>125</v>
+        <v>321</v>
       </c>
       <c r="R38" s="3" t="s">
-        <v>314</v>
+        <v>111</v>
       </c>
       <c r="S38" s="3" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="T38" s="3" t="s">
-        <v>245</v>
+        <v>76</v>
       </c>
       <c r="U38" s="3" t="s">
         <v>271</v>
       </c>
       <c r="V38" s="3" t="s">
-        <v>127</v>
+        <v>267</v>
       </c>
       <c r="W38" s="3" t="s">
         <v>271</v>
       </c>
       <c r="X38" s="3" t="s">
-        <v>125</v>
+        <v>324</v>
       </c>
       <c r="Y38" s="3"/>
     </row>
     <row r="39" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>118</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>140</v>
+        <v>326</v>
       </c>
       <c r="D39" s="3" t="s">
+        <v>327</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="F39" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="G39" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="H39" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="I39" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="J39" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="K39" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="L39" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="E39" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="F39" s="3" t="s">
-        <v>315</v>
-      </c>
-      <c r="G39" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="H39" s="3" t="s">
-        <v>303</v>
-      </c>
-      <c r="I39" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="J39" s="3" t="s">
-        <v>330</v>
-      </c>
-      <c r="K39" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="L39" s="3" t="s">
-        <v>80</v>
-      </c>
       <c r="M39" s="3" t="s">
-        <v>66</v>
+        <v>100</v>
       </c>
       <c r="N39" s="3" t="s">
-        <v>331</v>
+        <v>131</v>
       </c>
       <c r="O39" s="3" t="s">
-        <v>79</v>
+        <v>245</v>
       </c>
       <c r="P39" s="3" t="s">
-        <v>332</v>
+        <v>273</v>
       </c>
       <c r="Q39" s="3" t="s">
-        <v>80</v>
+        <v>125</v>
       </c>
       <c r="R39" s="3" t="s">
-        <v>333</v>
+        <v>314</v>
       </c>
       <c r="S39" s="3" t="s">
-        <v>334</v>
+        <v>322</v>
       </c>
       <c r="T39" s="3" t="s">
-        <v>69</v>
+        <v>245</v>
       </c>
       <c r="U39" s="3" t="s">
-        <v>330</v>
+        <v>271</v>
       </c>
       <c r="V39" s="3" t="s">
-        <v>74</v>
+        <v>127</v>
       </c>
       <c r="W39" s="3" t="s">
-        <v>330</v>
+        <v>271</v>
       </c>
       <c r="X39" s="3" t="s">
-        <v>66</v>
+        <v>125</v>
       </c>
       <c r="Y39" s="3"/>
     </row>
     <row r="40" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>118</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>336</v>
+        <v>140</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>311</v>
+        <v>100</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>127</v>
+        <v>66</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>291</v>
+        <v>315</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>131</v>
+        <v>74</v>
       </c>
       <c r="H40" s="3" t="s">
-        <v>207</v>
+        <v>303</v>
       </c>
       <c r="I40" s="3" t="s">
-        <v>300</v>
+        <v>167</v>
       </c>
       <c r="J40" s="3" t="s">
-        <v>271</v>
+        <v>330</v>
       </c>
       <c r="K40" s="3" t="s">
-        <v>97</v>
+        <v>69</v>
       </c>
       <c r="L40" s="3" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="M40" s="3" t="s">
-        <v>90</v>
+        <v>66</v>
       </c>
       <c r="N40" s="3" t="s">
-        <v>306</v>
+        <v>331</v>
       </c>
       <c r="O40" s="3" t="s">
-        <v>127</v>
+        <v>79</v>
       </c>
       <c r="P40" s="3" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="Q40" s="3" t="s">
-        <v>181</v>
+        <v>80</v>
       </c>
       <c r="R40" s="3" t="s">
-        <v>314</v>
+        <v>333</v>
       </c>
       <c r="S40" s="3" t="s">
-        <v>279</v>
+        <v>334</v>
       </c>
       <c r="T40" s="3" t="s">
-        <v>127</v>
+        <v>69</v>
       </c>
       <c r="U40" s="3" t="s">
-        <v>271</v>
+        <v>330</v>
       </c>
       <c r="V40" s="3" t="s">
-        <v>94</v>
+        <v>74</v>
       </c>
       <c r="W40" s="3" t="s">
-        <v>271</v>
+        <v>330</v>
       </c>
       <c r="X40" s="3" t="s">
-        <v>90</v>
+        <v>66</v>
       </c>
       <c r="Y40" s="3"/>
     </row>
     <row r="41" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>118</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>168</v>
+        <v>311</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>105</v>
+        <v>127</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>340</v>
+        <v>291</v>
       </c>
       <c r="G41" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="H41" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="I41" s="3" t="s">
         <v>300</v>
       </c>
-      <c r="H41" s="3" t="s">
-        <v>341</v>
-      </c>
-      <c r="I41" s="3" t="s">
-        <v>103</v>
-      </c>
       <c r="J41" s="3" t="s">
         <v>271</v>
       </c>
       <c r="K41" s="3" t="s">
-        <v>303</v>
+        <v>97</v>
       </c>
       <c r="L41" s="3" t="s">
-        <v>140</v>
+        <v>90</v>
       </c>
       <c r="M41" s="3" t="s">
-        <v>137</v>
+        <v>90</v>
       </c>
       <c r="N41" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="O41" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="P41" s="3" t="s">
+        <v>337</v>
+      </c>
+      <c r="Q41" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="O41" s="3" t="s">
-        <v>302</v>
-      </c>
-      <c r="P41" s="3" t="s">
-        <v>273</v>
-      </c>
-      <c r="Q41" s="3" t="s">
-        <v>140</v>
-      </c>
       <c r="R41" s="3" t="s">
-        <v>120</v>
+        <v>314</v>
       </c>
       <c r="S41" s="3" t="s">
-        <v>322</v>
+        <v>279</v>
       </c>
       <c r="T41" s="3" t="s">
-        <v>303</v>
+        <v>127</v>
       </c>
       <c r="U41" s="3" t="s">
         <v>271</v>
       </c>
       <c r="V41" s="3" t="s">
-        <v>315</v>
+        <v>94</v>
       </c>
       <c r="W41" s="3" t="s">
         <v>271</v>
       </c>
       <c r="X41" s="3" t="s">
-        <v>140</v>
+        <v>90</v>
       </c>
       <c r="Y41" s="3"/>
     </row>
     <row r="42" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>118</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>268</v>
+        <v>339</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>319</v>
+        <v>168</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>82</v>
+        <v>105</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>319</v>
+        <v>340</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>81</v>
+        <v>300</v>
       </c>
       <c r="H42" s="3" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="I42" s="3" t="s">
-        <v>344</v>
+        <v>103</v>
       </c>
       <c r="J42" s="3" t="s">
-        <v>345</v>
+        <v>271</v>
       </c>
       <c r="K42" s="3" t="s">
-        <v>75</v>
+        <v>303</v>
       </c>
       <c r="L42" s="3" t="s">
-        <v>82</v>
+        <v>140</v>
       </c>
       <c r="M42" s="3" t="s">
-        <v>346</v>
+        <v>137</v>
       </c>
       <c r="N42" s="3" t="s">
-        <v>62</v>
+        <v>181</v>
       </c>
       <c r="O42" s="3" t="s">
-        <v>177</v>
+        <v>302</v>
       </c>
       <c r="P42" s="3" t="s">
-        <v>97</v>
+        <v>273</v>
       </c>
       <c r="Q42" s="3" t="s">
-        <v>75</v>
+        <v>140</v>
       </c>
       <c r="R42" s="3" t="s">
-        <v>347</v>
+        <v>120</v>
       </c>
       <c r="S42" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="T42" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="U42" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="V42" s="3" t="s">
         <v>315</v>
       </c>
-      <c r="T42" s="3" t="s">
-        <v>348</v>
-      </c>
-      <c r="U42" s="3" t="s">
-        <v>345</v>
-      </c>
-      <c r="V42" s="3" t="s">
-        <v>349</v>
-      </c>
       <c r="W42" s="3" t="s">
-        <v>345</v>
+        <v>271</v>
       </c>
       <c r="X42" s="3" t="s">
-        <v>350</v>
+        <v>140</v>
       </c>
       <c r="Y42" s="3"/>
     </row>
     <row r="43" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>351</v>
+        <v>342</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>118</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>352</v>
+        <v>268</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>304</v>
+        <v>319</v>
       </c>
       <c r="G43" s="3" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="H43" s="3" t="s">
-        <v>281</v>
+        <v>343</v>
       </c>
       <c r="I43" s="3" t="s">
-        <v>96</v>
+        <v>344</v>
       </c>
       <c r="J43" s="3" t="s">
-        <v>271</v>
+        <v>345</v>
       </c>
       <c r="K43" s="3" t="s">
-        <v>187</v>
+        <v>75</v>
       </c>
       <c r="L43" s="3" t="s">
-        <v>261</v>
+        <v>82</v>
       </c>
       <c r="M43" s="3" t="s">
-        <v>108</v>
+        <v>346</v>
       </c>
       <c r="N43" s="3" t="s">
-        <v>181</v>
+        <v>62</v>
       </c>
       <c r="O43" s="3" t="s">
-        <v>264</v>
+        <v>177</v>
       </c>
       <c r="P43" s="3" t="s">
-        <v>271</v>
+        <v>97</v>
       </c>
       <c r="Q43" s="3" t="s">
-        <v>114</v>
+        <v>75</v>
       </c>
       <c r="R43" s="3" t="s">
-        <v>109</v>
+        <v>347</v>
       </c>
       <c r="S43" s="3" t="s">
-        <v>273</v>
+        <v>315</v>
       </c>
       <c r="T43" s="3" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="U43" s="3" t="s">
-        <v>271</v>
+        <v>345</v>
       </c>
       <c r="V43" s="3" t="s">
-        <v>113</v>
+        <v>349</v>
       </c>
       <c r="W43" s="3" t="s">
-        <v>271</v>
+        <v>345</v>
       </c>
       <c r="X43" s="3" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="Y43" s="3"/>
     </row>
     <row r="44" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>118</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>174</v>
+        <v>352</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>174</v>
+        <v>317</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>356</v>
+        <v>83</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>174</v>
+        <v>304</v>
       </c>
       <c r="G44" s="3" t="s">
-        <v>357</v>
+        <v>88</v>
       </c>
       <c r="H44" s="3" t="s">
-        <v>174</v>
+        <v>281</v>
       </c>
       <c r="I44" s="3" t="s">
-        <v>358</v>
+        <v>96</v>
       </c>
       <c r="J44" s="3" t="s">
-        <v>174</v>
+        <v>271</v>
       </c>
       <c r="K44" s="3" t="s">
-        <v>359</v>
+        <v>187</v>
       </c>
       <c r="L44" s="3" t="s">
-        <v>360</v>
+        <v>261</v>
       </c>
       <c r="M44" s="3" t="s">
-        <v>361</v>
+        <v>108</v>
       </c>
       <c r="N44" s="3" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="O44" s="3" t="s">
-        <v>362</v>
+        <v>264</v>
       </c>
       <c r="P44" s="3" t="s">
-        <v>174</v>
+        <v>271</v>
       </c>
       <c r="Q44" s="3" t="s">
-        <v>363</v>
+        <v>114</v>
       </c>
       <c r="R44" s="3" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="S44" s="3" t="s">
-        <v>174</v>
+        <v>273</v>
       </c>
       <c r="T44" s="3" t="s">
-        <v>362</v>
+        <v>353</v>
       </c>
       <c r="U44" s="3" t="s">
-        <v>174</v>
+        <v>271</v>
       </c>
       <c r="V44" s="3" t="s">
-        <v>364</v>
+        <v>113</v>
       </c>
       <c r="W44" s="3" t="s">
-        <v>174</v>
+        <v>271</v>
       </c>
       <c r="X44" s="3" t="s">
-        <v>362</v>
+        <v>354</v>
       </c>
       <c r="Y44" s="3"/>
     </row>
     <row r="45" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>365</v>
+        <v>355</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>118</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>271</v>
+        <v>174</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>271</v>
+        <v>174</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>366</v>
+        <v>356</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>271</v>
+        <v>174</v>
       </c>
       <c r="G45" s="3" t="s">
-        <v>367</v>
+        <v>357</v>
       </c>
       <c r="H45" s="3" t="s">
-        <v>271</v>
+        <v>174</v>
       </c>
       <c r="I45" s="3" t="s">
-        <v>368</v>
+        <v>358</v>
       </c>
       <c r="J45" s="3" t="s">
-        <v>271</v>
+        <v>174</v>
       </c>
       <c r="K45" s="3" t="s">
-        <v>369</v>
+        <v>359</v>
       </c>
       <c r="L45" s="3" t="s">
-        <v>370</v>
+        <v>360</v>
       </c>
       <c r="M45" s="3" t="s">
-        <v>371</v>
+        <v>361</v>
       </c>
       <c r="N45" s="3" t="s">
-        <v>271</v>
+        <v>174</v>
       </c>
       <c r="O45" s="3" t="s">
-        <v>372</v>
+        <v>362</v>
       </c>
       <c r="P45" s="3" t="s">
-        <v>271</v>
+        <v>174</v>
       </c>
       <c r="Q45" s="3" t="s">
-        <v>373</v>
+        <v>363</v>
       </c>
       <c r="R45" s="3" t="s">
         <v>120</v>
       </c>
       <c r="S45" s="3" t="s">
-        <v>271</v>
+        <v>174</v>
       </c>
       <c r="T45" s="3" t="s">
-        <v>372</v>
+        <v>362</v>
       </c>
       <c r="U45" s="3" t="s">
-        <v>271</v>
+        <v>174</v>
       </c>
       <c r="V45" s="3" t="s">
-        <v>374</v>
+        <v>364</v>
       </c>
       <c r="W45" s="3" t="s">
-        <v>271</v>
+        <v>174</v>
       </c>
       <c r="X45" s="3" t="s">
-        <v>369</v>
+        <v>362</v>
       </c>
       <c r="Y45" s="3"/>
     </row>
     <row r="46" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>375</v>
+        <v>365</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>118</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>352</v>
+        <v>271</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>317</v>
+        <v>271</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>83</v>
+        <v>366</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>304</v>
+        <v>271</v>
       </c>
       <c r="G46" s="3" t="s">
-        <v>88</v>
+        <v>367</v>
       </c>
       <c r="H46" s="3" t="s">
-        <v>281</v>
+        <v>271</v>
       </c>
       <c r="I46" s="3" t="s">
-        <v>96</v>
+        <v>368</v>
       </c>
       <c r="J46" s="3" t="s">
-        <v>376</v>
+        <v>271</v>
       </c>
       <c r="K46" s="3" t="s">
-        <v>187</v>
+        <v>369</v>
       </c>
       <c r="L46" s="3" t="s">
-        <v>261</v>
+        <v>370</v>
       </c>
       <c r="M46" s="3" t="s">
-        <v>108</v>
+        <v>371</v>
       </c>
       <c r="N46" s="3" t="s">
-        <v>181</v>
+        <v>271</v>
       </c>
       <c r="O46" s="3" t="s">
-        <v>264</v>
+        <v>372</v>
       </c>
       <c r="P46" s="3" t="s">
-        <v>376</v>
+        <v>271</v>
       </c>
       <c r="Q46" s="3" t="s">
-        <v>114</v>
+        <v>373</v>
       </c>
       <c r="R46" s="3" t="s">
-        <v>377</v>
+        <v>120</v>
       </c>
       <c r="S46" s="3" t="s">
-        <v>376</v>
+        <v>271</v>
       </c>
       <c r="T46" s="3" t="s">
-        <v>353</v>
+        <v>372</v>
       </c>
       <c r="U46" s="3" t="s">
-        <v>376</v>
+        <v>271</v>
       </c>
       <c r="V46" s="3" t="s">
-        <v>113</v>
+        <v>374</v>
       </c>
       <c r="W46" s="3" t="s">
-        <v>376</v>
+        <v>271</v>
       </c>
       <c r="X46" s="3" t="s">
-        <v>354</v>
+        <v>369</v>
       </c>
       <c r="Y46" s="3"/>
     </row>
     <row r="47" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>118</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>271</v>
+        <v>352</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>271</v>
+        <v>317</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>379</v>
+        <v>83</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>271</v>
+        <v>304</v>
       </c>
       <c r="G47" s="3" t="s">
-        <v>367</v>
+        <v>88</v>
       </c>
       <c r="H47" s="3" t="s">
-        <v>271</v>
+        <v>281</v>
       </c>
       <c r="I47" s="3" t="s">
-        <v>370</v>
+        <v>96</v>
       </c>
       <c r="J47" s="3" t="s">
-        <v>271</v>
+        <v>376</v>
       </c>
       <c r="K47" s="3" t="s">
-        <v>380</v>
+        <v>187</v>
       </c>
       <c r="L47" s="3" t="s">
-        <v>380</v>
+        <v>261</v>
       </c>
       <c r="M47" s="3" t="s">
-        <v>381</v>
+        <v>108</v>
       </c>
       <c r="N47" s="3" t="s">
-        <v>271</v>
+        <v>181</v>
       </c>
       <c r="O47" s="3" t="s">
-        <v>366</v>
+        <v>264</v>
       </c>
       <c r="P47" s="3" t="s">
-        <v>271</v>
+        <v>376</v>
       </c>
       <c r="Q47" s="3" t="s">
-        <v>379</v>
+        <v>114</v>
       </c>
       <c r="R47" s="3" t="s">
-        <v>120</v>
+        <v>377</v>
       </c>
       <c r="S47" s="3" t="s">
-        <v>271</v>
+        <v>376</v>
       </c>
       <c r="T47" s="3" t="s">
-        <v>370</v>
+        <v>353</v>
       </c>
       <c r="U47" s="3" t="s">
-        <v>271</v>
+        <v>376</v>
       </c>
       <c r="V47" s="3" t="s">
-        <v>381</v>
+        <v>113</v>
       </c>
       <c r="W47" s="3" t="s">
-        <v>271</v>
+        <v>376</v>
       </c>
       <c r="X47" s="3" t="s">
-        <v>374</v>
+        <v>354</v>
       </c>
       <c r="Y47" s="3"/>
     </row>
     <row r="48" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>118</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>311</v>
+        <v>271</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>340</v>
+        <v>271</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>140</v>
+        <v>379</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>308</v>
+        <v>271</v>
       </c>
       <c r="G48" s="3" t="s">
-        <v>181</v>
+        <v>367</v>
       </c>
       <c r="H48" s="3" t="s">
-        <v>174</v>
+        <v>271</v>
       </c>
       <c r="I48" s="3" t="s">
-        <v>134</v>
+        <v>370</v>
       </c>
       <c r="J48" s="3" t="s">
-        <v>174</v>
+        <v>271</v>
       </c>
       <c r="K48" s="3" t="s">
-        <v>99</v>
+        <v>380</v>
       </c>
       <c r="L48" s="3" t="s">
-        <v>127</v>
+        <v>380</v>
       </c>
       <c r="M48" s="3" t="s">
-        <v>181</v>
+        <v>381</v>
       </c>
       <c r="N48" s="3" t="s">
-        <v>174</v>
+        <v>271</v>
       </c>
       <c r="O48" s="3" t="s">
-        <v>173</v>
+        <v>366</v>
       </c>
       <c r="P48" s="3" t="s">
-        <v>174</v>
+        <v>271</v>
       </c>
       <c r="Q48" s="3" t="s">
-        <v>127</v>
+        <v>379</v>
       </c>
       <c r="R48" s="3" t="s">
-        <v>343</v>
+        <v>120</v>
       </c>
       <c r="S48" s="3" t="s">
-        <v>174</v>
+        <v>271</v>
       </c>
       <c r="T48" s="3" t="s">
-        <v>125</v>
+        <v>370</v>
       </c>
       <c r="U48" s="3" t="s">
-        <v>174</v>
+        <v>271</v>
       </c>
       <c r="V48" s="3" t="s">
-        <v>181</v>
+        <v>381</v>
       </c>
       <c r="W48" s="3" t="s">
-        <v>174</v>
+        <v>271</v>
       </c>
       <c r="X48" s="3" t="s">
-        <v>173</v>
+        <v>374</v>
       </c>
       <c r="Y48" s="3"/>
     </row>
     <row r="49" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>118</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>301</v>
+        <v>311</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>301</v>
+        <v>340</v>
       </c>
       <c r="E49" s="3" t="s">
         <v>140</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>301</v>
+        <v>308</v>
       </c>
       <c r="G49" s="3" t="s">
         <v>181</v>
       </c>
       <c r="H49" s="3" t="s">
-        <v>301</v>
+        <v>174</v>
       </c>
       <c r="I49" s="3" t="s">
         <v>134</v>
       </c>
       <c r="J49" s="3" t="s">
-        <v>301</v>
+        <v>174</v>
       </c>
       <c r="K49" s="3" t="s">
         <v>99</v>
@@ -5502,13 +5512,13 @@
         <v>181</v>
       </c>
       <c r="N49" s="3" t="s">
-        <v>301</v>
+        <v>174</v>
       </c>
       <c r="O49" s="3" t="s">
         <v>173</v>
       </c>
       <c r="P49" s="3" t="s">
-        <v>301</v>
+        <v>174</v>
       </c>
       <c r="Q49" s="3" t="s">
         <v>127</v>
@@ -5517,19 +5527,19 @@
         <v>343</v>
       </c>
       <c r="S49" s="3" t="s">
-        <v>301</v>
+        <v>174</v>
       </c>
       <c r="T49" s="3" t="s">
         <v>125</v>
       </c>
       <c r="U49" s="3" t="s">
-        <v>301</v>
+        <v>174</v>
       </c>
       <c r="V49" s="3" t="s">
         <v>181</v>
       </c>
       <c r="W49" s="3" t="s">
-        <v>301</v>
+        <v>174</v>
       </c>
       <c r="X49" s="3" t="s">
         <v>173</v>
@@ -5537,169 +5547,169 @@
       <c r="Y49" s="3"/>
     </row>
     <row r="50" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A50" s="2" t="s">
+      <c r="A50" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="E50" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="F50" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="G50" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="H50" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="I50" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="J50" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="K50" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="L50" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="M50" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="N50" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="O50" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="P50" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="Q50" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="R50" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="S50" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="T50" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="U50" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="V50" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="W50" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="X50" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="Y50" s="3"/>
+    </row>
+    <row r="51" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A51" s="2" t="s">
         <v>384</v>
       </c>
-    </row>
-    <row r="51" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A51" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C51" s="3" t="s">
-        <v>385</v>
-      </c>
-      <c r="D51" s="3" t="s">
-        <v>386</v>
-      </c>
-      <c r="E51" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="F51" s="3" t="s">
-        <v>315</v>
-      </c>
-      <c r="G51" s="3" t="s">
-        <v>387</v>
-      </c>
-      <c r="H51" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="I51" s="3" t="s">
-        <v>388</v>
-      </c>
-      <c r="J51" s="3" t="s">
-        <v>389</v>
-      </c>
-      <c r="K51" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="L51" s="3" t="s">
-        <v>390</v>
-      </c>
-      <c r="M51" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="N51" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="O51" s="3" t="s">
-        <v>253</v>
-      </c>
-      <c r="P51" s="3" t="s">
-        <v>266</v>
-      </c>
-      <c r="Q51" s="3" t="s">
-        <v>391</v>
-      </c>
-      <c r="R51" s="3" t="s">
-        <v>392</v>
-      </c>
-      <c r="S51" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="T51" s="3" t="s">
-        <v>253</v>
-      </c>
-      <c r="U51" s="3" t="s">
-        <v>393</v>
-      </c>
-      <c r="V51" s="3" t="s">
-        <v>394</v>
-      </c>
-      <c r="W51" s="3" t="s">
-        <v>395</v>
-      </c>
-      <c r="X51" s="3" t="s">
-        <v>396</v>
-      </c>
-      <c r="Y51" s="3"/>
     </row>
     <row r="52" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>397</v>
+        <v>243</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>118</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>181</v>
+        <v>385</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>271</v>
+        <v>386</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>398</v>
+        <v>157</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>271</v>
+        <v>315</v>
       </c>
       <c r="G52" s="3" t="s">
-        <v>399</v>
+        <v>387</v>
       </c>
       <c r="H52" s="3" t="s">
-        <v>271</v>
+        <v>140</v>
       </c>
       <c r="I52" s="3" t="s">
-        <v>400</v>
+        <v>388</v>
       </c>
       <c r="J52" s="3" t="s">
-        <v>336</v>
+        <v>389</v>
       </c>
       <c r="K52" s="3" t="s">
-        <v>398</v>
+        <v>256</v>
       </c>
       <c r="L52" s="3" t="s">
-        <v>398</v>
+        <v>390</v>
       </c>
       <c r="M52" s="3" t="s">
-        <v>398</v>
+        <v>150</v>
       </c>
       <c r="N52" s="3" t="s">
-        <v>271</v>
+        <v>94</v>
       </c>
       <c r="O52" s="3" t="s">
-        <v>401</v>
+        <v>253</v>
       </c>
       <c r="P52" s="3" t="s">
-        <v>284</v>
+        <v>266</v>
       </c>
       <c r="Q52" s="3" t="s">
-        <v>402</v>
+        <v>391</v>
       </c>
       <c r="R52" s="3" t="s">
-        <v>403</v>
+        <v>392</v>
       </c>
       <c r="S52" s="3" t="s">
-        <v>271</v>
+        <v>98</v>
       </c>
       <c r="T52" s="3" t="s">
-        <v>404</v>
+        <v>253</v>
       </c>
       <c r="U52" s="3" t="s">
-        <v>271</v>
+        <v>393</v>
       </c>
       <c r="V52" s="3" t="s">
-        <v>405</v>
+        <v>394</v>
       </c>
       <c r="W52" s="3" t="s">
-        <v>284</v>
+        <v>395</v>
       </c>
       <c r="X52" s="3" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="Y52" s="3"/>
     </row>
     <row r="53" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>406</v>
+        <v>397</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>118</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>83</v>
+        <v>181</v>
       </c>
       <c r="D53" s="3" t="s">
         <v>271</v>
@@ -5711,16 +5721,16 @@
         <v>271</v>
       </c>
       <c r="G53" s="3" t="s">
-        <v>407</v>
+        <v>399</v>
       </c>
       <c r="H53" s="3" t="s">
-        <v>337</v>
+        <v>271</v>
       </c>
       <c r="I53" s="3" t="s">
-        <v>408</v>
+        <v>400</v>
       </c>
       <c r="J53" s="3" t="s">
-        <v>298</v>
+        <v>336</v>
       </c>
       <c r="K53" s="3" t="s">
         <v>398</v>
@@ -5735,13 +5745,13 @@
         <v>271</v>
       </c>
       <c r="O53" s="3" t="s">
-        <v>409</v>
+        <v>401</v>
       </c>
       <c r="P53" s="3" t="s">
-        <v>295</v>
+        <v>284</v>
       </c>
       <c r="Q53" s="3" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="R53" s="3" t="s">
         <v>403</v>
@@ -5750,475 +5760,475 @@
         <v>271</v>
       </c>
       <c r="T53" s="3" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="U53" s="3" t="s">
         <v>271</v>
       </c>
       <c r="V53" s="3" t="s">
-        <v>398</v>
+        <v>405</v>
       </c>
       <c r="W53" s="3" t="s">
-        <v>295</v>
+        <v>284</v>
       </c>
       <c r="X53" s="3" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="Y53" s="3"/>
     </row>
     <row r="54" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>118</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>197</v>
+        <v>83</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>412</v>
+        <v>271</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>98</v>
+        <v>398</v>
       </c>
       <c r="F54" s="3" t="s">
-        <v>412</v>
+        <v>271</v>
       </c>
       <c r="G54" s="3" t="s">
-        <v>252</v>
+        <v>407</v>
       </c>
       <c r="H54" s="3" t="s">
-        <v>412</v>
+        <v>337</v>
       </c>
       <c r="I54" s="3" t="s">
-        <v>67</v>
+        <v>408</v>
       </c>
       <c r="J54" s="3" t="s">
-        <v>412</v>
+        <v>298</v>
       </c>
       <c r="K54" s="3" t="s">
+        <v>398</v>
+      </c>
+      <c r="L54" s="3" t="s">
+        <v>398</v>
+      </c>
+      <c r="M54" s="3" t="s">
+        <v>398</v>
+      </c>
+      <c r="N54" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="O54" s="3" t="s">
+        <v>409</v>
+      </c>
+      <c r="P54" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="Q54" s="3" t="s">
+        <v>398</v>
+      </c>
+      <c r="R54" s="3" t="s">
         <v>403</v>
       </c>
-      <c r="L54" s="3" t="s">
-        <v>403</v>
-      </c>
-      <c r="M54" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="N54" s="3" t="s">
-        <v>412</v>
-      </c>
-      <c r="O54" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="P54" s="3" t="s">
-        <v>413</v>
-      </c>
-      <c r="Q54" s="3" t="s">
-        <v>403</v>
-      </c>
-      <c r="R54" s="3" t="s">
-        <v>245</v>
-      </c>
       <c r="S54" s="3" t="s">
-        <v>412</v>
+        <v>271</v>
       </c>
       <c r="T54" s="3" t="s">
-        <v>65</v>
+        <v>410</v>
       </c>
       <c r="U54" s="3" t="s">
-        <v>412</v>
+        <v>271</v>
       </c>
       <c r="V54" s="3" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="W54" s="3" t="s">
-        <v>414</v>
+        <v>295</v>
       </c>
       <c r="X54" s="3" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="Y54" s="3"/>
     </row>
     <row r="55" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="B55" s="1" t="s">
         <v>118</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>417</v>
+        <v>98</v>
       </c>
       <c r="F55" s="3" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
       <c r="G55" s="3" t="s">
-        <v>419</v>
+        <v>252</v>
       </c>
       <c r="H55" s="3" t="s">
-        <v>420</v>
+        <v>412</v>
       </c>
       <c r="I55" s="3" t="s">
-        <v>164</v>
+        <v>67</v>
       </c>
       <c r="J55" s="3" t="s">
-        <v>420</v>
+        <v>412</v>
       </c>
       <c r="K55" s="3" t="s">
-        <v>97</v>
+        <v>403</v>
       </c>
       <c r="L55" s="3" t="s">
-        <v>140</v>
+        <v>403</v>
       </c>
       <c r="M55" s="3" t="s">
-        <v>421</v>
+        <v>181</v>
       </c>
       <c r="N55" s="3" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="O55" s="3" t="s">
-        <v>69</v>
+        <v>81</v>
       </c>
       <c r="P55" s="3" t="s">
-        <v>420</v>
+        <v>413</v>
       </c>
       <c r="Q55" s="3" t="s">
-        <v>99</v>
+        <v>403</v>
       </c>
       <c r="R55" s="3" t="s">
-        <v>288</v>
+        <v>245</v>
       </c>
       <c r="S55" s="3" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
       <c r="T55" s="3" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="U55" s="3" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
       <c r="V55" s="3" t="s">
-        <v>353</v>
+        <v>403</v>
       </c>
       <c r="W55" s="3" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="X55" s="3" t="s">
-        <v>130</v>
+        <v>403</v>
       </c>
       <c r="Y55" s="3"/>
     </row>
     <row r="56" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>422</v>
+        <v>415</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>118</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>413</v>
+        <v>203</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>423</v>
+        <v>417</v>
       </c>
       <c r="F56" s="3" t="s">
         <v>418</v>
       </c>
       <c r="G56" s="3" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="H56" s="3" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="I56" s="3" t="s">
-        <v>98</v>
+        <v>164</v>
       </c>
       <c r="J56" s="3" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="K56" s="3" t="s">
-        <v>425</v>
+        <v>97</v>
       </c>
       <c r="L56" s="3" t="s">
-        <v>284</v>
+        <v>140</v>
       </c>
       <c r="M56" s="3" t="s">
+        <v>421</v>
+      </c>
+      <c r="N56" s="3" t="s">
         <v>416</v>
       </c>
-      <c r="N56" s="3" t="s">
-        <v>418</v>
-      </c>
       <c r="O56" s="3" t="s">
-        <v>426</v>
+        <v>69</v>
       </c>
       <c r="P56" s="3" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="Q56" s="3" t="s">
-        <v>279</v>
+        <v>99</v>
       </c>
       <c r="R56" s="3" t="s">
-        <v>423</v>
+        <v>288</v>
       </c>
       <c r="S56" s="3" t="s">
         <v>418</v>
       </c>
       <c r="T56" s="3" t="s">
-        <v>115</v>
+        <v>68</v>
       </c>
       <c r="U56" s="3" t="s">
         <v>418</v>
       </c>
       <c r="V56" s="3" t="s">
-        <v>97</v>
+        <v>353</v>
       </c>
       <c r="W56" s="3" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="X56" s="3" t="s">
-        <v>313</v>
+        <v>130</v>
       </c>
       <c r="Y56" s="3"/>
     </row>
     <row r="57" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>118</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>420</v>
+        <v>413</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>428</v>
+        <v>418</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="F57" s="3" t="s">
         <v>418</v>
       </c>
       <c r="G57" s="3" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="H57" s="3" t="s">
-        <v>428</v>
+        <v>418</v>
       </c>
       <c r="I57" s="3" t="s">
-        <v>281</v>
+        <v>98</v>
       </c>
       <c r="J57" s="3" t="s">
         <v>418</v>
       </c>
       <c r="K57" s="3" t="s">
+        <v>425</v>
+      </c>
+      <c r="L57" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="M57" s="3" t="s">
+        <v>416</v>
+      </c>
+      <c r="N57" s="3" t="s">
+        <v>418</v>
+      </c>
+      <c r="O57" s="3" t="s">
+        <v>426</v>
+      </c>
+      <c r="P57" s="3" t="s">
+        <v>418</v>
+      </c>
+      <c r="Q57" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="R57" s="3" t="s">
         <v>423</v>
       </c>
-      <c r="L57" s="3" t="s">
-        <v>420</v>
-      </c>
-      <c r="M57" s="3" t="s">
-        <v>420</v>
-      </c>
-      <c r="N57" s="3" t="s">
-        <v>428</v>
-      </c>
-      <c r="O57" s="3" t="s">
-        <v>430</v>
-      </c>
-      <c r="P57" s="3" t="s">
-        <v>428</v>
-      </c>
-      <c r="Q57" s="3" t="s">
-        <v>414</v>
-      </c>
-      <c r="R57" s="3" t="s">
-        <v>416</v>
-      </c>
       <c r="S57" s="3" t="s">
         <v>418</v>
       </c>
       <c r="T57" s="3" t="s">
-        <v>431</v>
+        <v>115</v>
       </c>
       <c r="U57" s="3" t="s">
         <v>418</v>
       </c>
       <c r="V57" s="3" t="s">
-        <v>432</v>
+        <v>97</v>
       </c>
       <c r="W57" s="3" t="s">
         <v>418</v>
       </c>
       <c r="X57" s="3" t="s">
-        <v>433</v>
+        <v>313</v>
       </c>
       <c r="Y57" s="3"/>
     </row>
     <row r="58" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>434</v>
+        <v>427</v>
       </c>
       <c r="B58" s="1" t="s">
         <v>118</v>
       </c>
       <c r="C58" s="3" t="s">
+        <v>420</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>428</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>420</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>418</v>
+      </c>
+      <c r="G58" s="3" t="s">
+        <v>429</v>
+      </c>
+      <c r="H58" s="3" t="s">
+        <v>428</v>
+      </c>
+      <c r="I58" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="J58" s="3" t="s">
+        <v>418</v>
+      </c>
+      <c r="K58" s="3" t="s">
         <v>423</v>
       </c>
-      <c r="D58" s="3" t="s">
-        <v>386</v>
-      </c>
-      <c r="E58" s="3" t="s">
-        <v>423</v>
-      </c>
-      <c r="F58" s="3" t="s">
-        <v>386</v>
-      </c>
-      <c r="G58" s="3" t="s">
-        <v>435</v>
-      </c>
-      <c r="H58" s="3" t="s">
-        <v>386</v>
-      </c>
-      <c r="I58" s="3" t="s">
-        <v>436</v>
-      </c>
-      <c r="J58" s="3" t="s">
-        <v>386</v>
-      </c>
-      <c r="K58" s="3" t="s">
-        <v>386</v>
-      </c>
       <c r="L58" s="3" t="s">
+        <v>420</v>
+      </c>
+      <c r="M58" s="3" t="s">
+        <v>420</v>
+      </c>
+      <c r="N58" s="3" t="s">
+        <v>428</v>
+      </c>
+      <c r="O58" s="3" t="s">
+        <v>430</v>
+      </c>
+      <c r="P58" s="3" t="s">
+        <v>428</v>
+      </c>
+      <c r="Q58" s="3" t="s">
+        <v>414</v>
+      </c>
+      <c r="R58" s="3" t="s">
         <v>416</v>
       </c>
-      <c r="M58" s="3" t="s">
-        <v>386</v>
-      </c>
-      <c r="N58" s="3" t="s">
-        <v>386</v>
-      </c>
-      <c r="O58" s="3" t="s">
-        <v>286</v>
-      </c>
-      <c r="P58" s="3" t="s">
-        <v>386</v>
-      </c>
-      <c r="Q58" s="3" t="s">
-        <v>420</v>
-      </c>
-      <c r="R58" s="3" t="s">
-        <v>386</v>
-      </c>
       <c r="S58" s="3" t="s">
-        <v>386</v>
+        <v>418</v>
       </c>
       <c r="T58" s="3" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="U58" s="3" t="s">
-        <v>386</v>
+        <v>418</v>
       </c>
       <c r="V58" s="3" t="s">
-        <v>423</v>
+        <v>432</v>
       </c>
       <c r="W58" s="3" t="s">
-        <v>386</v>
+        <v>418</v>
       </c>
       <c r="X58" s="3" t="s">
-        <v>416</v>
+        <v>433</v>
       </c>
       <c r="Y58" s="3"/>
     </row>
     <row r="59" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="B59" s="1" t="s">
         <v>118</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>418</v>
+        <v>423</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>418</v>
+        <v>386</v>
       </c>
       <c r="E59" s="3" t="s">
-        <v>418</v>
+        <v>423</v>
       </c>
       <c r="F59" s="3" t="s">
-        <v>418</v>
+        <v>386</v>
       </c>
       <c r="G59" s="3" t="s">
-        <v>256</v>
+        <v>435</v>
       </c>
       <c r="H59" s="3" t="s">
-        <v>418</v>
+        <v>386</v>
       </c>
       <c r="I59" s="3" t="s">
-        <v>418</v>
+        <v>436</v>
       </c>
       <c r="J59" s="3" t="s">
-        <v>418</v>
+        <v>386</v>
       </c>
       <c r="K59" s="3" t="s">
-        <v>418</v>
+        <v>386</v>
       </c>
       <c r="L59" s="3" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="M59" s="3" t="s">
-        <v>418</v>
+        <v>386</v>
       </c>
       <c r="N59" s="3" t="s">
-        <v>418</v>
+        <v>386</v>
       </c>
       <c r="O59" s="3" t="s">
-        <v>418</v>
+        <v>286</v>
       </c>
       <c r="P59" s="3" t="s">
-        <v>418</v>
+        <v>386</v>
       </c>
       <c r="Q59" s="3" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="R59" s="3" t="s">
-        <v>418</v>
+        <v>386</v>
       </c>
       <c r="S59" s="3" t="s">
-        <v>418</v>
+        <v>386</v>
       </c>
       <c r="T59" s="3" t="s">
-        <v>418</v>
+        <v>437</v>
       </c>
       <c r="U59" s="3" t="s">
-        <v>418</v>
+        <v>386</v>
       </c>
       <c r="V59" s="3" t="s">
-        <v>418</v>
+        <v>423</v>
       </c>
       <c r="W59" s="3" t="s">
-        <v>418</v>
+        <v>386</v>
       </c>
       <c r="X59" s="3" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="Y59" s="3"/>
     </row>
     <row r="60" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B60" s="1" t="s">
         <v>118</v>
@@ -6236,7 +6246,7 @@
         <v>418</v>
       </c>
       <c r="G60" s="3" t="s">
-        <v>440</v>
+        <v>256</v>
       </c>
       <c r="H60" s="3" t="s">
         <v>418</v>
@@ -6293,157 +6303,157 @@
     </row>
     <row r="61" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="B61" s="1" t="s">
         <v>118</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>386</v>
+        <v>418</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>386</v>
+        <v>418</v>
       </c>
       <c r="E61" s="3" t="s">
-        <v>386</v>
+        <v>418</v>
       </c>
       <c r="F61" s="3" t="s">
-        <v>386</v>
+        <v>418</v>
       </c>
       <c r="G61" s="3" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="H61" s="3" t="s">
-        <v>386</v>
+        <v>418</v>
       </c>
       <c r="I61" s="3" t="s">
-        <v>386</v>
+        <v>418</v>
       </c>
       <c r="J61" s="3" t="s">
-        <v>386</v>
+        <v>418</v>
       </c>
       <c r="K61" s="3" t="s">
-        <v>386</v>
+        <v>418</v>
       </c>
       <c r="L61" s="3" t="s">
-        <v>386</v>
+        <v>418</v>
       </c>
       <c r="M61" s="3" t="s">
-        <v>386</v>
+        <v>418</v>
       </c>
       <c r="N61" s="3" t="s">
-        <v>386</v>
+        <v>418</v>
       </c>
       <c r="O61" s="3" t="s">
-        <v>386</v>
+        <v>418</v>
       </c>
       <c r="P61" s="3" t="s">
-        <v>386</v>
+        <v>418</v>
       </c>
       <c r="Q61" s="3" t="s">
-        <v>386</v>
+        <v>418</v>
       </c>
       <c r="R61" s="3" t="s">
-        <v>386</v>
+        <v>418</v>
       </c>
       <c r="S61" s="3" t="s">
-        <v>386</v>
+        <v>418</v>
       </c>
       <c r="T61" s="3" t="s">
-        <v>386</v>
+        <v>418</v>
       </c>
       <c r="U61" s="3" t="s">
-        <v>386</v>
+        <v>418</v>
       </c>
       <c r="V61" s="3" t="s">
-        <v>386</v>
+        <v>418</v>
       </c>
       <c r="W61" s="3" t="s">
-        <v>386</v>
+        <v>418</v>
       </c>
       <c r="X61" s="3" t="s">
-        <v>386</v>
+        <v>418</v>
       </c>
       <c r="Y61" s="3"/>
     </row>
     <row r="62" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="B62" s="1" t="s">
         <v>118</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>418</v>
+        <v>386</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>418</v>
+        <v>386</v>
       </c>
       <c r="E62" s="3" t="s">
-        <v>418</v>
+        <v>386</v>
       </c>
       <c r="F62" s="3" t="s">
-        <v>418</v>
+        <v>386</v>
       </c>
       <c r="G62" s="3" t="s">
-        <v>147</v>
+        <v>442</v>
       </c>
       <c r="H62" s="3" t="s">
-        <v>418</v>
+        <v>386</v>
       </c>
       <c r="I62" s="3" t="s">
-        <v>418</v>
+        <v>386</v>
       </c>
       <c r="J62" s="3" t="s">
-        <v>418</v>
+        <v>386</v>
       </c>
       <c r="K62" s="3" t="s">
-        <v>418</v>
+        <v>386</v>
       </c>
       <c r="L62" s="3" t="s">
-        <v>418</v>
+        <v>386</v>
       </c>
       <c r="M62" s="3" t="s">
-        <v>418</v>
+        <v>386</v>
       </c>
       <c r="N62" s="3" t="s">
-        <v>418</v>
+        <v>386</v>
       </c>
       <c r="O62" s="3" t="s">
-        <v>418</v>
+        <v>386</v>
       </c>
       <c r="P62" s="3" t="s">
-        <v>418</v>
+        <v>386</v>
       </c>
       <c r="Q62" s="3" t="s">
-        <v>418</v>
+        <v>386</v>
       </c>
       <c r="R62" s="3" t="s">
-        <v>418</v>
+        <v>386</v>
       </c>
       <c r="S62" s="3" t="s">
-        <v>418</v>
+        <v>386</v>
       </c>
       <c r="T62" s="3" t="s">
-        <v>418</v>
+        <v>386</v>
       </c>
       <c r="U62" s="3" t="s">
-        <v>418</v>
+        <v>386</v>
       </c>
       <c r="V62" s="3" t="s">
-        <v>418</v>
+        <v>386</v>
       </c>
       <c r="W62" s="3" t="s">
-        <v>418</v>
+        <v>386</v>
       </c>
       <c r="X62" s="3" t="s">
-        <v>418</v>
+        <v>386</v>
       </c>
       <c r="Y62" s="3"/>
     </row>
     <row r="63" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B63" s="1" t="s">
         <v>118</v>
@@ -6461,7 +6471,7 @@
         <v>418</v>
       </c>
       <c r="G63" s="3" t="s">
-        <v>445</v>
+        <v>147</v>
       </c>
       <c r="H63" s="3" t="s">
         <v>418</v>
@@ -6518,157 +6528,157 @@
     </row>
     <row r="64" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="B64" s="1" t="s">
         <v>118</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>386</v>
+        <v>418</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>386</v>
+        <v>418</v>
       </c>
       <c r="E64" s="3" t="s">
-        <v>386</v>
+        <v>418</v>
       </c>
       <c r="F64" s="3" t="s">
-        <v>386</v>
+        <v>418</v>
       </c>
       <c r="G64" s="3" t="s">
-        <v>265</v>
+        <v>445</v>
       </c>
       <c r="H64" s="3" t="s">
-        <v>386</v>
+        <v>418</v>
       </c>
       <c r="I64" s="3" t="s">
-        <v>386</v>
+        <v>418</v>
       </c>
       <c r="J64" s="3" t="s">
-        <v>386</v>
+        <v>418</v>
       </c>
       <c r="K64" s="3" t="s">
-        <v>386</v>
+        <v>418</v>
       </c>
       <c r="L64" s="3" t="s">
-        <v>386</v>
+        <v>418</v>
       </c>
       <c r="M64" s="3" t="s">
-        <v>386</v>
+        <v>418</v>
       </c>
       <c r="N64" s="3" t="s">
-        <v>386</v>
+        <v>418</v>
       </c>
       <c r="O64" s="3" t="s">
-        <v>386</v>
+        <v>418</v>
       </c>
       <c r="P64" s="3" t="s">
-        <v>386</v>
+        <v>418</v>
       </c>
       <c r="Q64" s="3" t="s">
-        <v>386</v>
+        <v>418</v>
       </c>
       <c r="R64" s="3" t="s">
-        <v>386</v>
+        <v>418</v>
       </c>
       <c r="S64" s="3" t="s">
-        <v>386</v>
+        <v>418</v>
       </c>
       <c r="T64" s="3" t="s">
-        <v>386</v>
+        <v>418</v>
       </c>
       <c r="U64" s="3" t="s">
-        <v>386</v>
+        <v>418</v>
       </c>
       <c r="V64" s="3" t="s">
-        <v>386</v>
+        <v>418</v>
       </c>
       <c r="W64" s="3" t="s">
-        <v>386</v>
+        <v>418</v>
       </c>
       <c r="X64" s="3" t="s">
-        <v>386</v>
+        <v>418</v>
       </c>
       <c r="Y64" s="3"/>
     </row>
     <row r="65" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B65" s="1" t="s">
         <v>118</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>418</v>
+        <v>386</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>418</v>
+        <v>386</v>
       </c>
       <c r="E65" s="3" t="s">
-        <v>418</v>
+        <v>386</v>
       </c>
       <c r="F65" s="3" t="s">
-        <v>418</v>
+        <v>386</v>
       </c>
       <c r="G65" s="3" t="s">
-        <v>190</v>
+        <v>265</v>
       </c>
       <c r="H65" s="3" t="s">
-        <v>418</v>
+        <v>386</v>
       </c>
       <c r="I65" s="3" t="s">
-        <v>418</v>
+        <v>386</v>
       </c>
       <c r="J65" s="3" t="s">
-        <v>418</v>
+        <v>386</v>
       </c>
       <c r="K65" s="3" t="s">
-        <v>418</v>
+        <v>386</v>
       </c>
       <c r="L65" s="3" t="s">
-        <v>418</v>
+        <v>386</v>
       </c>
       <c r="M65" s="3" t="s">
-        <v>418</v>
+        <v>386</v>
       </c>
       <c r="N65" s="3" t="s">
-        <v>418</v>
+        <v>386</v>
       </c>
       <c r="O65" s="3" t="s">
-        <v>418</v>
+        <v>386</v>
       </c>
       <c r="P65" s="3" t="s">
-        <v>418</v>
+        <v>386</v>
       </c>
       <c r="Q65" s="3" t="s">
-        <v>418</v>
+        <v>386</v>
       </c>
       <c r="R65" s="3" t="s">
-        <v>418</v>
+        <v>386</v>
       </c>
       <c r="S65" s="3" t="s">
-        <v>418</v>
+        <v>386</v>
       </c>
       <c r="T65" s="3" t="s">
-        <v>418</v>
+        <v>386</v>
       </c>
       <c r="U65" s="3" t="s">
-        <v>418</v>
+        <v>386</v>
       </c>
       <c r="V65" s="3" t="s">
-        <v>418</v>
+        <v>386</v>
       </c>
       <c r="W65" s="3" t="s">
-        <v>418</v>
+        <v>386</v>
       </c>
       <c r="X65" s="3" t="s">
-        <v>418</v>
+        <v>386</v>
       </c>
       <c r="Y65" s="3"/>
     </row>
     <row r="66" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B66" s="1" t="s">
         <v>118</v>
@@ -6686,7 +6696,7 @@
         <v>418</v>
       </c>
       <c r="G66" s="3" t="s">
-        <v>449</v>
+        <v>190</v>
       </c>
       <c r="H66" s="3" t="s">
         <v>418</v>
@@ -6743,387 +6753,387 @@
     </row>
     <row r="67" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="B67" s="1" t="s">
         <v>118</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>451</v>
+        <v>418</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>361</v>
+        <v>418</v>
       </c>
       <c r="E67" s="3" t="s">
-        <v>157</v>
+        <v>418</v>
       </c>
       <c r="F67" s="3" t="s">
-        <v>315</v>
+        <v>418</v>
       </c>
       <c r="G67" s="3" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="H67" s="3" t="s">
-        <v>105</v>
+        <v>418</v>
       </c>
       <c r="I67" s="3" t="s">
-        <v>399</v>
+        <v>418</v>
       </c>
       <c r="J67" s="3" t="s">
-        <v>453</v>
+        <v>418</v>
       </c>
       <c r="K67" s="3" t="s">
-        <v>256</v>
+        <v>418</v>
       </c>
       <c r="L67" s="3" t="s">
-        <v>390</v>
+        <v>418</v>
       </c>
       <c r="M67" s="3" t="s">
-        <v>150</v>
+        <v>418</v>
       </c>
       <c r="N67" s="3" t="s">
-        <v>94</v>
+        <v>418</v>
       </c>
       <c r="O67" s="3" t="s">
-        <v>454</v>
+        <v>418</v>
       </c>
       <c r="P67" s="3" t="s">
-        <v>74</v>
+        <v>418</v>
       </c>
       <c r="Q67" s="3" t="s">
-        <v>445</v>
+        <v>418</v>
       </c>
       <c r="R67" s="3" t="s">
-        <v>392</v>
+        <v>418</v>
       </c>
       <c r="S67" s="3" t="s">
-        <v>98</v>
+        <v>418</v>
       </c>
       <c r="T67" s="3" t="s">
-        <v>454</v>
+        <v>418</v>
       </c>
       <c r="U67" s="3" t="s">
-        <v>393</v>
+        <v>418</v>
       </c>
       <c r="V67" s="3" t="s">
-        <v>455</v>
+        <v>418</v>
       </c>
       <c r="W67" s="3" t="s">
-        <v>456</v>
+        <v>418</v>
       </c>
       <c r="X67" s="3" t="s">
-        <v>457</v>
+        <v>418</v>
       </c>
       <c r="Y67" s="3"/>
     </row>
     <row r="68" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>458</v>
+        <v>450</v>
       </c>
       <c r="B68" s="1" t="s">
         <v>118</v>
       </c>
       <c r="C68" s="3" t="s">
+        <v>451</v>
+      </c>
+      <c r="D68" s="3" t="s">
+        <v>361</v>
+      </c>
+      <c r="E68" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="F68" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="G68" s="3" t="s">
+        <v>452</v>
+      </c>
+      <c r="H68" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="I68" s="3" t="s">
+        <v>399</v>
+      </c>
+      <c r="J68" s="3" t="s">
+        <v>453</v>
+      </c>
+      <c r="K68" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="L68" s="3" t="s">
+        <v>390</v>
+      </c>
+      <c r="M68" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="N68" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="O68" s="3" t="s">
+        <v>454</v>
+      </c>
+      <c r="P68" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q68" s="3" t="s">
+        <v>445</v>
+      </c>
+      <c r="R68" s="3" t="s">
+        <v>392</v>
+      </c>
+      <c r="S68" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="T68" s="3" t="s">
+        <v>454</v>
+      </c>
+      <c r="U68" s="3" t="s">
+        <v>393</v>
+      </c>
+      <c r="V68" s="3" t="s">
+        <v>455</v>
+      </c>
+      <c r="W68" s="3" t="s">
+        <v>456</v>
+      </c>
+      <c r="X68" s="3" t="s">
+        <v>457</v>
+      </c>
+      <c r="Y68" s="3"/>
+    </row>
+    <row r="69" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A69" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C69" s="3" t="s">
         <v>459</v>
       </c>
-      <c r="D68" s="3" t="s">
+      <c r="D69" s="3" t="s">
         <v>460</v>
       </c>
-      <c r="E68" s="3" t="s">
+      <c r="E69" s="3" t="s">
         <v>461</v>
       </c>
-      <c r="F68" s="3" t="s">
+      <c r="F69" s="3" t="s">
         <v>462</v>
       </c>
-      <c r="G68" s="3" t="s">
+      <c r="G69" s="3" t="s">
         <v>463</v>
       </c>
-      <c r="H68" s="3" t="s">
+      <c r="H69" s="3" t="s">
         <v>464</v>
       </c>
-      <c r="I68" s="3" t="s">
+      <c r="I69" s="3" t="s">
         <v>465</v>
       </c>
-      <c r="J68" s="3" t="s">
+      <c r="J69" s="3" t="s">
         <v>466</v>
       </c>
-      <c r="K68" s="3" t="s">
+      <c r="K69" s="3" t="s">
         <v>467</v>
       </c>
-      <c r="L68" s="3" t="s">
+      <c r="L69" s="3" t="s">
         <v>468</v>
       </c>
-      <c r="M68" s="3" t="s">
+      <c r="M69" s="3" t="s">
         <v>469</v>
       </c>
-      <c r="N68" s="3" t="s">
+      <c r="N69" s="3" t="s">
         <v>470</v>
       </c>
-      <c r="O68" s="3" t="s">
+      <c r="O69" s="3" t="s">
         <v>471</v>
       </c>
-      <c r="P68" s="3" t="s">
+      <c r="P69" s="3" t="s">
         <v>472</v>
       </c>
-      <c r="Q68" s="3" t="s">
+      <c r="Q69" s="3" t="s">
         <v>473</v>
       </c>
-      <c r="R68" s="3" t="s">
+      <c r="R69" s="3" t="s">
         <v>474</v>
       </c>
-      <c r="S68" s="3" t="s">
+      <c r="S69" s="3" t="s">
         <v>475</v>
       </c>
-      <c r="T68" s="3" t="s">
+      <c r="T69" s="3" t="s">
         <v>476</v>
       </c>
-      <c r="U68" s="3" t="s">
+      <c r="U69" s="3" t="s">
         <v>477</v>
       </c>
-      <c r="V68" s="3" t="s">
+      <c r="V69" s="3" t="s">
         <v>478</v>
       </c>
-      <c r="W68" s="3" t="s">
+      <c r="W69" s="3" t="s">
         <v>479</v>
       </c>
-      <c r="X68" s="3" t="s">
+      <c r="X69" s="3" t="s">
         <v>480</v>
       </c>
-      <c r="Y68" s="3"/>
-    </row>
-    <row r="69" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A69" s="2" t="s">
+      <c r="Y69" s="3"/>
+    </row>
+    <row r="70" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A70" s="2" t="s">
         <v>481</v>
       </c>
-    </row>
-    <row r="70" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A70" s="1" t="s">
-        <v>482</v>
-      </c>
-      <c r="B70" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C70" s="3" t="s">
-        <v>449</v>
-      </c>
-      <c r="D70" s="3" t="s">
-        <v>483</v>
-      </c>
-      <c r="E70" s="3" t="s">
-        <v>484</v>
-      </c>
-      <c r="F70" s="3" t="s">
-        <v>483</v>
-      </c>
-      <c r="G70" s="3" t="s">
-        <v>485</v>
-      </c>
-      <c r="H70" s="3" t="s">
-        <v>483</v>
-      </c>
-      <c r="I70" s="3" t="s">
-        <v>486</v>
-      </c>
-      <c r="J70" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="K70" s="3" t="s">
-        <v>487</v>
-      </c>
-      <c r="L70" s="3" t="s">
-        <v>488</v>
-      </c>
-      <c r="M70" s="3" t="s">
-        <v>246</v>
-      </c>
-      <c r="N70" s="3" t="s">
-        <v>483</v>
-      </c>
-      <c r="O70" s="3" t="s">
-        <v>489</v>
-      </c>
-      <c r="P70" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="Q70" s="3" t="s">
-        <v>488</v>
-      </c>
-      <c r="R70" s="3" t="s">
-        <v>454</v>
-      </c>
-      <c r="S70" s="3" t="s">
-        <v>483</v>
-      </c>
-      <c r="T70" s="3" t="s">
-        <v>490</v>
-      </c>
-      <c r="U70" s="3" t="s">
-        <v>483</v>
-      </c>
-      <c r="V70" s="3" t="s">
-        <v>251</v>
-      </c>
-      <c r="W70" s="3" t="s">
-        <v>483</v>
-      </c>
-      <c r="X70" s="3" t="s">
-        <v>484</v>
-      </c>
-      <c r="Y70" s="3"/>
     </row>
     <row r="71" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>491</v>
+        <v>482</v>
       </c>
       <c r="B71" s="1" t="s">
         <v>118</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>492</v>
+        <v>449</v>
       </c>
       <c r="D71" s="3" t="s">
         <v>483</v>
       </c>
       <c r="E71" s="3" t="s">
-        <v>244</v>
+        <v>484</v>
       </c>
       <c r="F71" s="3" t="s">
         <v>483</v>
       </c>
       <c r="G71" s="3" t="s">
-        <v>493</v>
+        <v>485</v>
       </c>
       <c r="H71" s="3" t="s">
         <v>483</v>
       </c>
       <c r="I71" s="3" t="s">
-        <v>399</v>
+        <v>486</v>
       </c>
       <c r="J71" s="3" t="s">
-        <v>483</v>
+        <v>171</v>
       </c>
       <c r="K71" s="3" t="s">
-        <v>494</v>
+        <v>487</v>
       </c>
       <c r="L71" s="3" t="s">
-        <v>179</v>
+        <v>488</v>
       </c>
       <c r="M71" s="3" t="s">
-        <v>495</v>
+        <v>246</v>
       </c>
       <c r="N71" s="3" t="s">
         <v>483</v>
       </c>
       <c r="O71" s="3" t="s">
-        <v>399</v>
+        <v>489</v>
       </c>
       <c r="P71" s="3" t="s">
-        <v>483</v>
+        <v>201</v>
       </c>
       <c r="Q71" s="3" t="s">
-        <v>496</v>
+        <v>488</v>
       </c>
       <c r="R71" s="3" t="s">
-        <v>497</v>
+        <v>454</v>
       </c>
       <c r="S71" s="3" t="s">
         <v>483</v>
       </c>
       <c r="T71" s="3" t="s">
-        <v>498</v>
+        <v>490</v>
       </c>
       <c r="U71" s="3" t="s">
         <v>483</v>
       </c>
       <c r="V71" s="3" t="s">
-        <v>499</v>
+        <v>251</v>
       </c>
       <c r="W71" s="3" t="s">
         <v>483</v>
       </c>
       <c r="X71" s="3" t="s">
-        <v>180</v>
+        <v>484</v>
       </c>
       <c r="Y71" s="3"/>
     </row>
     <row r="72" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>500</v>
+        <v>491</v>
       </c>
       <c r="B72" s="1" t="s">
         <v>118</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
       <c r="D72" s="3" t="s">
         <v>483</v>
       </c>
       <c r="E72" s="3" t="s">
-        <v>483</v>
+        <v>244</v>
       </c>
       <c r="F72" s="3" t="s">
         <v>483</v>
       </c>
       <c r="G72" s="3" t="s">
-        <v>483</v>
+        <v>493</v>
       </c>
       <c r="H72" s="3" t="s">
         <v>483</v>
       </c>
       <c r="I72" s="3" t="s">
-        <v>483</v>
+        <v>399</v>
       </c>
       <c r="J72" s="3" t="s">
         <v>483</v>
       </c>
       <c r="K72" s="3" t="s">
-        <v>483</v>
+        <v>494</v>
       </c>
       <c r="L72" s="3" t="s">
-        <v>483</v>
+        <v>179</v>
       </c>
       <c r="M72" s="3" t="s">
-        <v>483</v>
+        <v>495</v>
       </c>
       <c r="N72" s="3" t="s">
         <v>483</v>
       </c>
       <c r="O72" s="3" t="s">
-        <v>483</v>
+        <v>399</v>
       </c>
       <c r="P72" s="3" t="s">
         <v>483</v>
       </c>
       <c r="Q72" s="3" t="s">
-        <v>483</v>
+        <v>496</v>
       </c>
       <c r="R72" s="3" t="s">
-        <v>483</v>
+        <v>497</v>
       </c>
       <c r="S72" s="3" t="s">
         <v>483</v>
       </c>
       <c r="T72" s="3" t="s">
-        <v>483</v>
+        <v>498</v>
       </c>
       <c r="U72" s="3" t="s">
         <v>483</v>
       </c>
       <c r="V72" s="3" t="s">
-        <v>483</v>
+        <v>499</v>
       </c>
       <c r="W72" s="3" t="s">
         <v>483</v>
       </c>
       <c r="X72" s="3" t="s">
-        <v>483</v>
+        <v>180</v>
       </c>
       <c r="Y72" s="3"/>
     </row>
     <row r="73" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B73" s="1" t="s">
         <v>118</v>
@@ -7198,545 +7208,621 @@
     </row>
     <row r="74" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B74" s="1" t="s">
         <v>118</v>
       </c>
       <c r="C74" s="3" t="s">
+        <v>483</v>
+      </c>
+      <c r="D74" s="3" t="s">
+        <v>483</v>
+      </c>
+      <c r="E74" s="3" t="s">
+        <v>483</v>
+      </c>
+      <c r="F74" s="3" t="s">
+        <v>483</v>
+      </c>
+      <c r="G74" s="3" t="s">
+        <v>483</v>
+      </c>
+      <c r="H74" s="3" t="s">
+        <v>483</v>
+      </c>
+      <c r="I74" s="3" t="s">
+        <v>483</v>
+      </c>
+      <c r="J74" s="3" t="s">
+        <v>483</v>
+      </c>
+      <c r="K74" s="3" t="s">
+        <v>483</v>
+      </c>
+      <c r="L74" s="3" t="s">
+        <v>483</v>
+      </c>
+      <c r="M74" s="3" t="s">
+        <v>483</v>
+      </c>
+      <c r="N74" s="3" t="s">
+        <v>483</v>
+      </c>
+      <c r="O74" s="3" t="s">
+        <v>483</v>
+      </c>
+      <c r="P74" s="3" t="s">
+        <v>483</v>
+      </c>
+      <c r="Q74" s="3" t="s">
+        <v>483</v>
+      </c>
+      <c r="R74" s="3" t="s">
+        <v>483</v>
+      </c>
+      <c r="S74" s="3" t="s">
+        <v>483</v>
+      </c>
+      <c r="T74" s="3" t="s">
+        <v>483</v>
+      </c>
+      <c r="U74" s="3" t="s">
+        <v>483</v>
+      </c>
+      <c r="V74" s="3" t="s">
+        <v>483</v>
+      </c>
+      <c r="W74" s="3" t="s">
+        <v>483</v>
+      </c>
+      <c r="X74" s="3" t="s">
+        <v>483</v>
+      </c>
+      <c r="Y74" s="3"/>
+    </row>
+    <row r="75" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A75" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C75" s="3" t="s">
         <v>217</v>
       </c>
-      <c r="D74" s="3" t="s">
+      <c r="D75" s="3" t="s">
         <v>503</v>
       </c>
-      <c r="E74" s="3" t="s">
+      <c r="E75" s="3" t="s">
         <v>257</v>
       </c>
-      <c r="F74" s="3" t="s">
+      <c r="F75" s="3" t="s">
         <v>503</v>
       </c>
-      <c r="G74" s="3" t="s">
+      <c r="G75" s="3" t="s">
         <v>504</v>
       </c>
-      <c r="H74" s="3" t="s">
+      <c r="H75" s="3" t="s">
         <v>503</v>
       </c>
-      <c r="I74" s="3" t="s">
+      <c r="I75" s="3" t="s">
         <v>505</v>
       </c>
-      <c r="J74" s="3" t="s">
+      <c r="J75" s="3" t="s">
         <v>503</v>
       </c>
-      <c r="K74" s="3" t="s">
+      <c r="K75" s="3" t="s">
         <v>387</v>
       </c>
-      <c r="L74" s="3" t="s">
+      <c r="L75" s="3" t="s">
         <v>506</v>
       </c>
-      <c r="M74" s="3" t="s">
+      <c r="M75" s="3" t="s">
         <v>429</v>
       </c>
-      <c r="N74" s="3" t="s">
+      <c r="N75" s="3" t="s">
         <v>503</v>
       </c>
-      <c r="O74" s="3" t="s">
+      <c r="O75" s="3" t="s">
         <v>507</v>
       </c>
-      <c r="P74" s="3" t="s">
+      <c r="P75" s="3" t="s">
         <v>503</v>
       </c>
-      <c r="Q74" s="3" t="s">
+      <c r="Q75" s="3" t="s">
         <v>487</v>
       </c>
-      <c r="R74" s="3" t="s">
+      <c r="R75" s="3" t="s">
         <v>236</v>
       </c>
-      <c r="S74" s="3" t="s">
+      <c r="S75" s="3" t="s">
         <v>503</v>
       </c>
-      <c r="T74" s="3" t="s">
+      <c r="T75" s="3" t="s">
         <v>508</v>
       </c>
-      <c r="U74" s="3" t="s">
+      <c r="U75" s="3" t="s">
         <v>503</v>
       </c>
-      <c r="V74" s="3" t="s">
+      <c r="V75" s="3" t="s">
         <v>509</v>
       </c>
-      <c r="W74" s="3" t="s">
+      <c r="W75" s="3" t="s">
         <v>503</v>
       </c>
-      <c r="X74" s="3" t="s">
+      <c r="X75" s="3" t="s">
         <v>509</v>
       </c>
-      <c r="Y74" s="3"/>
-    </row>
-    <row r="75" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A75" s="2" t="s">
+      <c r="Y75" s="3"/>
+    </row>
+    <row r="76" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A76" s="2" t="s">
         <v>510</v>
       </c>
-    </row>
-    <row r="76" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A76" s="1" t="s">
-        <v>511</v>
-      </c>
-      <c r="B76" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C76" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="D76" s="3" t="s">
-        <v>405</v>
-      </c>
-      <c r="E76" s="3" t="s">
-        <v>401</v>
-      </c>
-      <c r="F76" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="G76" s="3" t="s">
-        <v>512</v>
-      </c>
-      <c r="H76" s="3" t="s">
-        <v>513</v>
-      </c>
-      <c r="I76" s="3" t="s">
-        <v>512</v>
-      </c>
-      <c r="J76" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="K76" s="3" t="s">
-        <v>512</v>
-      </c>
-      <c r="L76" s="3" t="s">
-        <v>514</v>
-      </c>
-      <c r="M76" s="3" t="s">
-        <v>515</v>
-      </c>
-      <c r="N76" s="3" t="s">
-        <v>515</v>
-      </c>
-      <c r="O76" s="3" t="s">
-        <v>512</v>
-      </c>
-      <c r="P76" s="3" t="s">
-        <v>516</v>
-      </c>
-      <c r="Q76" s="3" t="s">
-        <v>512</v>
-      </c>
-      <c r="R76" s="3" t="s">
-        <v>513</v>
-      </c>
-      <c r="S76" s="3" t="s">
-        <v>517</v>
-      </c>
-      <c r="T76" s="3" t="s">
-        <v>512</v>
-      </c>
-      <c r="U76" s="3" t="s">
-        <v>518</v>
-      </c>
-      <c r="V76" s="3" t="s">
-        <v>519</v>
-      </c>
-      <c r="W76" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="X76" s="3" t="s">
-        <v>512</v>
-      </c>
-      <c r="Y76" s="3"/>
     </row>
     <row r="77" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
-        <v>520</v>
+        <v>511</v>
       </c>
       <c r="B77" s="1" t="s">
         <v>61</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>330</v>
+        <v>177</v>
       </c>
       <c r="D77" s="3" t="s">
-        <v>330</v>
+        <v>405</v>
       </c>
       <c r="E77" s="3" t="s">
-        <v>330</v>
+        <v>401</v>
       </c>
       <c r="F77" s="3" t="s">
-        <v>330</v>
+        <v>170</v>
       </c>
       <c r="G77" s="3" t="s">
-        <v>330</v>
+        <v>512</v>
       </c>
       <c r="H77" s="3" t="s">
-        <v>330</v>
+        <v>513</v>
       </c>
       <c r="I77" s="3" t="s">
-        <v>330</v>
+        <v>512</v>
       </c>
       <c r="J77" s="3" t="s">
-        <v>330</v>
+        <v>68</v>
       </c>
       <c r="K77" s="3" t="s">
-        <v>330</v>
+        <v>512</v>
       </c>
       <c r="L77" s="3" t="s">
-        <v>330</v>
+        <v>514</v>
       </c>
       <c r="M77" s="3" t="s">
-        <v>330</v>
+        <v>515</v>
       </c>
       <c r="N77" s="3" t="s">
-        <v>330</v>
+        <v>515</v>
       </c>
       <c r="O77" s="3" t="s">
-        <v>330</v>
+        <v>512</v>
       </c>
       <c r="P77" s="3" t="s">
-        <v>330</v>
+        <v>516</v>
       </c>
       <c r="Q77" s="3" t="s">
-        <v>330</v>
+        <v>512</v>
       </c>
       <c r="R77" s="3" t="s">
-        <v>330</v>
+        <v>513</v>
       </c>
       <c r="S77" s="3" t="s">
-        <v>330</v>
+        <v>517</v>
       </c>
       <c r="T77" s="3" t="s">
-        <v>330</v>
+        <v>512</v>
       </c>
       <c r="U77" s="3" t="s">
-        <v>330</v>
+        <v>518</v>
       </c>
       <c r="V77" s="3" t="s">
-        <v>330</v>
+        <v>519</v>
       </c>
       <c r="W77" s="3" t="s">
-        <v>330</v>
+        <v>69</v>
       </c>
       <c r="X77" s="3" t="s">
-        <v>330</v>
+        <v>512</v>
       </c>
       <c r="Y77" s="3"/>
     </row>
     <row r="78" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>637</v>
+        <v>520</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>521</v>
+        <v>61</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>271</v>
+        <v>330</v>
       </c>
       <c r="D78" s="3" t="s">
-        <v>271</v>
+        <v>330</v>
       </c>
       <c r="E78" s="3" t="s">
-        <v>271</v>
+        <v>330</v>
       </c>
       <c r="F78" s="3" t="s">
-        <v>271</v>
+        <v>330</v>
       </c>
       <c r="G78" s="3" t="s">
-        <v>271</v>
+        <v>330</v>
       </c>
       <c r="H78" s="3" t="s">
-        <v>271</v>
+        <v>330</v>
       </c>
       <c r="I78" s="3" t="s">
-        <v>271</v>
+        <v>330</v>
       </c>
       <c r="J78" s="3" t="s">
-        <v>271</v>
+        <v>330</v>
       </c>
       <c r="K78" s="3" t="s">
-        <v>271</v>
+        <v>330</v>
       </c>
       <c r="L78" s="3" t="s">
-        <v>271</v>
+        <v>330</v>
       </c>
       <c r="M78" s="3" t="s">
-        <v>271</v>
+        <v>330</v>
       </c>
       <c r="N78" s="3" t="s">
-        <v>271</v>
+        <v>330</v>
       </c>
       <c r="O78" s="3" t="s">
-        <v>271</v>
+        <v>330</v>
       </c>
       <c r="P78" s="3" t="s">
-        <v>271</v>
+        <v>330</v>
       </c>
       <c r="Q78" s="3" t="s">
-        <v>271</v>
+        <v>330</v>
       </c>
       <c r="R78" s="3" t="s">
-        <v>271</v>
+        <v>330</v>
       </c>
       <c r="S78" s="3" t="s">
-        <v>271</v>
+        <v>330</v>
       </c>
       <c r="T78" s="3" t="s">
-        <v>271</v>
+        <v>330</v>
       </c>
       <c r="U78" s="3" t="s">
-        <v>271</v>
+        <v>330</v>
       </c>
       <c r="V78" s="3" t="s">
-        <v>271</v>
+        <v>330</v>
       </c>
       <c r="W78" s="3" t="s">
-        <v>271</v>
+        <v>330</v>
       </c>
       <c r="X78" s="3" t="s">
-        <v>271</v>
+        <v>330</v>
       </c>
       <c r="Y78" s="3"/>
     </row>
     <row r="79" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
-        <v>522</v>
+        <v>637</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>61</v>
+        <v>521</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>523</v>
+        <v>271</v>
       </c>
       <c r="D79" s="3" t="s">
-        <v>523</v>
+        <v>271</v>
       </c>
       <c r="E79" s="3" t="s">
-        <v>523</v>
+        <v>271</v>
       </c>
       <c r="F79" s="3" t="s">
-        <v>523</v>
+        <v>271</v>
       </c>
       <c r="G79" s="3" t="s">
-        <v>523</v>
+        <v>271</v>
       </c>
       <c r="H79" s="3" t="s">
-        <v>523</v>
+        <v>271</v>
       </c>
       <c r="I79" s="3" t="s">
-        <v>523</v>
+        <v>271</v>
       </c>
       <c r="J79" s="3" t="s">
-        <v>523</v>
+        <v>271</v>
       </c>
       <c r="K79" s="3" t="s">
-        <v>523</v>
+        <v>271</v>
       </c>
       <c r="L79" s="3" t="s">
-        <v>523</v>
+        <v>271</v>
       </c>
       <c r="M79" s="3" t="s">
-        <v>523</v>
+        <v>271</v>
       </c>
       <c r="N79" s="3" t="s">
-        <v>523</v>
+        <v>271</v>
       </c>
       <c r="O79" s="3" t="s">
-        <v>523</v>
+        <v>271</v>
       </c>
       <c r="P79" s="3" t="s">
-        <v>523</v>
+        <v>271</v>
       </c>
       <c r="Q79" s="3" t="s">
-        <v>523</v>
+        <v>271</v>
       </c>
       <c r="R79" s="3" t="s">
-        <v>523</v>
+        <v>271</v>
       </c>
       <c r="S79" s="3" t="s">
-        <v>523</v>
+        <v>271</v>
       </c>
       <c r="T79" s="3" t="s">
-        <v>523</v>
+        <v>271</v>
       </c>
       <c r="U79" s="3" t="s">
-        <v>523</v>
+        <v>271</v>
       </c>
       <c r="V79" s="3" t="s">
-        <v>523</v>
+        <v>271</v>
       </c>
       <c r="W79" s="3" t="s">
-        <v>523</v>
+        <v>271</v>
       </c>
       <c r="X79" s="3" t="s">
-        <v>523</v>
+        <v>271</v>
       </c>
       <c r="Y79" s="3"/>
     </row>
     <row r="80" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
-        <v>638</v>
+        <v>522</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>521</v>
+        <v>61</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>379</v>
+        <v>523</v>
       </c>
       <c r="D80" s="3" t="s">
-        <v>379</v>
+        <v>523</v>
       </c>
       <c r="E80" s="3" t="s">
-        <v>379</v>
+        <v>523</v>
       </c>
       <c r="F80" s="3" t="s">
-        <v>379</v>
+        <v>523</v>
       </c>
       <c r="G80" s="3" t="s">
-        <v>379</v>
+        <v>523</v>
       </c>
       <c r="H80" s="3" t="s">
-        <v>379</v>
+        <v>523</v>
       </c>
       <c r="I80" s="3" t="s">
-        <v>379</v>
+        <v>523</v>
       </c>
       <c r="J80" s="3" t="s">
-        <v>379</v>
+        <v>523</v>
       </c>
       <c r="K80" s="3" t="s">
-        <v>379</v>
+        <v>523</v>
       </c>
       <c r="L80" s="3" t="s">
-        <v>379</v>
+        <v>523</v>
       </c>
       <c r="M80" s="3" t="s">
-        <v>379</v>
+        <v>523</v>
       </c>
       <c r="N80" s="3" t="s">
-        <v>379</v>
+        <v>523</v>
       </c>
       <c r="O80" s="3" t="s">
-        <v>379</v>
+        <v>523</v>
       </c>
       <c r="P80" s="3" t="s">
-        <v>379</v>
+        <v>523</v>
       </c>
       <c r="Q80" s="3" t="s">
-        <v>379</v>
+        <v>523</v>
       </c>
       <c r="R80" s="3" t="s">
-        <v>379</v>
+        <v>523</v>
       </c>
       <c r="S80" s="3" t="s">
-        <v>379</v>
+        <v>523</v>
       </c>
       <c r="T80" s="3" t="s">
-        <v>379</v>
+        <v>523</v>
       </c>
       <c r="U80" s="3" t="s">
-        <v>379</v>
+        <v>523</v>
       </c>
       <c r="V80" s="3" t="s">
-        <v>379</v>
+        <v>523</v>
       </c>
       <c r="W80" s="3" t="s">
-        <v>379</v>
+        <v>523</v>
       </c>
       <c r="X80" s="3" t="s">
-        <v>379</v>
+        <v>523</v>
       </c>
       <c r="Y80" s="3"/>
     </row>
     <row r="81" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
+        <v>638</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="C81" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="D81" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="E81" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="F81" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="G81" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="H81" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="I81" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="J81" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="K81" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="L81" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="M81" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="N81" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="O81" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="P81" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="Q81" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="R81" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="S81" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="T81" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="U81" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="V81" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="W81" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="X81" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="Y81" s="3"/>
+    </row>
+    <row r="82" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A82" s="1" t="s">
         <v>524</v>
       </c>
-      <c r="B81" s="1" t="s">
+      <c r="B82" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="C81" s="3" t="s">
+      <c r="C82" s="3" t="s">
         <v>350</v>
       </c>
-      <c r="D81" s="3" t="s">
+      <c r="D82" s="3" t="s">
         <v>525</v>
       </c>
-      <c r="E81" s="3" t="s">
+      <c r="E82" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="F81" s="3" t="s">
+      <c r="F82" s="3" t="s">
         <v>525</v>
       </c>
-      <c r="G81" s="3" t="s">
+      <c r="G82" s="3" t="s">
         <v>526</v>
       </c>
-      <c r="H81" s="3" t="s">
+      <c r="H82" s="3" t="s">
         <v>525</v>
       </c>
-      <c r="I81" s="3" t="s">
+      <c r="I82" s="3" t="s">
         <v>517</v>
       </c>
-      <c r="J81" s="3" t="s">
+      <c r="J82" s="3" t="s">
         <v>525</v>
       </c>
-      <c r="K81" s="3" t="s">
+      <c r="K82" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="L81" s="3" t="s">
+      <c r="L82" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="M81" s="3" t="s">
+      <c r="M82" s="3" t="s">
         <v>346</v>
       </c>
-      <c r="N81" s="3" t="s">
+      <c r="N82" s="3" t="s">
         <v>319</v>
       </c>
-      <c r="O81" s="3" t="s">
+      <c r="O82" s="3" t="s">
         <v>527</v>
       </c>
-      <c r="P81" s="3" t="s">
+      <c r="P82" s="3" t="s">
         <v>525</v>
       </c>
-      <c r="Q81" s="3" t="s">
+      <c r="Q82" s="3" t="s">
         <v>210</v>
       </c>
-      <c r="R81" s="3" t="s">
+      <c r="R82" s="3" t="s">
         <v>402</v>
       </c>
-      <c r="S81" s="3" t="s">
+      <c r="S82" s="3" t="s">
         <v>525</v>
       </c>
-      <c r="T81" s="3" t="s">
+      <c r="T82" s="3" t="s">
         <v>528</v>
       </c>
-      <c r="U81" s="3" t="s">
+      <c r="U82" s="3" t="s">
         <v>497</v>
       </c>
-      <c r="V81" s="3" t="s">
+      <c r="V82" s="3" t="s">
         <v>529</v>
       </c>
-      <c r="W81" s="3" t="s">
+      <c r="W82" s="3" t="s">
         <v>525</v>
       </c>
-      <c r="X81" s="3" t="s">
+      <c r="X82" s="3" t="s">
         <v>405</v>
       </c>
-      <c r="Y81" s="3"/>
-    </row>
-    <row r="82" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A82" s="1"/>
-      <c r="B82" s="9"/>
-      <c r="C82" s="9"/>
-      <c r="D82" s="9"/>
-      <c r="E82" s="9"/>
+      <c r="Y82" s="3"/>
+    </row>
+    <row r="83" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A83" s="1"/>
+      <c r="B83" s="10"/>
+      <c r="C83" s="10"/>
+      <c r="D83" s="10"/>
+      <c r="E83" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B82:E82"/>
+    <mergeCell ref="B83:E83"/>
   </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
@@ -7746,7 +7832,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94644F02-27D9-4E57-8301-0D35BA94A3EC}">
   <dimension ref="A1:AK29"/>
   <sheetViews>
-    <sheetView topLeftCell="AC1" workbookViewId="0">
+    <sheetView topLeftCell="R1" workbookViewId="0">
       <selection activeCell="AK28" sqref="A28:AK28"/>
     </sheetView>
   </sheetViews>
@@ -9649,15 +9735,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="7233923c-a7e0-4e49-b29e-d359fd888d60">
@@ -9667,6 +9744,15 @@
     <Documenttype xmlns="7233923c-a7e0-4e49-b29e-d359fd888d60">Document</Documenttype>
   </documentManagement>
 </p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -9905,20 +9991,20 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{08A04067-5DA7-43A9-846C-F6DCC738CC9A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C1250D19-A89E-42FB-8C44-4257CFEF0E0A}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="7233923c-a7e0-4e49-b29e-d359fd888d60"/>
     <ds:schemaRef ds:uri="6bf0a9f1-8f76-4db1-b737-dd267e3134be"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{08A04067-5DA7-43A9-846C-F6DCC738CC9A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/data/raw/CW_field_meassurements/Raw_data_lab/240120_Resultaten_ronde_T0.xlsx
+++ b/data/raw/CW_field_meassurements/Raw_data_lab/240120_Resultaten_ronde_T0.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aseye001\Sona_Phd\MIBIREM\MiBiPreT_FieldSites\constructed-wetland\data\raw\CW_field_meassurements\Raw_data_lab\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F00D1F50-5C6A-4626-885A-74BB282EEC1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3080E22-9C9F-4568-803F-FA12B3B0C892}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2092" uniqueCount="639">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2116" uniqueCount="640">
   <si>
     <t>Analysis</t>
   </si>
@@ -1954,6 +1954,9 @@
   </si>
   <si>
     <t>nitraat-N</t>
+  </si>
+  <si>
+    <t>sulfide (vrij)</t>
   </si>
 </sst>
 </file>
@@ -1967,17 +1970,20 @@
     </font>
     <font>
       <sz val="8"/>
-      <name val="ARIAL"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="8"/>
-      <name val="ARIAL"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="8"/>
@@ -2011,7 +2017,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -2035,6 +2041,9 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2374,10 +2383,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A3:Y82"/>
+  <dimension ref="A3:Y83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="A80" sqref="A80"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19:X19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -3352,2145 +3361,2145 @@
       <c r="Y18" s="3"/>
     </row>
     <row r="19" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
+      <c r="A19" s="9" t="s">
+        <v>639</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="I19" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="J19" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="K19" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="L19" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="M19" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="N19" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="O19" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="P19" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="Q19" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="R19" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="S19" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="T19" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="U19" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="V19" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="W19" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="X19" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B20" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="C20" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="D19" s="3" t="s">
+      <c r="D20" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="E19" s="3" t="s">
+      <c r="E20" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="F19" s="3" t="s">
+      <c r="F20" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="G19" s="3" t="s">
+      <c r="G20" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="H19" s="3" t="s">
+      <c r="H20" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="I19" s="3" t="s">
+      <c r="I20" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="J19" s="3" t="s">
+      <c r="J20" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="K19" s="3" t="s">
+      <c r="K20" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="L19" s="3" t="s">
+      <c r="L20" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="M19" s="3" t="s">
+      <c r="M20" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="N19" s="3" t="s">
+      <c r="N20" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="O19" s="3" t="s">
+      <c r="O20" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="P19" s="3" t="s">
+      <c r="P20" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="Q19" s="3" t="s">
+      <c r="Q20" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="R19" s="3" t="s">
+      <c r="R20" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="S19" s="3" t="s">
+      <c r="S20" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="T19" s="3" t="s">
+      <c r="T20" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="U19" s="3" t="s">
+      <c r="U20" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="V19" s="3" t="s">
+      <c r="V20" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="W19" s="3" t="s">
+      <c r="W20" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="X19" s="3" t="s">
+      <c r="X20" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="Y19" s="3"/>
-    </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
+      <c r="Y20" s="3"/>
+    </row>
+    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="I21" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="J21" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="K21" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="L21" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="M21" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="N21" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="O21" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="P21" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="Q21" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="R21" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="S21" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="T21" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="U21" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="V21" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="W21" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="X21" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="Y21" s="3"/>
     </row>
     <row r="22" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>163</v>
+        <v>143</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>118</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>164</v>
+        <v>144</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>100</v>
+        <v>145</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>165</v>
+        <v>146</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>166</v>
+        <v>148</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>167</v>
+        <v>149</v>
       </c>
       <c r="I22" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="K22" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="L22" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="M22" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="N22" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="O22" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="P22" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="Q22" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="R22" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="S22" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="J22" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="K22" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="L22" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="M22" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="N22" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="O22" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="P22" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="Q22" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="R22" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="S22" s="3" t="s">
-        <v>173</v>
-      </c>
       <c r="T22" s="3" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="U22" s="3" t="s">
-        <v>174</v>
+        <v>131</v>
       </c>
       <c r="V22" s="3" t="s">
-        <v>72</v>
+        <v>160</v>
       </c>
       <c r="W22" s="3" t="s">
-        <v>175</v>
+        <v>161</v>
       </c>
       <c r="X22" s="3" t="s">
-        <v>79</v>
+        <v>162</v>
       </c>
       <c r="Y22" s="3"/>
     </row>
     <row r="23" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>176</v>
+        <v>163</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>118</v>
       </c>
       <c r="C23" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="I23" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="J23" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="K23" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="L23" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="D23" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="G23" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="H23" s="3" t="s">
+      <c r="M23" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="N23" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="O23" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="P23" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q23" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="R23" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="S23" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="T23" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="U23" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="V23" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="W23" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="X23" s="3" t="s">
         <v>79</v>
-      </c>
-      <c r="I23" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="J23" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="K23" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="L23" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="M23" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="N23" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="O23" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="P23" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="Q23" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="R23" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="S23" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="T23" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="U23" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="V23" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="W23" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="X23" s="3" t="s">
-        <v>184</v>
       </c>
       <c r="Y23" s="3"/>
     </row>
     <row r="24" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>191</v>
+        <v>176</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>118</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>192</v>
+        <v>145</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>72</v>
+        <v>177</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>144</v>
+        <v>178</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="I24" s="3" t="s">
-        <v>194</v>
+        <v>180</v>
       </c>
       <c r="J24" s="3" t="s">
-        <v>195</v>
+        <v>181</v>
       </c>
       <c r="K24" s="3" t="s">
-        <v>194</v>
+        <v>182</v>
       </c>
       <c r="L24" s="3" t="s">
-        <v>166</v>
+        <v>183</v>
       </c>
       <c r="M24" s="3" t="s">
-        <v>144</v>
+        <v>184</v>
       </c>
       <c r="N24" s="3" t="s">
-        <v>78</v>
+        <v>185</v>
       </c>
       <c r="O24" s="3" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="P24" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q24" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="R24" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="S24" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="Q24" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="R24" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="S24" s="3" t="s">
-        <v>197</v>
-      </c>
       <c r="T24" s="3" t="s">
-        <v>198</v>
+        <v>182</v>
       </c>
       <c r="U24" s="3" t="s">
-        <v>199</v>
+        <v>124</v>
       </c>
       <c r="V24" s="3" t="s">
-        <v>144</v>
+        <v>190</v>
       </c>
       <c r="W24" s="3" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="X24" s="3" t="s">
-        <v>169</v>
+        <v>184</v>
       </c>
       <c r="Y24" s="3"/>
     </row>
     <row r="25" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>118</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
       <c r="D25" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="F25" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="E25" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="F25" s="3" t="s">
-        <v>101</v>
-      </c>
       <c r="G25" s="3" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
       <c r="H25" s="3" t="s">
-        <v>98</v>
+        <v>74</v>
       </c>
       <c r="I25" s="3" t="s">
-        <v>147</v>
+        <v>194</v>
       </c>
       <c r="J25" s="3" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="K25" s="3" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="L25" s="3" t="s">
-        <v>204</v>
+        <v>166</v>
       </c>
       <c r="M25" s="3" t="s">
-        <v>205</v>
+        <v>144</v>
       </c>
       <c r="N25" s="3" t="s">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="O25" s="3" t="s">
-        <v>178</v>
+        <v>194</v>
       </c>
       <c r="P25" s="3" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="Q25" s="3" t="s">
-        <v>204</v>
+        <v>166</v>
       </c>
       <c r="R25" s="3" t="s">
-        <v>206</v>
+        <v>196</v>
       </c>
       <c r="S25" s="3" t="s">
-        <v>120</v>
+        <v>197</v>
       </c>
       <c r="T25" s="3" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="U25" s="3" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="V25" s="3" t="s">
         <v>144</v>
       </c>
       <c r="W25" s="3" t="s">
-        <v>120</v>
+        <v>175</v>
       </c>
       <c r="X25" s="3" t="s">
-        <v>158</v>
+        <v>169</v>
       </c>
       <c r="Y25" s="3"/>
     </row>
     <row r="26" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>118</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>210</v>
+        <v>66</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>211</v>
+        <v>156</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>212</v>
+        <v>101</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>213</v>
+        <v>202</v>
       </c>
       <c r="H26" s="3" t="s">
-        <v>214</v>
+        <v>98</v>
       </c>
       <c r="I26" s="3" t="s">
-        <v>215</v>
+        <v>147</v>
       </c>
       <c r="J26" s="3" t="s">
-        <v>216</v>
+        <v>203</v>
       </c>
       <c r="K26" s="3" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="L26" s="3" t="s">
-        <v>217</v>
+        <v>204</v>
       </c>
       <c r="M26" s="3" t="s">
-        <v>190</v>
+        <v>205</v>
       </c>
       <c r="N26" s="3" t="s">
-        <v>218</v>
+        <v>66</v>
       </c>
       <c r="O26" s="3" t="s">
-        <v>219</v>
+        <v>178</v>
       </c>
       <c r="P26" s="3" t="s">
-        <v>93</v>
+        <v>137</v>
       </c>
       <c r="Q26" s="3" t="s">
-        <v>217</v>
+        <v>204</v>
       </c>
       <c r="R26" s="3" t="s">
-        <v>220</v>
+        <v>206</v>
       </c>
       <c r="S26" s="3" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="T26" s="3" t="s">
-        <v>215</v>
+        <v>204</v>
       </c>
       <c r="U26" s="3" t="s">
-        <v>107</v>
+        <v>207</v>
       </c>
       <c r="V26" s="3" t="s">
-        <v>221</v>
+        <v>144</v>
       </c>
       <c r="W26" s="3" t="s">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="X26" s="3" t="s">
-        <v>189</v>
+        <v>158</v>
       </c>
       <c r="Y26" s="3"/>
     </row>
     <row r="27" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>222</v>
+        <v>208</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>118</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>223</v>
+        <v>209</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>224</v>
+        <v>210</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>225</v>
+        <v>211</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>226</v>
+        <v>212</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>227</v>
+        <v>213</v>
       </c>
       <c r="H27" s="3" t="s">
-        <v>228</v>
+        <v>214</v>
       </c>
       <c r="I27" s="3" t="s">
-        <v>229</v>
+        <v>215</v>
       </c>
       <c r="J27" s="3" t="s">
-        <v>230</v>
+        <v>216</v>
       </c>
       <c r="K27" s="3" t="s">
-        <v>231</v>
+        <v>188</v>
       </c>
       <c r="L27" s="3" t="s">
-        <v>232</v>
+        <v>217</v>
       </c>
       <c r="M27" s="3" t="s">
-        <v>233</v>
+        <v>190</v>
       </c>
       <c r="N27" s="3" t="s">
-        <v>234</v>
+        <v>218</v>
       </c>
       <c r="O27" s="3" t="s">
-        <v>231</v>
+        <v>219</v>
       </c>
       <c r="P27" s="3" t="s">
-        <v>235</v>
+        <v>93</v>
       </c>
       <c r="Q27" s="3" t="s">
-        <v>236</v>
+        <v>217</v>
       </c>
       <c r="R27" s="3" t="s">
-        <v>237</v>
+        <v>220</v>
       </c>
       <c r="S27" s="3" t="s">
-        <v>238</v>
+        <v>115</v>
       </c>
       <c r="T27" s="3" t="s">
-        <v>231</v>
+        <v>215</v>
       </c>
       <c r="U27" s="3" t="s">
-        <v>239</v>
+        <v>107</v>
       </c>
       <c r="V27" s="3" t="s">
-        <v>240</v>
+        <v>221</v>
       </c>
       <c r="W27" s="3" t="s">
-        <v>241</v>
+        <v>100</v>
       </c>
       <c r="X27" s="3" t="s">
-        <v>242</v>
+        <v>189</v>
       </c>
       <c r="Y27" s="3"/>
     </row>
     <row r="28" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>243</v>
+        <v>222</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>118</v>
       </c>
       <c r="C28" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="G28" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="H28" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="I28" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="J28" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="K28" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="L28" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="M28" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="N28" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="O28" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="P28" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="Q28" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="R28" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="S28" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="T28" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="U28" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="V28" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="W28" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="X28" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="Y28" s="3"/>
+    </row>
+    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C29" s="3" t="s">
         <v>244</v>
       </c>
-      <c r="D28" s="3" t="s">
+      <c r="D29" s="3" t="s">
         <v>245</v>
       </c>
-      <c r="E28" s="3" t="s">
+      <c r="E29" s="3" t="s">
         <v>246</v>
       </c>
-      <c r="F28" s="3" t="s">
+      <c r="F29" s="3" t="s">
         <v>247</v>
       </c>
-      <c r="G28" s="3" t="s">
+      <c r="G29" s="3" t="s">
         <v>248</v>
       </c>
-      <c r="H28" s="3" t="s">
+      <c r="H29" s="3" t="s">
         <v>249</v>
       </c>
-      <c r="I28" s="3" t="s">
+      <c r="I29" s="3" t="s">
         <v>250</v>
       </c>
-      <c r="J28" s="3" t="s">
+      <c r="J29" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="K28" s="3" t="s">
+      <c r="K29" s="3" t="s">
         <v>251</v>
       </c>
-      <c r="L28" s="3" t="s">
+      <c r="L29" s="3" t="s">
         <v>252</v>
       </c>
-      <c r="M28" s="3" t="s">
+      <c r="M29" s="3" t="s">
         <v>253</v>
       </c>
-      <c r="N28" s="3" t="s">
+      <c r="N29" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="O28" s="3" t="s">
+      <c r="O29" s="3" t="s">
         <v>254</v>
       </c>
-      <c r="P28" s="3" t="s">
+      <c r="P29" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="Q28" s="3" t="s">
+      <c r="Q29" s="3" t="s">
         <v>255</v>
       </c>
-      <c r="R28" s="3" t="s">
+      <c r="R29" s="3" t="s">
         <v>256</v>
       </c>
-      <c r="S28" s="3" t="s">
+      <c r="S29" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="T28" s="3" t="s">
+      <c r="T29" s="3" t="s">
         <v>257</v>
       </c>
-      <c r="U28" s="3" t="s">
+      <c r="U29" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="V28" s="3" t="s">
+      <c r="V29" s="3" t="s">
         <v>246</v>
       </c>
-      <c r="W28" s="3" t="s">
+      <c r="W29" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="X28" s="3" t="s">
+      <c r="X29" s="3" t="s">
         <v>258</v>
       </c>
-      <c r="Y28" s="3"/>
-    </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A29" s="2" t="s">
+      <c r="Y29" s="3"/>
+    </row>
+    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
         <v>259</v>
       </c>
-    </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="E30" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="F30" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="G30" s="3" t="s">
-        <v>261</v>
-      </c>
-      <c r="H30" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="I30" s="3" t="s">
-        <v>262</v>
-      </c>
-      <c r="J30" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="K30" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="L30" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="M30" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="N30" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="O30" s="3" t="s">
-        <v>264</v>
-      </c>
-      <c r="P30" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="Q30" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="R30" s="3" t="s">
-        <v>265</v>
-      </c>
-      <c r="S30" s="3" t="s">
-        <v>266</v>
-      </c>
-      <c r="T30" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="U30" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="V30" s="3" t="s">
-        <v>267</v>
-      </c>
-      <c r="W30" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="X30" s="3" t="s">
-        <v>268</v>
-      </c>
-      <c r="Y30" s="3"/>
     </row>
     <row r="31" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>118</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>270</v>
+        <v>121</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>271</v>
+        <v>134</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>272</v>
+        <v>66</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>273</v>
+        <v>74</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>274</v>
+        <v>261</v>
       </c>
       <c r="H31" s="3" t="s">
-        <v>270</v>
+        <v>79</v>
       </c>
       <c r="I31" s="3" t="s">
-        <v>275</v>
+        <v>262</v>
       </c>
       <c r="J31" s="3" t="s">
-        <v>273</v>
+        <v>263</v>
       </c>
       <c r="K31" s="3" t="s">
-        <v>276</v>
+        <v>79</v>
       </c>
       <c r="L31" s="3" t="s">
-        <v>277</v>
+        <v>66</v>
       </c>
       <c r="M31" s="3" t="s">
-        <v>129</v>
+        <v>164</v>
       </c>
       <c r="N31" s="3" t="s">
-        <v>278</v>
+        <v>201</v>
       </c>
       <c r="O31" s="3" t="s">
-        <v>276</v>
+        <v>264</v>
       </c>
       <c r="P31" s="3" t="s">
-        <v>279</v>
+        <v>101</v>
       </c>
       <c r="Q31" s="3" t="s">
-        <v>277</v>
+        <v>64</v>
       </c>
       <c r="R31" s="3" t="s">
-        <v>120</v>
+        <v>265</v>
       </c>
       <c r="S31" s="3" t="s">
-        <v>280</v>
+        <v>266</v>
       </c>
       <c r="T31" s="3" t="s">
-        <v>281</v>
+        <v>96</v>
       </c>
       <c r="U31" s="3" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="V31" s="3" t="s">
-        <v>282</v>
+        <v>267</v>
       </c>
       <c r="W31" s="3" t="s">
-        <v>283</v>
+        <v>263</v>
       </c>
       <c r="X31" s="3" t="s">
-        <v>284</v>
+        <v>268</v>
       </c>
       <c r="Y31" s="3"/>
     </row>
     <row r="32" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>285</v>
+        <v>269</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>118</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>199</v>
+        <v>270</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>286</v>
+        <v>271</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>90</v>
+        <v>272</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>181</v>
+        <v>273</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>141</v>
+        <v>274</v>
       </c>
       <c r="H32" s="3" t="s">
-        <v>287</v>
+        <v>270</v>
       </c>
       <c r="I32" s="3" t="s">
-        <v>181</v>
+        <v>275</v>
       </c>
       <c r="J32" s="3" t="s">
         <v>273</v>
       </c>
       <c r="K32" s="3" t="s">
-        <v>90</v>
+        <v>276</v>
       </c>
       <c r="L32" s="3" t="s">
-        <v>197</v>
+        <v>277</v>
       </c>
       <c r="M32" s="3" t="s">
-        <v>197</v>
+        <v>129</v>
       </c>
       <c r="N32" s="3" t="s">
-        <v>90</v>
+        <v>278</v>
       </c>
       <c r="O32" s="3" t="s">
-        <v>90</v>
+        <v>276</v>
       </c>
       <c r="P32" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="Q32" s="3" t="s">
-        <v>197</v>
+        <v>277</v>
       </c>
       <c r="R32" s="3" t="s">
         <v>120</v>
       </c>
       <c r="S32" s="3" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
       <c r="T32" s="3" t="s">
-        <v>97</v>
+        <v>281</v>
       </c>
       <c r="U32" s="3" t="s">
         <v>271</v>
       </c>
       <c r="V32" s="3" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="W32" s="3" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="X32" s="3" t="s">
-        <v>133</v>
+        <v>284</v>
       </c>
       <c r="Y32" s="3"/>
     </row>
     <row r="33" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>118</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>291</v>
+        <v>199</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>271</v>
+        <v>286</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>292</v>
+        <v>90</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>293</v>
+        <v>181</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>294</v>
+        <v>141</v>
       </c>
       <c r="H33" s="3" t="s">
-        <v>168</v>
+        <v>287</v>
       </c>
       <c r="I33" s="3" t="s">
-        <v>199</v>
+        <v>181</v>
       </c>
       <c r="J33" s="3" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="K33" s="3" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="L33" s="3" t="s">
-        <v>292</v>
+        <v>197</v>
       </c>
       <c r="M33" s="3" t="s">
         <v>197</v>
       </c>
       <c r="N33" s="3" t="s">
-        <v>139</v>
+        <v>90</v>
       </c>
       <c r="O33" s="3" t="s">
-        <v>287</v>
+        <v>90</v>
       </c>
       <c r="P33" s="3" t="s">
-        <v>295</v>
+        <v>280</v>
       </c>
       <c r="Q33" s="3" t="s">
-        <v>296</v>
+        <v>197</v>
       </c>
       <c r="R33" s="3" t="s">
-        <v>194</v>
+        <v>120</v>
       </c>
       <c r="S33" s="3" t="s">
-        <v>270</v>
+        <v>288</v>
       </c>
       <c r="T33" s="3" t="s">
-        <v>297</v>
+        <v>97</v>
       </c>
       <c r="U33" s="3" t="s">
         <v>271</v>
       </c>
       <c r="V33" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="W33" s="3" t="s">
         <v>279</v>
       </c>
-      <c r="W33" s="3" t="s">
-        <v>298</v>
-      </c>
       <c r="X33" s="3" t="s">
-        <v>271</v>
+        <v>133</v>
       </c>
       <c r="Y33" s="3"/>
     </row>
     <row r="34" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>299</v>
+        <v>290</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>118</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>131</v>
+        <v>291</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>286</v>
+        <v>271</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>105</v>
+        <v>292</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>125</v>
+        <v>294</v>
       </c>
       <c r="H34" s="3" t="s">
-        <v>99</v>
+        <v>168</v>
       </c>
       <c r="I34" s="3" t="s">
-        <v>137</v>
+        <v>199</v>
       </c>
       <c r="J34" s="3" t="s">
-        <v>301</v>
+        <v>271</v>
       </c>
       <c r="K34" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L34" s="3" t="s">
-        <v>137</v>
+        <v>292</v>
       </c>
       <c r="M34" s="3" t="s">
-        <v>302</v>
+        <v>197</v>
       </c>
       <c r="N34" s="3" t="s">
-        <v>302</v>
+        <v>139</v>
       </c>
       <c r="O34" s="3" t="s">
-        <v>303</v>
+        <v>287</v>
       </c>
       <c r="P34" s="3" t="s">
-        <v>304</v>
+        <v>295</v>
       </c>
       <c r="Q34" s="3" t="s">
-        <v>115</v>
+        <v>296</v>
       </c>
       <c r="R34" s="3" t="s">
         <v>194</v>
       </c>
       <c r="S34" s="3" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="T34" s="3" t="s">
-        <v>134</v>
+        <v>297</v>
       </c>
       <c r="U34" s="3" t="s">
-        <v>301</v>
+        <v>271</v>
       </c>
       <c r="V34" s="3" t="s">
-        <v>97</v>
+        <v>279</v>
       </c>
       <c r="W34" s="3" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="X34" s="3" t="s">
-        <v>197</v>
+        <v>271</v>
       </c>
       <c r="Y34" s="3"/>
     </row>
     <row r="35" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>118</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="D35" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="G35" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="H35" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="I35" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="J35" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="K35" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="L35" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="M35" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="N35" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="O35" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="P35" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="Q35" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="R35" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="S35" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="T35" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="U35" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="V35" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="E35" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="F35" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="G35" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="H35" s="3" t="s">
-        <v>306</v>
-      </c>
-      <c r="I35" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="J35" s="3" t="s">
-        <v>271</v>
-      </c>
-      <c r="K35" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="L35" s="3" t="s">
-        <v>307</v>
-      </c>
-      <c r="M35" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="N35" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="O35" s="3" t="s">
-        <v>249</v>
-      </c>
-      <c r="P35" s="3" t="s">
-        <v>298</v>
-      </c>
-      <c r="Q35" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="R35" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="S35" s="3" t="s">
-        <v>308</v>
-      </c>
-      <c r="T35" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="U35" s="3" t="s">
-        <v>271</v>
-      </c>
-      <c r="V35" s="3" t="s">
-        <v>134</v>
-      </c>
       <c r="W35" s="3" t="s">
-        <v>271</v>
+        <v>296</v>
       </c>
       <c r="X35" s="3" t="s">
-        <v>106</v>
+        <v>197</v>
       </c>
       <c r="Y35" s="3"/>
     </row>
     <row r="36" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>118</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>310</v>
+        <v>97</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>311</v>
+        <v>94</v>
       </c>
       <c r="G36" s="3" t="s">
         <v>130</v>
       </c>
       <c r="H36" s="3" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="I36" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="J36" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="K36" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="L36" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="M36" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="N36" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="O36" s="3" t="s">
         <v>249</v>
       </c>
-      <c r="J36" s="3" t="s">
-        <v>271</v>
-      </c>
-      <c r="K36" s="3" t="s">
-        <v>249</v>
-      </c>
-      <c r="L36" s="3" t="s">
+      <c r="P36" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="Q36" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="R36" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="S36" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="T36" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="M36" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="N36" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="O36" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="P36" s="3" t="s">
-        <v>313</v>
-      </c>
-      <c r="Q36" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="R36" s="3" t="s">
-        <v>314</v>
-      </c>
-      <c r="S36" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="T36" s="3" t="s">
-        <v>137</v>
-      </c>
       <c r="U36" s="3" t="s">
         <v>271</v>
       </c>
       <c r="V36" s="3" t="s">
-        <v>99</v>
+        <v>134</v>
       </c>
       <c r="W36" s="3" t="s">
         <v>271</v>
       </c>
       <c r="X36" s="3" t="s">
-        <v>315</v>
+        <v>106</v>
       </c>
       <c r="Y36" s="3"/>
     </row>
     <row r="37" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>118</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>318</v>
+        <v>95</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>197</v>
+        <v>311</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>319</v>
+        <v>130</v>
       </c>
       <c r="H37" s="3" t="s">
-        <v>90</v>
+        <v>312</v>
       </c>
       <c r="I37" s="3" t="s">
-        <v>64</v>
+        <v>249</v>
       </c>
       <c r="J37" s="3" t="s">
         <v>271</v>
       </c>
       <c r="K37" s="3" t="s">
-        <v>96</v>
+        <v>249</v>
       </c>
       <c r="L37" s="3" t="s">
-        <v>320</v>
+        <v>103</v>
       </c>
       <c r="M37" s="3" t="s">
-        <v>321</v>
+        <v>103</v>
       </c>
       <c r="N37" s="3" t="s">
-        <v>105</v>
+        <v>127</v>
       </c>
       <c r="O37" s="3" t="s">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="P37" s="3" t="s">
-        <v>322</v>
+        <v>313</v>
       </c>
       <c r="Q37" s="3" t="s">
-        <v>321</v>
+        <v>103</v>
       </c>
       <c r="R37" s="3" t="s">
-        <v>111</v>
+        <v>314</v>
       </c>
       <c r="S37" s="3" t="s">
-        <v>323</v>
+        <v>293</v>
       </c>
       <c r="T37" s="3" t="s">
-        <v>76</v>
+        <v>137</v>
       </c>
       <c r="U37" s="3" t="s">
         <v>271</v>
       </c>
       <c r="V37" s="3" t="s">
-        <v>267</v>
+        <v>99</v>
       </c>
       <c r="W37" s="3" t="s">
         <v>271</v>
       </c>
       <c r="X37" s="3" t="s">
-        <v>324</v>
+        <v>315</v>
       </c>
       <c r="Y37" s="3"/>
     </row>
     <row r="38" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>325</v>
+        <v>316</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>118</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>326</v>
+        <v>131</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>327</v>
+        <v>317</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>134</v>
+        <v>318</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="G38" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="H38" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="H38" s="3" t="s">
-        <v>328</v>
-      </c>
       <c r="I38" s="3" t="s">
-        <v>110</v>
+        <v>64</v>
       </c>
       <c r="J38" s="3" t="s">
         <v>271</v>
       </c>
       <c r="K38" s="3" t="s">
-        <v>315</v>
+        <v>96</v>
       </c>
       <c r="L38" s="3" t="s">
-        <v>100</v>
+        <v>320</v>
       </c>
       <c r="M38" s="3" t="s">
-        <v>100</v>
+        <v>321</v>
       </c>
       <c r="N38" s="3" t="s">
-        <v>131</v>
+        <v>105</v>
       </c>
       <c r="O38" s="3" t="s">
-        <v>245</v>
+        <v>74</v>
       </c>
       <c r="P38" s="3" t="s">
-        <v>273</v>
+        <v>322</v>
       </c>
       <c r="Q38" s="3" t="s">
-        <v>125</v>
+        <v>321</v>
       </c>
       <c r="R38" s="3" t="s">
-        <v>314</v>
+        <v>111</v>
       </c>
       <c r="S38" s="3" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="T38" s="3" t="s">
-        <v>245</v>
+        <v>76</v>
       </c>
       <c r="U38" s="3" t="s">
         <v>271</v>
       </c>
       <c r="V38" s="3" t="s">
-        <v>127</v>
+        <v>267</v>
       </c>
       <c r="W38" s="3" t="s">
         <v>271</v>
       </c>
       <c r="X38" s="3" t="s">
-        <v>125</v>
+        <v>324</v>
       </c>
       <c r="Y38" s="3"/>
     </row>
     <row r="39" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>118</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>140</v>
+        <v>326</v>
       </c>
       <c r="D39" s="3" t="s">
+        <v>327</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="F39" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="G39" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="H39" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="I39" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="J39" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="K39" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="L39" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="E39" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="F39" s="3" t="s">
-        <v>315</v>
-      </c>
-      <c r="G39" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="H39" s="3" t="s">
-        <v>303</v>
-      </c>
-      <c r="I39" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="J39" s="3" t="s">
-        <v>330</v>
-      </c>
-      <c r="K39" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="L39" s="3" t="s">
-        <v>80</v>
-      </c>
       <c r="M39" s="3" t="s">
-        <v>66</v>
+        <v>100</v>
       </c>
       <c r="N39" s="3" t="s">
-        <v>331</v>
+        <v>131</v>
       </c>
       <c r="O39" s="3" t="s">
-        <v>79</v>
+        <v>245</v>
       </c>
       <c r="P39" s="3" t="s">
-        <v>332</v>
+        <v>273</v>
       </c>
       <c r="Q39" s="3" t="s">
-        <v>80</v>
+        <v>125</v>
       </c>
       <c r="R39" s="3" t="s">
-        <v>333</v>
+        <v>314</v>
       </c>
       <c r="S39" s="3" t="s">
-        <v>334</v>
+        <v>322</v>
       </c>
       <c r="T39" s="3" t="s">
-        <v>69</v>
+        <v>245</v>
       </c>
       <c r="U39" s="3" t="s">
-        <v>330</v>
+        <v>271</v>
       </c>
       <c r="V39" s="3" t="s">
-        <v>74</v>
+        <v>127</v>
       </c>
       <c r="W39" s="3" t="s">
-        <v>330</v>
+        <v>271</v>
       </c>
       <c r="X39" s="3" t="s">
-        <v>66</v>
+        <v>125</v>
       </c>
       <c r="Y39" s="3"/>
     </row>
     <row r="40" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>118</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>336</v>
+        <v>140</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>311</v>
+        <v>100</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>127</v>
+        <v>66</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>291</v>
+        <v>315</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>131</v>
+        <v>74</v>
       </c>
       <c r="H40" s="3" t="s">
-        <v>207</v>
+        <v>303</v>
       </c>
       <c r="I40" s="3" t="s">
-        <v>300</v>
+        <v>167</v>
       </c>
       <c r="J40" s="3" t="s">
-        <v>271</v>
+        <v>330</v>
       </c>
       <c r="K40" s="3" t="s">
-        <v>97</v>
+        <v>69</v>
       </c>
       <c r="L40" s="3" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="M40" s="3" t="s">
-        <v>90</v>
+        <v>66</v>
       </c>
       <c r="N40" s="3" t="s">
-        <v>306</v>
+        <v>331</v>
       </c>
       <c r="O40" s="3" t="s">
-        <v>127</v>
+        <v>79</v>
       </c>
       <c r="P40" s="3" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="Q40" s="3" t="s">
-        <v>181</v>
+        <v>80</v>
       </c>
       <c r="R40" s="3" t="s">
-        <v>314</v>
+        <v>333</v>
       </c>
       <c r="S40" s="3" t="s">
-        <v>279</v>
+        <v>334</v>
       </c>
       <c r="T40" s="3" t="s">
-        <v>127</v>
+        <v>69</v>
       </c>
       <c r="U40" s="3" t="s">
-        <v>271</v>
+        <v>330</v>
       </c>
       <c r="V40" s="3" t="s">
-        <v>94</v>
+        <v>74</v>
       </c>
       <c r="W40" s="3" t="s">
-        <v>271</v>
+        <v>330</v>
       </c>
       <c r="X40" s="3" t="s">
-        <v>90</v>
+        <v>66</v>
       </c>
       <c r="Y40" s="3"/>
     </row>
     <row r="41" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>118</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>168</v>
+        <v>311</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>105</v>
+        <v>127</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>340</v>
+        <v>291</v>
       </c>
       <c r="G41" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="H41" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="I41" s="3" t="s">
         <v>300</v>
       </c>
-      <c r="H41" s="3" t="s">
-        <v>341</v>
-      </c>
-      <c r="I41" s="3" t="s">
-        <v>103</v>
-      </c>
       <c r="J41" s="3" t="s">
         <v>271</v>
       </c>
       <c r="K41" s="3" t="s">
-        <v>303</v>
+        <v>97</v>
       </c>
       <c r="L41" s="3" t="s">
-        <v>140</v>
+        <v>90</v>
       </c>
       <c r="M41" s="3" t="s">
-        <v>137</v>
+        <v>90</v>
       </c>
       <c r="N41" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="O41" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="P41" s="3" t="s">
+        <v>337</v>
+      </c>
+      <c r="Q41" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="O41" s="3" t="s">
-        <v>302</v>
-      </c>
-      <c r="P41" s="3" t="s">
-        <v>273</v>
-      </c>
-      <c r="Q41" s="3" t="s">
-        <v>140</v>
-      </c>
       <c r="R41" s="3" t="s">
-        <v>120</v>
+        <v>314</v>
       </c>
       <c r="S41" s="3" t="s">
-        <v>322</v>
+        <v>279</v>
       </c>
       <c r="T41" s="3" t="s">
-        <v>303</v>
+        <v>127</v>
       </c>
       <c r="U41" s="3" t="s">
         <v>271</v>
       </c>
       <c r="V41" s="3" t="s">
-        <v>315</v>
+        <v>94</v>
       </c>
       <c r="W41" s="3" t="s">
         <v>271</v>
       </c>
       <c r="X41" s="3" t="s">
-        <v>140</v>
+        <v>90</v>
       </c>
       <c r="Y41" s="3"/>
     </row>
     <row r="42" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>118</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>268</v>
+        <v>339</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>319</v>
+        <v>168</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>82</v>
+        <v>105</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>319</v>
+        <v>340</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>81</v>
+        <v>300</v>
       </c>
       <c r="H42" s="3" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="I42" s="3" t="s">
-        <v>344</v>
+        <v>103</v>
       </c>
       <c r="J42" s="3" t="s">
-        <v>345</v>
+        <v>271</v>
       </c>
       <c r="K42" s="3" t="s">
-        <v>75</v>
+        <v>303</v>
       </c>
       <c r="L42" s="3" t="s">
-        <v>82</v>
+        <v>140</v>
       </c>
       <c r="M42" s="3" t="s">
-        <v>346</v>
+        <v>137</v>
       </c>
       <c r="N42" s="3" t="s">
-        <v>62</v>
+        <v>181</v>
       </c>
       <c r="O42" s="3" t="s">
-        <v>177</v>
+        <v>302</v>
       </c>
       <c r="P42" s="3" t="s">
-        <v>97</v>
+        <v>273</v>
       </c>
       <c r="Q42" s="3" t="s">
-        <v>75</v>
+        <v>140</v>
       </c>
       <c r="R42" s="3" t="s">
-        <v>347</v>
+        <v>120</v>
       </c>
       <c r="S42" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="T42" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="U42" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="V42" s="3" t="s">
         <v>315</v>
       </c>
-      <c r="T42" s="3" t="s">
-        <v>348</v>
-      </c>
-      <c r="U42" s="3" t="s">
-        <v>345</v>
-      </c>
-      <c r="V42" s="3" t="s">
-        <v>349</v>
-      </c>
       <c r="W42" s="3" t="s">
-        <v>345</v>
+        <v>271</v>
       </c>
       <c r="X42" s="3" t="s">
-        <v>350</v>
+        <v>140</v>
       </c>
       <c r="Y42" s="3"/>
     </row>
     <row r="43" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>351</v>
+        <v>342</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>118</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>352</v>
+        <v>268</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>304</v>
+        <v>319</v>
       </c>
       <c r="G43" s="3" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="H43" s="3" t="s">
-        <v>281</v>
+        <v>343</v>
       </c>
       <c r="I43" s="3" t="s">
-        <v>96</v>
+        <v>344</v>
       </c>
       <c r="J43" s="3" t="s">
-        <v>271</v>
+        <v>345</v>
       </c>
       <c r="K43" s="3" t="s">
-        <v>187</v>
+        <v>75</v>
       </c>
       <c r="L43" s="3" t="s">
-        <v>261</v>
+        <v>82</v>
       </c>
       <c r="M43" s="3" t="s">
-        <v>108</v>
+        <v>346</v>
       </c>
       <c r="N43" s="3" t="s">
-        <v>181</v>
+        <v>62</v>
       </c>
       <c r="O43" s="3" t="s">
-        <v>264</v>
+        <v>177</v>
       </c>
       <c r="P43" s="3" t="s">
-        <v>271</v>
+        <v>97</v>
       </c>
       <c r="Q43" s="3" t="s">
-        <v>114</v>
+        <v>75</v>
       </c>
       <c r="R43" s="3" t="s">
-        <v>109</v>
+        <v>347</v>
       </c>
       <c r="S43" s="3" t="s">
-        <v>273</v>
+        <v>315</v>
       </c>
       <c r="T43" s="3" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="U43" s="3" t="s">
-        <v>271</v>
+        <v>345</v>
       </c>
       <c r="V43" s="3" t="s">
-        <v>113</v>
+        <v>349</v>
       </c>
       <c r="W43" s="3" t="s">
-        <v>271</v>
+        <v>345</v>
       </c>
       <c r="X43" s="3" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="Y43" s="3"/>
     </row>
     <row r="44" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>118</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>174</v>
+        <v>352</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>174</v>
+        <v>317</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>356</v>
+        <v>83</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>174</v>
+        <v>304</v>
       </c>
       <c r="G44" s="3" t="s">
-        <v>357</v>
+        <v>88</v>
       </c>
       <c r="H44" s="3" t="s">
-        <v>174</v>
+        <v>281</v>
       </c>
       <c r="I44" s="3" t="s">
-        <v>358</v>
+        <v>96</v>
       </c>
       <c r="J44" s="3" t="s">
-        <v>174</v>
+        <v>271</v>
       </c>
       <c r="K44" s="3" t="s">
-        <v>359</v>
+        <v>187</v>
       </c>
       <c r="L44" s="3" t="s">
-        <v>360</v>
+        <v>261</v>
       </c>
       <c r="M44" s="3" t="s">
-        <v>361</v>
+        <v>108</v>
       </c>
       <c r="N44" s="3" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="O44" s="3" t="s">
-        <v>362</v>
+        <v>264</v>
       </c>
       <c r="P44" s="3" t="s">
-        <v>174</v>
+        <v>271</v>
       </c>
       <c r="Q44" s="3" t="s">
-        <v>363</v>
+        <v>114</v>
       </c>
       <c r="R44" s="3" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="S44" s="3" t="s">
-        <v>174</v>
+        <v>273</v>
       </c>
       <c r="T44" s="3" t="s">
-        <v>362</v>
+        <v>353</v>
       </c>
       <c r="U44" s="3" t="s">
-        <v>174</v>
+        <v>271</v>
       </c>
       <c r="V44" s="3" t="s">
-        <v>364</v>
+        <v>113</v>
       </c>
       <c r="W44" s="3" t="s">
-        <v>174</v>
+        <v>271</v>
       </c>
       <c r="X44" s="3" t="s">
-        <v>362</v>
+        <v>354</v>
       </c>
       <c r="Y44" s="3"/>
     </row>
     <row r="45" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>365</v>
+        <v>355</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>118</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>271</v>
+        <v>174</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>271</v>
+        <v>174</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>366</v>
+        <v>356</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>271</v>
+        <v>174</v>
       </c>
       <c r="G45" s="3" t="s">
-        <v>367</v>
+        <v>357</v>
       </c>
       <c r="H45" s="3" t="s">
-        <v>271</v>
+        <v>174</v>
       </c>
       <c r="I45" s="3" t="s">
-        <v>368</v>
+        <v>358</v>
       </c>
       <c r="J45" s="3" t="s">
-        <v>271</v>
+        <v>174</v>
       </c>
       <c r="K45" s="3" t="s">
-        <v>369</v>
+        <v>359</v>
       </c>
       <c r="L45" s="3" t="s">
-        <v>370</v>
+        <v>360</v>
       </c>
       <c r="M45" s="3" t="s">
-        <v>371</v>
+        <v>361</v>
       </c>
       <c r="N45" s="3" t="s">
-        <v>271</v>
+        <v>174</v>
       </c>
       <c r="O45" s="3" t="s">
-        <v>372</v>
+        <v>362</v>
       </c>
       <c r="P45" s="3" t="s">
-        <v>271</v>
+        <v>174</v>
       </c>
       <c r="Q45" s="3" t="s">
-        <v>373</v>
+        <v>363</v>
       </c>
       <c r="R45" s="3" t="s">
         <v>120</v>
       </c>
       <c r="S45" s="3" t="s">
-        <v>271</v>
+        <v>174</v>
       </c>
       <c r="T45" s="3" t="s">
-        <v>372</v>
+        <v>362</v>
       </c>
       <c r="U45" s="3" t="s">
-        <v>271</v>
+        <v>174</v>
       </c>
       <c r="V45" s="3" t="s">
-        <v>374</v>
+        <v>364</v>
       </c>
       <c r="W45" s="3" t="s">
-        <v>271</v>
+        <v>174</v>
       </c>
       <c r="X45" s="3" t="s">
-        <v>369</v>
+        <v>362</v>
       </c>
       <c r="Y45" s="3"/>
     </row>
     <row r="46" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>375</v>
+        <v>365</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>118</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>352</v>
+        <v>271</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>317</v>
+        <v>271</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>83</v>
+        <v>366</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>304</v>
+        <v>271</v>
       </c>
       <c r="G46" s="3" t="s">
-        <v>88</v>
+        <v>367</v>
       </c>
       <c r="H46" s="3" t="s">
-        <v>281</v>
+        <v>271</v>
       </c>
       <c r="I46" s="3" t="s">
-        <v>96</v>
+        <v>368</v>
       </c>
       <c r="J46" s="3" t="s">
-        <v>376</v>
+        <v>271</v>
       </c>
       <c r="K46" s="3" t="s">
-        <v>187</v>
+        <v>369</v>
       </c>
       <c r="L46" s="3" t="s">
-        <v>261</v>
+        <v>370</v>
       </c>
       <c r="M46" s="3" t="s">
-        <v>108</v>
+        <v>371</v>
       </c>
       <c r="N46" s="3" t="s">
-        <v>181</v>
+        <v>271</v>
       </c>
       <c r="O46" s="3" t="s">
-        <v>264</v>
+        <v>372</v>
       </c>
       <c r="P46" s="3" t="s">
-        <v>376</v>
+        <v>271</v>
       </c>
       <c r="Q46" s="3" t="s">
-        <v>114</v>
+        <v>373</v>
       </c>
       <c r="R46" s="3" t="s">
-        <v>377</v>
+        <v>120</v>
       </c>
       <c r="S46" s="3" t="s">
-        <v>376</v>
+        <v>271</v>
       </c>
       <c r="T46" s="3" t="s">
-        <v>353</v>
+        <v>372</v>
       </c>
       <c r="U46" s="3" t="s">
-        <v>376</v>
+        <v>271</v>
       </c>
       <c r="V46" s="3" t="s">
-        <v>113</v>
+        <v>374</v>
       </c>
       <c r="W46" s="3" t="s">
-        <v>376</v>
+        <v>271</v>
       </c>
       <c r="X46" s="3" t="s">
-        <v>354</v>
+        <v>369</v>
       </c>
       <c r="Y46" s="3"/>
     </row>
     <row r="47" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>118</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>271</v>
+        <v>352</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>271</v>
+        <v>317</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>379</v>
+        <v>83</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>271</v>
+        <v>304</v>
       </c>
       <c r="G47" s="3" t="s">
-        <v>367</v>
+        <v>88</v>
       </c>
       <c r="H47" s="3" t="s">
-        <v>271</v>
+        <v>281</v>
       </c>
       <c r="I47" s="3" t="s">
-        <v>370</v>
+        <v>96</v>
       </c>
       <c r="J47" s="3" t="s">
-        <v>271</v>
+        <v>376</v>
       </c>
       <c r="K47" s="3" t="s">
-        <v>380</v>
+        <v>187</v>
       </c>
       <c r="L47" s="3" t="s">
-        <v>380</v>
+        <v>261</v>
       </c>
       <c r="M47" s="3" t="s">
-        <v>381</v>
+        <v>108</v>
       </c>
       <c r="N47" s="3" t="s">
-        <v>271</v>
+        <v>181</v>
       </c>
       <c r="O47" s="3" t="s">
-        <v>366</v>
+        <v>264</v>
       </c>
       <c r="P47" s="3" t="s">
-        <v>271</v>
+        <v>376</v>
       </c>
       <c r="Q47" s="3" t="s">
-        <v>379</v>
+        <v>114</v>
       </c>
       <c r="R47" s="3" t="s">
-        <v>120</v>
+        <v>377</v>
       </c>
       <c r="S47" s="3" t="s">
-        <v>271</v>
+        <v>376</v>
       </c>
       <c r="T47" s="3" t="s">
-        <v>370</v>
+        <v>353</v>
       </c>
       <c r="U47" s="3" t="s">
-        <v>271</v>
+        <v>376</v>
       </c>
       <c r="V47" s="3" t="s">
-        <v>381</v>
+        <v>113</v>
       </c>
       <c r="W47" s="3" t="s">
-        <v>271</v>
+        <v>376</v>
       </c>
       <c r="X47" s="3" t="s">
-        <v>374</v>
+        <v>354</v>
       </c>
       <c r="Y47" s="3"/>
     </row>
     <row r="48" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>118</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>311</v>
+        <v>271</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>340</v>
+        <v>271</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>140</v>
+        <v>379</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>308</v>
+        <v>271</v>
       </c>
       <c r="G48" s="3" t="s">
-        <v>181</v>
+        <v>367</v>
       </c>
       <c r="H48" s="3" t="s">
-        <v>174</v>
+        <v>271</v>
       </c>
       <c r="I48" s="3" t="s">
-        <v>134</v>
+        <v>370</v>
       </c>
       <c r="J48" s="3" t="s">
-        <v>174</v>
+        <v>271</v>
       </c>
       <c r="K48" s="3" t="s">
-        <v>99</v>
+        <v>380</v>
       </c>
       <c r="L48" s="3" t="s">
-        <v>127</v>
+        <v>380</v>
       </c>
       <c r="M48" s="3" t="s">
-        <v>181</v>
+        <v>381</v>
       </c>
       <c r="N48" s="3" t="s">
-        <v>174</v>
+        <v>271</v>
       </c>
       <c r="O48" s="3" t="s">
-        <v>173</v>
+        <v>366</v>
       </c>
       <c r="P48" s="3" t="s">
-        <v>174</v>
+        <v>271</v>
       </c>
       <c r="Q48" s="3" t="s">
-        <v>127</v>
+        <v>379</v>
       </c>
       <c r="R48" s="3" t="s">
-        <v>343</v>
+        <v>120</v>
       </c>
       <c r="S48" s="3" t="s">
-        <v>174</v>
+        <v>271</v>
       </c>
       <c r="T48" s="3" t="s">
-        <v>125</v>
+        <v>370</v>
       </c>
       <c r="U48" s="3" t="s">
-        <v>174</v>
+        <v>271</v>
       </c>
       <c r="V48" s="3" t="s">
-        <v>181</v>
+        <v>381</v>
       </c>
       <c r="W48" s="3" t="s">
-        <v>174</v>
+        <v>271</v>
       </c>
       <c r="X48" s="3" t="s">
-        <v>173</v>
+        <v>374</v>
       </c>
       <c r="Y48" s="3"/>
     </row>
     <row r="49" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>118</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>301</v>
+        <v>311</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>301</v>
+        <v>340</v>
       </c>
       <c r="E49" s="3" t="s">
         <v>140</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>301</v>
+        <v>308</v>
       </c>
       <c r="G49" s="3" t="s">
         <v>181</v>
       </c>
       <c r="H49" s="3" t="s">
-        <v>301</v>
+        <v>174</v>
       </c>
       <c r="I49" s="3" t="s">
         <v>134</v>
       </c>
       <c r="J49" s="3" t="s">
-        <v>301</v>
+        <v>174</v>
       </c>
       <c r="K49" s="3" t="s">
         <v>99</v>
@@ -5502,13 +5511,13 @@
         <v>181</v>
       </c>
       <c r="N49" s="3" t="s">
-        <v>301</v>
+        <v>174</v>
       </c>
       <c r="O49" s="3" t="s">
         <v>173</v>
       </c>
       <c r="P49" s="3" t="s">
-        <v>301</v>
+        <v>174</v>
       </c>
       <c r="Q49" s="3" t="s">
         <v>127</v>
@@ -5517,19 +5526,19 @@
         <v>343</v>
       </c>
       <c r="S49" s="3" t="s">
-        <v>301</v>
+        <v>174</v>
       </c>
       <c r="T49" s="3" t="s">
         <v>125</v>
       </c>
       <c r="U49" s="3" t="s">
-        <v>301</v>
+        <v>174</v>
       </c>
       <c r="V49" s="3" t="s">
         <v>181</v>
       </c>
       <c r="W49" s="3" t="s">
-        <v>301</v>
+        <v>174</v>
       </c>
       <c r="X49" s="3" t="s">
         <v>173</v>
@@ -5537,169 +5546,169 @@
       <c r="Y49" s="3"/>
     </row>
     <row r="50" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A50" s="2" t="s">
+      <c r="A50" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="E50" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="F50" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="G50" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="H50" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="I50" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="J50" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="K50" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="L50" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="M50" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="N50" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="O50" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="P50" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="Q50" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="R50" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="S50" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="T50" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="U50" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="V50" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="W50" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="X50" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="Y50" s="3"/>
+    </row>
+    <row r="51" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A51" s="2" t="s">
         <v>384</v>
       </c>
-    </row>
-    <row r="51" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A51" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C51" s="3" t="s">
-        <v>385</v>
-      </c>
-      <c r="D51" s="3" t="s">
-        <v>386</v>
-      </c>
-      <c r="E51" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="F51" s="3" t="s">
-        <v>315</v>
-      </c>
-      <c r="G51" s="3" t="s">
-        <v>387</v>
-      </c>
-      <c r="H51" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="I51" s="3" t="s">
-        <v>388</v>
-      </c>
-      <c r="J51" s="3" t="s">
-        <v>389</v>
-      </c>
-      <c r="K51" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="L51" s="3" t="s">
-        <v>390</v>
-      </c>
-      <c r="M51" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="N51" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="O51" s="3" t="s">
-        <v>253</v>
-      </c>
-      <c r="P51" s="3" t="s">
-        <v>266</v>
-      </c>
-      <c r="Q51" s="3" t="s">
-        <v>391</v>
-      </c>
-      <c r="R51" s="3" t="s">
-        <v>392</v>
-      </c>
-      <c r="S51" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="T51" s="3" t="s">
-        <v>253</v>
-      </c>
-      <c r="U51" s="3" t="s">
-        <v>393</v>
-      </c>
-      <c r="V51" s="3" t="s">
-        <v>394</v>
-      </c>
-      <c r="W51" s="3" t="s">
-        <v>395</v>
-      </c>
-      <c r="X51" s="3" t="s">
-        <v>396</v>
-      </c>
-      <c r="Y51" s="3"/>
     </row>
     <row r="52" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>397</v>
+        <v>243</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>118</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>181</v>
+        <v>385</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>271</v>
+        <v>386</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>398</v>
+        <v>157</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>271</v>
+        <v>315</v>
       </c>
       <c r="G52" s="3" t="s">
-        <v>399</v>
+        <v>387</v>
       </c>
       <c r="H52" s="3" t="s">
-        <v>271</v>
+        <v>140</v>
       </c>
       <c r="I52" s="3" t="s">
-        <v>400</v>
+        <v>388</v>
       </c>
       <c r="J52" s="3" t="s">
-        <v>336</v>
+        <v>389</v>
       </c>
       <c r="K52" s="3" t="s">
-        <v>398</v>
+        <v>256</v>
       </c>
       <c r="L52" s="3" t="s">
-        <v>398</v>
+        <v>390</v>
       </c>
       <c r="M52" s="3" t="s">
-        <v>398</v>
+        <v>150</v>
       </c>
       <c r="N52" s="3" t="s">
-        <v>271</v>
+        <v>94</v>
       </c>
       <c r="O52" s="3" t="s">
-        <v>401</v>
+        <v>253</v>
       </c>
       <c r="P52" s="3" t="s">
-        <v>284</v>
+        <v>266</v>
       </c>
       <c r="Q52" s="3" t="s">
-        <v>402</v>
+        <v>391</v>
       </c>
       <c r="R52" s="3" t="s">
-        <v>403</v>
+        <v>392</v>
       </c>
       <c r="S52" s="3" t="s">
-        <v>271</v>
+        <v>98</v>
       </c>
       <c r="T52" s="3" t="s">
-        <v>404</v>
+        <v>253</v>
       </c>
       <c r="U52" s="3" t="s">
-        <v>271</v>
+        <v>393</v>
       </c>
       <c r="V52" s="3" t="s">
-        <v>405</v>
+        <v>394</v>
       </c>
       <c r="W52" s="3" t="s">
-        <v>284</v>
+        <v>395</v>
       </c>
       <c r="X52" s="3" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="Y52" s="3"/>
     </row>
     <row r="53" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>406</v>
+        <v>397</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>118</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>83</v>
+        <v>181</v>
       </c>
       <c r="D53" s="3" t="s">
         <v>271</v>
@@ -5711,16 +5720,16 @@
         <v>271</v>
       </c>
       <c r="G53" s="3" t="s">
-        <v>407</v>
+        <v>399</v>
       </c>
       <c r="H53" s="3" t="s">
-        <v>337</v>
+        <v>271</v>
       </c>
       <c r="I53" s="3" t="s">
-        <v>408</v>
+        <v>400</v>
       </c>
       <c r="J53" s="3" t="s">
-        <v>298</v>
+        <v>336</v>
       </c>
       <c r="K53" s="3" t="s">
         <v>398</v>
@@ -5735,13 +5744,13 @@
         <v>271</v>
       </c>
       <c r="O53" s="3" t="s">
-        <v>409</v>
+        <v>401</v>
       </c>
       <c r="P53" s="3" t="s">
-        <v>295</v>
+        <v>284</v>
       </c>
       <c r="Q53" s="3" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="R53" s="3" t="s">
         <v>403</v>
@@ -5750,475 +5759,475 @@
         <v>271</v>
       </c>
       <c r="T53" s="3" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="U53" s="3" t="s">
         <v>271</v>
       </c>
       <c r="V53" s="3" t="s">
-        <v>398</v>
+        <v>405</v>
       </c>
       <c r="W53" s="3" t="s">
-        <v>295</v>
+        <v>284</v>
       </c>
       <c r="X53" s="3" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="Y53" s="3"/>
     </row>
     <row r="54" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>118</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>197</v>
+        <v>83</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>412</v>
+        <v>271</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>98</v>
+        <v>398</v>
       </c>
       <c r="F54" s="3" t="s">
-        <v>412</v>
+        <v>271</v>
       </c>
       <c r="G54" s="3" t="s">
-        <v>252</v>
+        <v>407</v>
       </c>
       <c r="H54" s="3" t="s">
-        <v>412</v>
+        <v>337</v>
       </c>
       <c r="I54" s="3" t="s">
-        <v>67</v>
+        <v>408</v>
       </c>
       <c r="J54" s="3" t="s">
-        <v>412</v>
+        <v>298</v>
       </c>
       <c r="K54" s="3" t="s">
+        <v>398</v>
+      </c>
+      <c r="L54" s="3" t="s">
+        <v>398</v>
+      </c>
+      <c r="M54" s="3" t="s">
+        <v>398</v>
+      </c>
+      <c r="N54" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="O54" s="3" t="s">
+        <v>409</v>
+      </c>
+      <c r="P54" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="Q54" s="3" t="s">
+        <v>398</v>
+      </c>
+      <c r="R54" s="3" t="s">
         <v>403</v>
       </c>
-      <c r="L54" s="3" t="s">
-        <v>403</v>
-      </c>
-      <c r="M54" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="N54" s="3" t="s">
-        <v>412</v>
-      </c>
-      <c r="O54" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="P54" s="3" t="s">
-        <v>413</v>
-      </c>
-      <c r="Q54" s="3" t="s">
-        <v>403</v>
-      </c>
-      <c r="R54" s="3" t="s">
-        <v>245</v>
-      </c>
       <c r="S54" s="3" t="s">
-        <v>412</v>
+        <v>271</v>
       </c>
       <c r="T54" s="3" t="s">
-        <v>65</v>
+        <v>410</v>
       </c>
       <c r="U54" s="3" t="s">
-        <v>412</v>
+        <v>271</v>
       </c>
       <c r="V54" s="3" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="W54" s="3" t="s">
-        <v>414</v>
+        <v>295</v>
       </c>
       <c r="X54" s="3" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="Y54" s="3"/>
     </row>
     <row r="55" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="B55" s="1" t="s">
         <v>118</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>417</v>
+        <v>98</v>
       </c>
       <c r="F55" s="3" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
       <c r="G55" s="3" t="s">
-        <v>419</v>
+        <v>252</v>
       </c>
       <c r="H55" s="3" t="s">
-        <v>420</v>
+        <v>412</v>
       </c>
       <c r="I55" s="3" t="s">
-        <v>164</v>
+        <v>67</v>
       </c>
       <c r="J55" s="3" t="s">
-        <v>420</v>
+        <v>412</v>
       </c>
       <c r="K55" s="3" t="s">
-        <v>97</v>
+        <v>403</v>
       </c>
       <c r="L55" s="3" t="s">
-        <v>140</v>
+        <v>403</v>
       </c>
       <c r="M55" s="3" t="s">
-        <v>421</v>
+        <v>181</v>
       </c>
       <c r="N55" s="3" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="O55" s="3" t="s">
-        <v>69</v>
+        <v>81</v>
       </c>
       <c r="P55" s="3" t="s">
-        <v>420</v>
+        <v>413</v>
       </c>
       <c r="Q55" s="3" t="s">
-        <v>99</v>
+        <v>403</v>
       </c>
       <c r="R55" s="3" t="s">
-        <v>288</v>
+        <v>245</v>
       </c>
       <c r="S55" s="3" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
       <c r="T55" s="3" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="U55" s="3" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
       <c r="V55" s="3" t="s">
-        <v>353</v>
+        <v>403</v>
       </c>
       <c r="W55" s="3" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="X55" s="3" t="s">
-        <v>130</v>
+        <v>403</v>
       </c>
       <c r="Y55" s="3"/>
     </row>
     <row r="56" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>422</v>
+        <v>415</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>118</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>413</v>
+        <v>203</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>423</v>
+        <v>417</v>
       </c>
       <c r="F56" s="3" t="s">
         <v>418</v>
       </c>
       <c r="G56" s="3" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="H56" s="3" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="I56" s="3" t="s">
-        <v>98</v>
+        <v>164</v>
       </c>
       <c r="J56" s="3" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="K56" s="3" t="s">
-        <v>425</v>
+        <v>97</v>
       </c>
       <c r="L56" s="3" t="s">
-        <v>284</v>
+        <v>140</v>
       </c>
       <c r="M56" s="3" t="s">
+        <v>421</v>
+      </c>
+      <c r="N56" s="3" t="s">
         <v>416</v>
       </c>
-      <c r="N56" s="3" t="s">
-        <v>418</v>
-      </c>
       <c r="O56" s="3" t="s">
-        <v>426</v>
+        <v>69</v>
       </c>
       <c r="P56" s="3" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="Q56" s="3" t="s">
-        <v>279</v>
+        <v>99</v>
       </c>
       <c r="R56" s="3" t="s">
-        <v>423</v>
+        <v>288</v>
       </c>
       <c r="S56" s="3" t="s">
         <v>418</v>
       </c>
       <c r="T56" s="3" t="s">
-        <v>115</v>
+        <v>68</v>
       </c>
       <c r="U56" s="3" t="s">
         <v>418</v>
       </c>
       <c r="V56" s="3" t="s">
-        <v>97</v>
+        <v>353</v>
       </c>
       <c r="W56" s="3" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="X56" s="3" t="s">
-        <v>313</v>
+        <v>130</v>
       </c>
       <c r="Y56" s="3"/>
     </row>
     <row r="57" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>118</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>420</v>
+        <v>413</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>428</v>
+        <v>418</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="F57" s="3" t="s">
         <v>418</v>
       </c>
       <c r="G57" s="3" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="H57" s="3" t="s">
-        <v>428</v>
+        <v>418</v>
       </c>
       <c r="I57" s="3" t="s">
-        <v>281</v>
+        <v>98</v>
       </c>
       <c r="J57" s="3" t="s">
         <v>418</v>
       </c>
       <c r="K57" s="3" t="s">
+        <v>425</v>
+      </c>
+      <c r="L57" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="M57" s="3" t="s">
+        <v>416</v>
+      </c>
+      <c r="N57" s="3" t="s">
+        <v>418</v>
+      </c>
+      <c r="O57" s="3" t="s">
+        <v>426</v>
+      </c>
+      <c r="P57" s="3" t="s">
+        <v>418</v>
+      </c>
+      <c r="Q57" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="R57" s="3" t="s">
         <v>423</v>
       </c>
-      <c r="L57" s="3" t="s">
-        <v>420</v>
-      </c>
-      <c r="M57" s="3" t="s">
-        <v>420</v>
-      </c>
-      <c r="N57" s="3" t="s">
-        <v>428</v>
-      </c>
-      <c r="O57" s="3" t="s">
-        <v>430</v>
-      </c>
-      <c r="P57" s="3" t="s">
-        <v>428</v>
-      </c>
-      <c r="Q57" s="3" t="s">
-        <v>414</v>
-      </c>
-      <c r="R57" s="3" t="s">
-        <v>416</v>
-      </c>
       <c r="S57" s="3" t="s">
         <v>418</v>
       </c>
       <c r="T57" s="3" t="s">
-        <v>431</v>
+        <v>115</v>
       </c>
       <c r="U57" s="3" t="s">
         <v>418</v>
       </c>
       <c r="V57" s="3" t="s">
-        <v>432</v>
+        <v>97</v>
       </c>
       <c r="W57" s="3" t="s">
         <v>418</v>
       </c>
       <c r="X57" s="3" t="s">
-        <v>433</v>
+        <v>313</v>
       </c>
       <c r="Y57" s="3"/>
     </row>
     <row r="58" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>434</v>
+        <v>427</v>
       </c>
       <c r="B58" s="1" t="s">
         <v>118</v>
       </c>
       <c r="C58" s="3" t="s">
+        <v>420</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>428</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>420</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>418</v>
+      </c>
+      <c r="G58" s="3" t="s">
+        <v>429</v>
+      </c>
+      <c r="H58" s="3" t="s">
+        <v>428</v>
+      </c>
+      <c r="I58" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="J58" s="3" t="s">
+        <v>418</v>
+      </c>
+      <c r="K58" s="3" t="s">
         <v>423</v>
       </c>
-      <c r="D58" s="3" t="s">
-        <v>386</v>
-      </c>
-      <c r="E58" s="3" t="s">
-        <v>423</v>
-      </c>
-      <c r="F58" s="3" t="s">
-        <v>386</v>
-      </c>
-      <c r="G58" s="3" t="s">
-        <v>435</v>
-      </c>
-      <c r="H58" s="3" t="s">
-        <v>386</v>
-      </c>
-      <c r="I58" s="3" t="s">
-        <v>436</v>
-      </c>
-      <c r="J58" s="3" t="s">
-        <v>386</v>
-      </c>
-      <c r="K58" s="3" t="s">
-        <v>386</v>
-      </c>
       <c r="L58" s="3" t="s">
+        <v>420</v>
+      </c>
+      <c r="M58" s="3" t="s">
+        <v>420</v>
+      </c>
+      <c r="N58" s="3" t="s">
+        <v>428</v>
+      </c>
+      <c r="O58" s="3" t="s">
+        <v>430</v>
+      </c>
+      <c r="P58" s="3" t="s">
+        <v>428</v>
+      </c>
+      <c r="Q58" s="3" t="s">
+        <v>414</v>
+      </c>
+      <c r="R58" s="3" t="s">
         <v>416</v>
       </c>
-      <c r="M58" s="3" t="s">
-        <v>386</v>
-      </c>
-      <c r="N58" s="3" t="s">
-        <v>386</v>
-      </c>
-      <c r="O58" s="3" t="s">
-        <v>286</v>
-      </c>
-      <c r="P58" s="3" t="s">
-        <v>386</v>
-      </c>
-      <c r="Q58" s="3" t="s">
-        <v>420</v>
-      </c>
-      <c r="R58" s="3" t="s">
-        <v>386</v>
-      </c>
       <c r="S58" s="3" t="s">
-        <v>386</v>
+        <v>418</v>
       </c>
       <c r="T58" s="3" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="U58" s="3" t="s">
-        <v>386</v>
+        <v>418</v>
       </c>
       <c r="V58" s="3" t="s">
-        <v>423</v>
+        <v>432</v>
       </c>
       <c r="W58" s="3" t="s">
-        <v>386</v>
+        <v>418</v>
       </c>
       <c r="X58" s="3" t="s">
-        <v>416</v>
+        <v>433</v>
       </c>
       <c r="Y58" s="3"/>
     </row>
     <row r="59" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="B59" s="1" t="s">
         <v>118</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>418</v>
+        <v>423</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>418</v>
+        <v>386</v>
       </c>
       <c r="E59" s="3" t="s">
-        <v>418</v>
+        <v>423</v>
       </c>
       <c r="F59" s="3" t="s">
-        <v>418</v>
+        <v>386</v>
       </c>
       <c r="G59" s="3" t="s">
-        <v>256</v>
+        <v>435</v>
       </c>
       <c r="H59" s="3" t="s">
-        <v>418</v>
+        <v>386</v>
       </c>
       <c r="I59" s="3" t="s">
-        <v>418</v>
+        <v>436</v>
       </c>
       <c r="J59" s="3" t="s">
-        <v>418</v>
+        <v>386</v>
       </c>
       <c r="K59" s="3" t="s">
-        <v>418</v>
+        <v>386</v>
       </c>
       <c r="L59" s="3" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="M59" s="3" t="s">
-        <v>418</v>
+        <v>386</v>
       </c>
       <c r="N59" s="3" t="s">
-        <v>418</v>
+        <v>386</v>
       </c>
       <c r="O59" s="3" t="s">
-        <v>418</v>
+        <v>286</v>
       </c>
       <c r="P59" s="3" t="s">
-        <v>418</v>
+        <v>386</v>
       </c>
       <c r="Q59" s="3" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="R59" s="3" t="s">
-        <v>418</v>
+        <v>386</v>
       </c>
       <c r="S59" s="3" t="s">
-        <v>418</v>
+        <v>386</v>
       </c>
       <c r="T59" s="3" t="s">
-        <v>418</v>
+        <v>437</v>
       </c>
       <c r="U59" s="3" t="s">
-        <v>418</v>
+        <v>386</v>
       </c>
       <c r="V59" s="3" t="s">
-        <v>418</v>
+        <v>423</v>
       </c>
       <c r="W59" s="3" t="s">
-        <v>418</v>
+        <v>386</v>
       </c>
       <c r="X59" s="3" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="Y59" s="3"/>
     </row>
     <row r="60" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B60" s="1" t="s">
         <v>118</v>
@@ -6236,7 +6245,7 @@
         <v>418</v>
       </c>
       <c r="G60" s="3" t="s">
-        <v>440</v>
+        <v>256</v>
       </c>
       <c r="H60" s="3" t="s">
         <v>418</v>
@@ -6293,157 +6302,157 @@
     </row>
     <row r="61" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="B61" s="1" t="s">
         <v>118</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>386</v>
+        <v>418</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>386</v>
+        <v>418</v>
       </c>
       <c r="E61" s="3" t="s">
-        <v>386</v>
+        <v>418</v>
       </c>
       <c r="F61" s="3" t="s">
-        <v>386</v>
+        <v>418</v>
       </c>
       <c r="G61" s="3" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="H61" s="3" t="s">
-        <v>386</v>
+        <v>418</v>
       </c>
       <c r="I61" s="3" t="s">
-        <v>386</v>
+        <v>418</v>
       </c>
       <c r="J61" s="3" t="s">
-        <v>386</v>
+        <v>418</v>
       </c>
       <c r="K61" s="3" t="s">
-        <v>386</v>
+        <v>418</v>
       </c>
       <c r="L61" s="3" t="s">
-        <v>386</v>
+        <v>418</v>
       </c>
       <c r="M61" s="3" t="s">
-        <v>386</v>
+        <v>418</v>
       </c>
       <c r="N61" s="3" t="s">
-        <v>386</v>
+        <v>418</v>
       </c>
       <c r="O61" s="3" t="s">
-        <v>386</v>
+        <v>418</v>
       </c>
       <c r="P61" s="3" t="s">
-        <v>386</v>
+        <v>418</v>
       </c>
       <c r="Q61" s="3" t="s">
-        <v>386</v>
+        <v>418</v>
       </c>
       <c r="R61" s="3" t="s">
-        <v>386</v>
+        <v>418</v>
       </c>
       <c r="S61" s="3" t="s">
-        <v>386</v>
+        <v>418</v>
       </c>
       <c r="T61" s="3" t="s">
-        <v>386</v>
+        <v>418</v>
       </c>
       <c r="U61" s="3" t="s">
-        <v>386</v>
+        <v>418</v>
       </c>
       <c r="V61" s="3" t="s">
-        <v>386</v>
+        <v>418</v>
       </c>
       <c r="W61" s="3" t="s">
-        <v>386</v>
+        <v>418</v>
       </c>
       <c r="X61" s="3" t="s">
-        <v>386</v>
+        <v>418</v>
       </c>
       <c r="Y61" s="3"/>
     </row>
     <row r="62" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="B62" s="1" t="s">
         <v>118</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>418</v>
+        <v>386</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>418</v>
+        <v>386</v>
       </c>
       <c r="E62" s="3" t="s">
-        <v>418</v>
+        <v>386</v>
       </c>
       <c r="F62" s="3" t="s">
-        <v>418</v>
+        <v>386</v>
       </c>
       <c r="G62" s="3" t="s">
-        <v>147</v>
+        <v>442</v>
       </c>
       <c r="H62" s="3" t="s">
-        <v>418</v>
+        <v>386</v>
       </c>
       <c r="I62" s="3" t="s">
-        <v>418</v>
+        <v>386</v>
       </c>
       <c r="J62" s="3" t="s">
-        <v>418</v>
+        <v>386</v>
       </c>
       <c r="K62" s="3" t="s">
-        <v>418</v>
+        <v>386</v>
       </c>
       <c r="L62" s="3" t="s">
-        <v>418</v>
+        <v>386</v>
       </c>
       <c r="M62" s="3" t="s">
-        <v>418</v>
+        <v>386</v>
       </c>
       <c r="N62" s="3" t="s">
-        <v>418</v>
+        <v>386</v>
       </c>
       <c r="O62" s="3" t="s">
-        <v>418</v>
+        <v>386</v>
       </c>
       <c r="P62" s="3" t="s">
-        <v>418</v>
+        <v>386</v>
       </c>
       <c r="Q62" s="3" t="s">
-        <v>418</v>
+        <v>386</v>
       </c>
       <c r="R62" s="3" t="s">
-        <v>418</v>
+        <v>386</v>
       </c>
       <c r="S62" s="3" t="s">
-        <v>418</v>
+        <v>386</v>
       </c>
       <c r="T62" s="3" t="s">
-        <v>418</v>
+        <v>386</v>
       </c>
       <c r="U62" s="3" t="s">
-        <v>418</v>
+        <v>386</v>
       </c>
       <c r="V62" s="3" t="s">
-        <v>418</v>
+        <v>386</v>
       </c>
       <c r="W62" s="3" t="s">
-        <v>418</v>
+        <v>386</v>
       </c>
       <c r="X62" s="3" t="s">
-        <v>418</v>
+        <v>386</v>
       </c>
       <c r="Y62" s="3"/>
     </row>
     <row r="63" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B63" s="1" t="s">
         <v>118</v>
@@ -6461,7 +6470,7 @@
         <v>418</v>
       </c>
       <c r="G63" s="3" t="s">
-        <v>445</v>
+        <v>147</v>
       </c>
       <c r="H63" s="3" t="s">
         <v>418</v>
@@ -6518,157 +6527,157 @@
     </row>
     <row r="64" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="B64" s="1" t="s">
         <v>118</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>386</v>
+        <v>418</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>386</v>
+        <v>418</v>
       </c>
       <c r="E64" s="3" t="s">
-        <v>386</v>
+        <v>418</v>
       </c>
       <c r="F64" s="3" t="s">
-        <v>386</v>
+        <v>418</v>
       </c>
       <c r="G64" s="3" t="s">
-        <v>265</v>
+        <v>445</v>
       </c>
       <c r="H64" s="3" t="s">
-        <v>386</v>
+        <v>418</v>
       </c>
       <c r="I64" s="3" t="s">
-        <v>386</v>
+        <v>418</v>
       </c>
       <c r="J64" s="3" t="s">
-        <v>386</v>
+        <v>418</v>
       </c>
       <c r="K64" s="3" t="s">
-        <v>386</v>
+        <v>418</v>
       </c>
       <c r="L64" s="3" t="s">
-        <v>386</v>
+        <v>418</v>
       </c>
       <c r="M64" s="3" t="s">
-        <v>386</v>
+        <v>418</v>
       </c>
       <c r="N64" s="3" t="s">
-        <v>386</v>
+        <v>418</v>
       </c>
       <c r="O64" s="3" t="s">
-        <v>386</v>
+        <v>418</v>
       </c>
       <c r="P64" s="3" t="s">
-        <v>386</v>
+        <v>418</v>
       </c>
       <c r="Q64" s="3" t="s">
-        <v>386</v>
+        <v>418</v>
       </c>
       <c r="R64" s="3" t="s">
-        <v>386</v>
+        <v>418</v>
       </c>
       <c r="S64" s="3" t="s">
-        <v>386</v>
+        <v>418</v>
       </c>
       <c r="T64" s="3" t="s">
-        <v>386</v>
+        <v>418</v>
       </c>
       <c r="U64" s="3" t="s">
-        <v>386</v>
+        <v>418</v>
       </c>
       <c r="V64" s="3" t="s">
-        <v>386</v>
+        <v>418</v>
       </c>
       <c r="W64" s="3" t="s">
-        <v>386</v>
+        <v>418</v>
       </c>
       <c r="X64" s="3" t="s">
-        <v>386</v>
+        <v>418</v>
       </c>
       <c r="Y64" s="3"/>
     </row>
     <row r="65" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B65" s="1" t="s">
         <v>118</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>418</v>
+        <v>386</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>418</v>
+        <v>386</v>
       </c>
       <c r="E65" s="3" t="s">
-        <v>418</v>
+        <v>386</v>
       </c>
       <c r="F65" s="3" t="s">
-        <v>418</v>
+        <v>386</v>
       </c>
       <c r="G65" s="3" t="s">
-        <v>190</v>
+        <v>265</v>
       </c>
       <c r="H65" s="3" t="s">
-        <v>418</v>
+        <v>386</v>
       </c>
       <c r="I65" s="3" t="s">
-        <v>418</v>
+        <v>386</v>
       </c>
       <c r="J65" s="3" t="s">
-        <v>418</v>
+        <v>386</v>
       </c>
       <c r="K65" s="3" t="s">
-        <v>418</v>
+        <v>386</v>
       </c>
       <c r="L65" s="3" t="s">
-        <v>418</v>
+        <v>386</v>
       </c>
       <c r="M65" s="3" t="s">
-        <v>418</v>
+        <v>386</v>
       </c>
       <c r="N65" s="3" t="s">
-        <v>418</v>
+        <v>386</v>
       </c>
       <c r="O65" s="3" t="s">
-        <v>418</v>
+        <v>386</v>
       </c>
       <c r="P65" s="3" t="s">
-        <v>418</v>
+        <v>386</v>
       </c>
       <c r="Q65" s="3" t="s">
-        <v>418</v>
+        <v>386</v>
       </c>
       <c r="R65" s="3" t="s">
-        <v>418</v>
+        <v>386</v>
       </c>
       <c r="S65" s="3" t="s">
-        <v>418</v>
+        <v>386</v>
       </c>
       <c r="T65" s="3" t="s">
-        <v>418</v>
+        <v>386</v>
       </c>
       <c r="U65" s="3" t="s">
-        <v>418</v>
+        <v>386</v>
       </c>
       <c r="V65" s="3" t="s">
-        <v>418</v>
+        <v>386</v>
       </c>
       <c r="W65" s="3" t="s">
-        <v>418</v>
+        <v>386</v>
       </c>
       <c r="X65" s="3" t="s">
-        <v>418</v>
+        <v>386</v>
       </c>
       <c r="Y65" s="3"/>
     </row>
     <row r="66" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B66" s="1" t="s">
         <v>118</v>
@@ -6686,7 +6695,7 @@
         <v>418</v>
       </c>
       <c r="G66" s="3" t="s">
-        <v>449</v>
+        <v>190</v>
       </c>
       <c r="H66" s="3" t="s">
         <v>418</v>
@@ -6743,387 +6752,387 @@
     </row>
     <row r="67" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="B67" s="1" t="s">
         <v>118</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>451</v>
+        <v>418</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>361</v>
+        <v>418</v>
       </c>
       <c r="E67" s="3" t="s">
-        <v>157</v>
+        <v>418</v>
       </c>
       <c r="F67" s="3" t="s">
-        <v>315</v>
+        <v>418</v>
       </c>
       <c r="G67" s="3" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="H67" s="3" t="s">
-        <v>105</v>
+        <v>418</v>
       </c>
       <c r="I67" s="3" t="s">
-        <v>399</v>
+        <v>418</v>
       </c>
       <c r="J67" s="3" t="s">
-        <v>453</v>
+        <v>418</v>
       </c>
       <c r="K67" s="3" t="s">
-        <v>256</v>
+        <v>418</v>
       </c>
       <c r="L67" s="3" t="s">
-        <v>390</v>
+        <v>418</v>
       </c>
       <c r="M67" s="3" t="s">
-        <v>150</v>
+        <v>418</v>
       </c>
       <c r="N67" s="3" t="s">
-        <v>94</v>
+        <v>418</v>
       </c>
       <c r="O67" s="3" t="s">
-        <v>454</v>
+        <v>418</v>
       </c>
       <c r="P67" s="3" t="s">
-        <v>74</v>
+        <v>418</v>
       </c>
       <c r="Q67" s="3" t="s">
-        <v>445</v>
+        <v>418</v>
       </c>
       <c r="R67" s="3" t="s">
-        <v>392</v>
+        <v>418</v>
       </c>
       <c r="S67" s="3" t="s">
-        <v>98</v>
+        <v>418</v>
       </c>
       <c r="T67" s="3" t="s">
-        <v>454</v>
+        <v>418</v>
       </c>
       <c r="U67" s="3" t="s">
-        <v>393</v>
+        <v>418</v>
       </c>
       <c r="V67" s="3" t="s">
-        <v>455</v>
+        <v>418</v>
       </c>
       <c r="W67" s="3" t="s">
-        <v>456</v>
+        <v>418</v>
       </c>
       <c r="X67" s="3" t="s">
-        <v>457</v>
+        <v>418</v>
       </c>
       <c r="Y67" s="3"/>
     </row>
     <row r="68" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>458</v>
+        <v>450</v>
       </c>
       <c r="B68" s="1" t="s">
         <v>118</v>
       </c>
       <c r="C68" s="3" t="s">
+        <v>451</v>
+      </c>
+      <c r="D68" s="3" t="s">
+        <v>361</v>
+      </c>
+      <c r="E68" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="F68" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="G68" s="3" t="s">
+        <v>452</v>
+      </c>
+      <c r="H68" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="I68" s="3" t="s">
+        <v>399</v>
+      </c>
+      <c r="J68" s="3" t="s">
+        <v>453</v>
+      </c>
+      <c r="K68" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="L68" s="3" t="s">
+        <v>390</v>
+      </c>
+      <c r="M68" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="N68" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="O68" s="3" t="s">
+        <v>454</v>
+      </c>
+      <c r="P68" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q68" s="3" t="s">
+        <v>445</v>
+      </c>
+      <c r="R68" s="3" t="s">
+        <v>392</v>
+      </c>
+      <c r="S68" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="T68" s="3" t="s">
+        <v>454</v>
+      </c>
+      <c r="U68" s="3" t="s">
+        <v>393</v>
+      </c>
+      <c r="V68" s="3" t="s">
+        <v>455</v>
+      </c>
+      <c r="W68" s="3" t="s">
+        <v>456</v>
+      </c>
+      <c r="X68" s="3" t="s">
+        <v>457</v>
+      </c>
+      <c r="Y68" s="3"/>
+    </row>
+    <row r="69" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A69" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C69" s="3" t="s">
         <v>459</v>
       </c>
-      <c r="D68" s="3" t="s">
+      <c r="D69" s="3" t="s">
         <v>460</v>
       </c>
-      <c r="E68" s="3" t="s">
+      <c r="E69" s="3" t="s">
         <v>461</v>
       </c>
-      <c r="F68" s="3" t="s">
+      <c r="F69" s="3" t="s">
         <v>462</v>
       </c>
-      <c r="G68" s="3" t="s">
+      <c r="G69" s="3" t="s">
         <v>463</v>
       </c>
-      <c r="H68" s="3" t="s">
+      <c r="H69" s="3" t="s">
         <v>464</v>
       </c>
-      <c r="I68" s="3" t="s">
+      <c r="I69" s="3" t="s">
         <v>465</v>
       </c>
-      <c r="J68" s="3" t="s">
+      <c r="J69" s="3" t="s">
         <v>466</v>
       </c>
-      <c r="K68" s="3" t="s">
+      <c r="K69" s="3" t="s">
         <v>467</v>
       </c>
-      <c r="L68" s="3" t="s">
+      <c r="L69" s="3" t="s">
         <v>468</v>
       </c>
-      <c r="M68" s="3" t="s">
+      <c r="M69" s="3" t="s">
         <v>469</v>
       </c>
-      <c r="N68" s="3" t="s">
+      <c r="N69" s="3" t="s">
         <v>470</v>
       </c>
-      <c r="O68" s="3" t="s">
+      <c r="O69" s="3" t="s">
         <v>471</v>
       </c>
-      <c r="P68" s="3" t="s">
+      <c r="P69" s="3" t="s">
         <v>472</v>
       </c>
-      <c r="Q68" s="3" t="s">
+      <c r="Q69" s="3" t="s">
         <v>473</v>
       </c>
-      <c r="R68" s="3" t="s">
+      <c r="R69" s="3" t="s">
         <v>474</v>
       </c>
-      <c r="S68" s="3" t="s">
+      <c r="S69" s="3" t="s">
         <v>475</v>
       </c>
-      <c r="T68" s="3" t="s">
+      <c r="T69" s="3" t="s">
         <v>476</v>
       </c>
-      <c r="U68" s="3" t="s">
+      <c r="U69" s="3" t="s">
         <v>477</v>
       </c>
-      <c r="V68" s="3" t="s">
+      <c r="V69" s="3" t="s">
         <v>478</v>
       </c>
-      <c r="W68" s="3" t="s">
+      <c r="W69" s="3" t="s">
         <v>479</v>
       </c>
-      <c r="X68" s="3" t="s">
+      <c r="X69" s="3" t="s">
         <v>480</v>
       </c>
-      <c r="Y68" s="3"/>
-    </row>
-    <row r="69" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A69" s="2" t="s">
+      <c r="Y69" s="3"/>
+    </row>
+    <row r="70" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A70" s="2" t="s">
         <v>481</v>
       </c>
-    </row>
-    <row r="70" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A70" s="1" t="s">
-        <v>482</v>
-      </c>
-      <c r="B70" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C70" s="3" t="s">
-        <v>449</v>
-      </c>
-      <c r="D70" s="3" t="s">
-        <v>483</v>
-      </c>
-      <c r="E70" s="3" t="s">
-        <v>484</v>
-      </c>
-      <c r="F70" s="3" t="s">
-        <v>483</v>
-      </c>
-      <c r="G70" s="3" t="s">
-        <v>485</v>
-      </c>
-      <c r="H70" s="3" t="s">
-        <v>483</v>
-      </c>
-      <c r="I70" s="3" t="s">
-        <v>486</v>
-      </c>
-      <c r="J70" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="K70" s="3" t="s">
-        <v>487</v>
-      </c>
-      <c r="L70" s="3" t="s">
-        <v>488</v>
-      </c>
-      <c r="M70" s="3" t="s">
-        <v>246</v>
-      </c>
-      <c r="N70" s="3" t="s">
-        <v>483</v>
-      </c>
-      <c r="O70" s="3" t="s">
-        <v>489</v>
-      </c>
-      <c r="P70" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="Q70" s="3" t="s">
-        <v>488</v>
-      </c>
-      <c r="R70" s="3" t="s">
-        <v>454</v>
-      </c>
-      <c r="S70" s="3" t="s">
-        <v>483</v>
-      </c>
-      <c r="T70" s="3" t="s">
-        <v>490</v>
-      </c>
-      <c r="U70" s="3" t="s">
-        <v>483</v>
-      </c>
-      <c r="V70" s="3" t="s">
-        <v>251</v>
-      </c>
-      <c r="W70" s="3" t="s">
-        <v>483</v>
-      </c>
-      <c r="X70" s="3" t="s">
-        <v>484</v>
-      </c>
-      <c r="Y70" s="3"/>
     </row>
     <row r="71" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>491</v>
+        <v>482</v>
       </c>
       <c r="B71" s="1" t="s">
         <v>118</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>492</v>
+        <v>449</v>
       </c>
       <c r="D71" s="3" t="s">
         <v>483</v>
       </c>
       <c r="E71" s="3" t="s">
-        <v>244</v>
+        <v>484</v>
       </c>
       <c r="F71" s="3" t="s">
         <v>483</v>
       </c>
       <c r="G71" s="3" t="s">
-        <v>493</v>
+        <v>485</v>
       </c>
       <c r="H71" s="3" t="s">
         <v>483</v>
       </c>
       <c r="I71" s="3" t="s">
-        <v>399</v>
+        <v>486</v>
       </c>
       <c r="J71" s="3" t="s">
-        <v>483</v>
+        <v>171</v>
       </c>
       <c r="K71" s="3" t="s">
-        <v>494</v>
+        <v>487</v>
       </c>
       <c r="L71" s="3" t="s">
-        <v>179</v>
+        <v>488</v>
       </c>
       <c r="M71" s="3" t="s">
-        <v>495</v>
+        <v>246</v>
       </c>
       <c r="N71" s="3" t="s">
         <v>483</v>
       </c>
       <c r="O71" s="3" t="s">
-        <v>399</v>
+        <v>489</v>
       </c>
       <c r="P71" s="3" t="s">
-        <v>483</v>
+        <v>201</v>
       </c>
       <c r="Q71" s="3" t="s">
-        <v>496</v>
+        <v>488</v>
       </c>
       <c r="R71" s="3" t="s">
-        <v>497</v>
+        <v>454</v>
       </c>
       <c r="S71" s="3" t="s">
         <v>483</v>
       </c>
       <c r="T71" s="3" t="s">
-        <v>498</v>
+        <v>490</v>
       </c>
       <c r="U71" s="3" t="s">
         <v>483</v>
       </c>
       <c r="V71" s="3" t="s">
-        <v>499</v>
+        <v>251</v>
       </c>
       <c r="W71" s="3" t="s">
         <v>483</v>
       </c>
       <c r="X71" s="3" t="s">
-        <v>180</v>
+        <v>484</v>
       </c>
       <c r="Y71" s="3"/>
     </row>
     <row r="72" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>500</v>
+        <v>491</v>
       </c>
       <c r="B72" s="1" t="s">
         <v>118</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
       <c r="D72" s="3" t="s">
         <v>483</v>
       </c>
       <c r="E72" s="3" t="s">
-        <v>483</v>
+        <v>244</v>
       </c>
       <c r="F72" s="3" t="s">
         <v>483</v>
       </c>
       <c r="G72" s="3" t="s">
-        <v>483</v>
+        <v>493</v>
       </c>
       <c r="H72" s="3" t="s">
         <v>483</v>
       </c>
       <c r="I72" s="3" t="s">
-        <v>483</v>
+        <v>399</v>
       </c>
       <c r="J72" s="3" t="s">
         <v>483</v>
       </c>
       <c r="K72" s="3" t="s">
-        <v>483</v>
+        <v>494</v>
       </c>
       <c r="L72" s="3" t="s">
-        <v>483</v>
+        <v>179</v>
       </c>
       <c r="M72" s="3" t="s">
-        <v>483</v>
+        <v>495</v>
       </c>
       <c r="N72" s="3" t="s">
         <v>483</v>
       </c>
       <c r="O72" s="3" t="s">
-        <v>483</v>
+        <v>399</v>
       </c>
       <c r="P72" s="3" t="s">
         <v>483</v>
       </c>
       <c r="Q72" s="3" t="s">
-        <v>483</v>
+        <v>496</v>
       </c>
       <c r="R72" s="3" t="s">
-        <v>483</v>
+        <v>497</v>
       </c>
       <c r="S72" s="3" t="s">
         <v>483</v>
       </c>
       <c r="T72" s="3" t="s">
-        <v>483</v>
+        <v>498</v>
       </c>
       <c r="U72" s="3" t="s">
         <v>483</v>
       </c>
       <c r="V72" s="3" t="s">
-        <v>483</v>
+        <v>499</v>
       </c>
       <c r="W72" s="3" t="s">
         <v>483</v>
       </c>
       <c r="X72" s="3" t="s">
-        <v>483</v>
+        <v>180</v>
       </c>
       <c r="Y72" s="3"/>
     </row>
     <row r="73" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B73" s="1" t="s">
         <v>118</v>
@@ -7198,544 +7207,619 @@
     </row>
     <row r="74" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B74" s="1" t="s">
         <v>118</v>
       </c>
       <c r="C74" s="3" t="s">
+        <v>483</v>
+      </c>
+      <c r="D74" s="3" t="s">
+        <v>483</v>
+      </c>
+      <c r="E74" s="3" t="s">
+        <v>483</v>
+      </c>
+      <c r="F74" s="3" t="s">
+        <v>483</v>
+      </c>
+      <c r="G74" s="3" t="s">
+        <v>483</v>
+      </c>
+      <c r="H74" s="3" t="s">
+        <v>483</v>
+      </c>
+      <c r="I74" s="3" t="s">
+        <v>483</v>
+      </c>
+      <c r="J74" s="3" t="s">
+        <v>483</v>
+      </c>
+      <c r="K74" s="3" t="s">
+        <v>483</v>
+      </c>
+      <c r="L74" s="3" t="s">
+        <v>483</v>
+      </c>
+      <c r="M74" s="3" t="s">
+        <v>483</v>
+      </c>
+      <c r="N74" s="3" t="s">
+        <v>483</v>
+      </c>
+      <c r="O74" s="3" t="s">
+        <v>483</v>
+      </c>
+      <c r="P74" s="3" t="s">
+        <v>483</v>
+      </c>
+      <c r="Q74" s="3" t="s">
+        <v>483</v>
+      </c>
+      <c r="R74" s="3" t="s">
+        <v>483</v>
+      </c>
+      <c r="S74" s="3" t="s">
+        <v>483</v>
+      </c>
+      <c r="T74" s="3" t="s">
+        <v>483</v>
+      </c>
+      <c r="U74" s="3" t="s">
+        <v>483</v>
+      </c>
+      <c r="V74" s="3" t="s">
+        <v>483</v>
+      </c>
+      <c r="W74" s="3" t="s">
+        <v>483</v>
+      </c>
+      <c r="X74" s="3" t="s">
+        <v>483</v>
+      </c>
+      <c r="Y74" s="3"/>
+    </row>
+    <row r="75" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A75" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C75" s="3" t="s">
         <v>217</v>
       </c>
-      <c r="D74" s="3" t="s">
+      <c r="D75" s="3" t="s">
         <v>503</v>
       </c>
-      <c r="E74" s="3" t="s">
+      <c r="E75" s="3" t="s">
         <v>257</v>
       </c>
-      <c r="F74" s="3" t="s">
+      <c r="F75" s="3" t="s">
         <v>503</v>
       </c>
-      <c r="G74" s="3" t="s">
+      <c r="G75" s="3" t="s">
         <v>504</v>
       </c>
-      <c r="H74" s="3" t="s">
+      <c r="H75" s="3" t="s">
         <v>503</v>
       </c>
-      <c r="I74" s="3" t="s">
+      <c r="I75" s="3" t="s">
         <v>505</v>
       </c>
-      <c r="J74" s="3" t="s">
+      <c r="J75" s="3" t="s">
         <v>503</v>
       </c>
-      <c r="K74" s="3" t="s">
+      <c r="K75" s="3" t="s">
         <v>387</v>
       </c>
-      <c r="L74" s="3" t="s">
+      <c r="L75" s="3" t="s">
         <v>506</v>
       </c>
-      <c r="M74" s="3" t="s">
+      <c r="M75" s="3" t="s">
         <v>429</v>
       </c>
-      <c r="N74" s="3" t="s">
+      <c r="N75" s="3" t="s">
         <v>503</v>
       </c>
-      <c r="O74" s="3" t="s">
+      <c r="O75" s="3" t="s">
         <v>507</v>
       </c>
-      <c r="P74" s="3" t="s">
+      <c r="P75" s="3" t="s">
         <v>503</v>
       </c>
-      <c r="Q74" s="3" t="s">
+      <c r="Q75" s="3" t="s">
         <v>487</v>
       </c>
-      <c r="R74" s="3" t="s">
+      <c r="R75" s="3" t="s">
         <v>236</v>
       </c>
-      <c r="S74" s="3" t="s">
+      <c r="S75" s="3" t="s">
         <v>503</v>
       </c>
-      <c r="T74" s="3" t="s">
+      <c r="T75" s="3" t="s">
         <v>508</v>
       </c>
-      <c r="U74" s="3" t="s">
+      <c r="U75" s="3" t="s">
         <v>503</v>
       </c>
-      <c r="V74" s="3" t="s">
+      <c r="V75" s="3" t="s">
         <v>509</v>
       </c>
-      <c r="W74" s="3" t="s">
+      <c r="W75" s="3" t="s">
         <v>503</v>
       </c>
-      <c r="X74" s="3" t="s">
+      <c r="X75" s="3" t="s">
         <v>509</v>
       </c>
-      <c r="Y74" s="3"/>
-    </row>
-    <row r="75" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A75" s="2" t="s">
+      <c r="Y75" s="3"/>
+    </row>
+    <row r="76" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A76" s="2" t="s">
         <v>510</v>
       </c>
-    </row>
-    <row r="76" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A76" s="1" t="s">
-        <v>511</v>
-      </c>
-      <c r="B76" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C76" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="D76" s="3" t="s">
-        <v>405</v>
-      </c>
-      <c r="E76" s="3" t="s">
-        <v>401</v>
-      </c>
-      <c r="F76" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="G76" s="3" t="s">
-        <v>512</v>
-      </c>
-      <c r="H76" s="3" t="s">
-        <v>513</v>
-      </c>
-      <c r="I76" s="3" t="s">
-        <v>512</v>
-      </c>
-      <c r="J76" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="K76" s="3" t="s">
-        <v>512</v>
-      </c>
-      <c r="L76" s="3" t="s">
-        <v>514</v>
-      </c>
-      <c r="M76" s="3" t="s">
-        <v>515</v>
-      </c>
-      <c r="N76" s="3" t="s">
-        <v>515</v>
-      </c>
-      <c r="O76" s="3" t="s">
-        <v>512</v>
-      </c>
-      <c r="P76" s="3" t="s">
-        <v>516</v>
-      </c>
-      <c r="Q76" s="3" t="s">
-        <v>512</v>
-      </c>
-      <c r="R76" s="3" t="s">
-        <v>513</v>
-      </c>
-      <c r="S76" s="3" t="s">
-        <v>517</v>
-      </c>
-      <c r="T76" s="3" t="s">
-        <v>512</v>
-      </c>
-      <c r="U76" s="3" t="s">
-        <v>518</v>
-      </c>
-      <c r="V76" s="3" t="s">
-        <v>519</v>
-      </c>
-      <c r="W76" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="X76" s="3" t="s">
-        <v>512</v>
-      </c>
-      <c r="Y76" s="3"/>
     </row>
     <row r="77" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
-        <v>520</v>
+        <v>511</v>
       </c>
       <c r="B77" s="1" t="s">
         <v>61</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>330</v>
+        <v>177</v>
       </c>
       <c r="D77" s="3" t="s">
-        <v>330</v>
+        <v>405</v>
       </c>
       <c r="E77" s="3" t="s">
-        <v>330</v>
+        <v>401</v>
       </c>
       <c r="F77" s="3" t="s">
-        <v>330</v>
+        <v>170</v>
       </c>
       <c r="G77" s="3" t="s">
-        <v>330</v>
+        <v>512</v>
       </c>
       <c r="H77" s="3" t="s">
-        <v>330</v>
+        <v>513</v>
       </c>
       <c r="I77" s="3" t="s">
-        <v>330</v>
+        <v>512</v>
       </c>
       <c r="J77" s="3" t="s">
-        <v>330</v>
+        <v>68</v>
       </c>
       <c r="K77" s="3" t="s">
-        <v>330</v>
+        <v>512</v>
       </c>
       <c r="L77" s="3" t="s">
-        <v>330</v>
+        <v>514</v>
       </c>
       <c r="M77" s="3" t="s">
-        <v>330</v>
+        <v>515</v>
       </c>
       <c r="N77" s="3" t="s">
-        <v>330</v>
+        <v>515</v>
       </c>
       <c r="O77" s="3" t="s">
-        <v>330</v>
+        <v>512</v>
       </c>
       <c r="P77" s="3" t="s">
-        <v>330</v>
+        <v>516</v>
       </c>
       <c r="Q77" s="3" t="s">
-        <v>330</v>
+        <v>512</v>
       </c>
       <c r="R77" s="3" t="s">
-        <v>330</v>
+        <v>513</v>
       </c>
       <c r="S77" s="3" t="s">
-        <v>330</v>
+        <v>517</v>
       </c>
       <c r="T77" s="3" t="s">
-        <v>330</v>
+        <v>512</v>
       </c>
       <c r="U77" s="3" t="s">
-        <v>330</v>
+        <v>518</v>
       </c>
       <c r="V77" s="3" t="s">
-        <v>330</v>
+        <v>519</v>
       </c>
       <c r="W77" s="3" t="s">
-        <v>330</v>
+        <v>69</v>
       </c>
       <c r="X77" s="3" t="s">
-        <v>330</v>
+        <v>512</v>
       </c>
       <c r="Y77" s="3"/>
     </row>
     <row r="78" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>637</v>
+        <v>520</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>521</v>
+        <v>61</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>271</v>
+        <v>330</v>
       </c>
       <c r="D78" s="3" t="s">
-        <v>271</v>
+        <v>330</v>
       </c>
       <c r="E78" s="3" t="s">
-        <v>271</v>
+        <v>330</v>
       </c>
       <c r="F78" s="3" t="s">
-        <v>271</v>
+        <v>330</v>
       </c>
       <c r="G78" s="3" t="s">
-        <v>271</v>
+        <v>330</v>
       </c>
       <c r="H78" s="3" t="s">
-        <v>271</v>
+        <v>330</v>
       </c>
       <c r="I78" s="3" t="s">
-        <v>271</v>
+        <v>330</v>
       </c>
       <c r="J78" s="3" t="s">
-        <v>271</v>
+        <v>330</v>
       </c>
       <c r="K78" s="3" t="s">
-        <v>271</v>
+        <v>330</v>
       </c>
       <c r="L78" s="3" t="s">
-        <v>271</v>
+        <v>330</v>
       </c>
       <c r="M78" s="3" t="s">
-        <v>271</v>
+        <v>330</v>
       </c>
       <c r="N78" s="3" t="s">
-        <v>271</v>
+        <v>330</v>
       </c>
       <c r="O78" s="3" t="s">
-        <v>271</v>
+        <v>330</v>
       </c>
       <c r="P78" s="3" t="s">
-        <v>271</v>
+        <v>330</v>
       </c>
       <c r="Q78" s="3" t="s">
-        <v>271</v>
+        <v>330</v>
       </c>
       <c r="R78" s="3" t="s">
-        <v>271</v>
+        <v>330</v>
       </c>
       <c r="S78" s="3" t="s">
-        <v>271</v>
+        <v>330</v>
       </c>
       <c r="T78" s="3" t="s">
-        <v>271</v>
+        <v>330</v>
       </c>
       <c r="U78" s="3" t="s">
-        <v>271</v>
+        <v>330</v>
       </c>
       <c r="V78" s="3" t="s">
-        <v>271</v>
+        <v>330</v>
       </c>
       <c r="W78" s="3" t="s">
-        <v>271</v>
+        <v>330</v>
       </c>
       <c r="X78" s="3" t="s">
-        <v>271</v>
+        <v>330</v>
       </c>
       <c r="Y78" s="3"/>
     </row>
     <row r="79" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
-        <v>522</v>
+        <v>637</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>61</v>
+        <v>521</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>523</v>
+        <v>271</v>
       </c>
       <c r="D79" s="3" t="s">
-        <v>523</v>
+        <v>271</v>
       </c>
       <c r="E79" s="3" t="s">
-        <v>523</v>
+        <v>271</v>
       </c>
       <c r="F79" s="3" t="s">
-        <v>523</v>
+        <v>271</v>
       </c>
       <c r="G79" s="3" t="s">
-        <v>523</v>
+        <v>271</v>
       </c>
       <c r="H79" s="3" t="s">
-        <v>523</v>
+        <v>271</v>
       </c>
       <c r="I79" s="3" t="s">
-        <v>523</v>
+        <v>271</v>
       </c>
       <c r="J79" s="3" t="s">
-        <v>523</v>
+        <v>271</v>
       </c>
       <c r="K79" s="3" t="s">
-        <v>523</v>
+        <v>271</v>
       </c>
       <c r="L79" s="3" t="s">
-        <v>523</v>
+        <v>271</v>
       </c>
       <c r="M79" s="3" t="s">
-        <v>523</v>
+        <v>271</v>
       </c>
       <c r="N79" s="3" t="s">
-        <v>523</v>
+        <v>271</v>
       </c>
       <c r="O79" s="3" t="s">
-        <v>523</v>
+        <v>271</v>
       </c>
       <c r="P79" s="3" t="s">
-        <v>523</v>
+        <v>271</v>
       </c>
       <c r="Q79" s="3" t="s">
-        <v>523</v>
+        <v>271</v>
       </c>
       <c r="R79" s="3" t="s">
-        <v>523</v>
+        <v>271</v>
       </c>
       <c r="S79" s="3" t="s">
-        <v>523</v>
+        <v>271</v>
       </c>
       <c r="T79" s="3" t="s">
-        <v>523</v>
+        <v>271</v>
       </c>
       <c r="U79" s="3" t="s">
-        <v>523</v>
+        <v>271</v>
       </c>
       <c r="V79" s="3" t="s">
-        <v>523</v>
+        <v>271</v>
       </c>
       <c r="W79" s="3" t="s">
-        <v>523</v>
+        <v>271</v>
       </c>
       <c r="X79" s="3" t="s">
-        <v>523</v>
+        <v>271</v>
       </c>
       <c r="Y79" s="3"/>
     </row>
     <row r="80" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
-        <v>638</v>
+        <v>522</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>521</v>
+        <v>61</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>379</v>
+        <v>523</v>
       </c>
       <c r="D80" s="3" t="s">
-        <v>379</v>
+        <v>523</v>
       </c>
       <c r="E80" s="3" t="s">
-        <v>379</v>
+        <v>523</v>
       </c>
       <c r="F80" s="3" t="s">
-        <v>379</v>
+        <v>523</v>
       </c>
       <c r="G80" s="3" t="s">
-        <v>379</v>
+        <v>523</v>
       </c>
       <c r="H80" s="3" t="s">
-        <v>379</v>
+        <v>523</v>
       </c>
       <c r="I80" s="3" t="s">
-        <v>379</v>
+        <v>523</v>
       </c>
       <c r="J80" s="3" t="s">
-        <v>379</v>
+        <v>523</v>
       </c>
       <c r="K80" s="3" t="s">
-        <v>379</v>
+        <v>523</v>
       </c>
       <c r="L80" s="3" t="s">
-        <v>379</v>
+        <v>523</v>
       </c>
       <c r="M80" s="3" t="s">
-        <v>379</v>
+        <v>523</v>
       </c>
       <c r="N80" s="3" t="s">
-        <v>379</v>
+        <v>523</v>
       </c>
       <c r="O80" s="3" t="s">
-        <v>379</v>
+        <v>523</v>
       </c>
       <c r="P80" s="3" t="s">
-        <v>379</v>
+        <v>523</v>
       </c>
       <c r="Q80" s="3" t="s">
-        <v>379</v>
+        <v>523</v>
       </c>
       <c r="R80" s="3" t="s">
-        <v>379</v>
+        <v>523</v>
       </c>
       <c r="S80" s="3" t="s">
-        <v>379</v>
+        <v>523</v>
       </c>
       <c r="T80" s="3" t="s">
-        <v>379</v>
+        <v>523</v>
       </c>
       <c r="U80" s="3" t="s">
-        <v>379</v>
+        <v>523</v>
       </c>
       <c r="V80" s="3" t="s">
-        <v>379</v>
+        <v>523</v>
       </c>
       <c r="W80" s="3" t="s">
-        <v>379</v>
+        <v>523</v>
       </c>
       <c r="X80" s="3" t="s">
-        <v>379</v>
+        <v>523</v>
       </c>
       <c r="Y80" s="3"/>
     </row>
     <row r="81" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
+        <v>638</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="C81" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="D81" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="E81" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="F81" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="G81" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="H81" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="I81" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="J81" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="K81" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="L81" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="M81" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="N81" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="O81" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="P81" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="Q81" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="R81" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="S81" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="T81" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="U81" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="V81" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="W81" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="X81" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="Y81" s="3"/>
+    </row>
+    <row r="82" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A82" s="1" t="s">
         <v>524</v>
       </c>
-      <c r="B81" s="1" t="s">
+      <c r="B82" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="C81" s="3" t="s">
+      <c r="C82" s="3" t="s">
         <v>350</v>
       </c>
-      <c r="D81" s="3" t="s">
+      <c r="D82" s="3" t="s">
         <v>525</v>
       </c>
-      <c r="E81" s="3" t="s">
+      <c r="E82" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="F81" s="3" t="s">
+      <c r="F82" s="3" t="s">
         <v>525</v>
       </c>
-      <c r="G81" s="3" t="s">
+      <c r="G82" s="3" t="s">
         <v>526</v>
       </c>
-      <c r="H81" s="3" t="s">
+      <c r="H82" s="3" t="s">
         <v>525</v>
       </c>
-      <c r="I81" s="3" t="s">
+      <c r="I82" s="3" t="s">
         <v>517</v>
       </c>
-      <c r="J81" s="3" t="s">
+      <c r="J82" s="3" t="s">
         <v>525</v>
       </c>
-      <c r="K81" s="3" t="s">
+      <c r="K82" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="L81" s="3" t="s">
+      <c r="L82" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="M81" s="3" t="s">
+      <c r="M82" s="3" t="s">
         <v>346</v>
       </c>
-      <c r="N81" s="3" t="s">
+      <c r="N82" s="3" t="s">
         <v>319</v>
       </c>
-      <c r="O81" s="3" t="s">
+      <c r="O82" s="3" t="s">
         <v>527</v>
       </c>
-      <c r="P81" s="3" t="s">
+      <c r="P82" s="3" t="s">
         <v>525</v>
       </c>
-      <c r="Q81" s="3" t="s">
+      <c r="Q82" s="3" t="s">
         <v>210</v>
       </c>
-      <c r="R81" s="3" t="s">
+      <c r="R82" s="3" t="s">
         <v>402</v>
       </c>
-      <c r="S81" s="3" t="s">
+      <c r="S82" s="3" t="s">
         <v>525</v>
       </c>
-      <c r="T81" s="3" t="s">
+      <c r="T82" s="3" t="s">
         <v>528</v>
       </c>
-      <c r="U81" s="3" t="s">
+      <c r="U82" s="3" t="s">
         <v>497</v>
       </c>
-      <c r="V81" s="3" t="s">
+      <c r="V82" s="3" t="s">
         <v>529</v>
       </c>
-      <c r="W81" s="3" t="s">
+      <c r="W82" s="3" t="s">
         <v>525</v>
       </c>
-      <c r="X81" s="3" t="s">
+      <c r="X82" s="3" t="s">
         <v>405</v>
       </c>
-      <c r="Y81" s="3"/>
-    </row>
-    <row r="82" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A82" s="1"/>
-      <c r="B82" s="9"/>
-      <c r="C82" s="9"/>
-      <c r="D82" s="9"/>
-      <c r="E82" s="9"/>
+      <c r="Y82" s="3"/>
+    </row>
+    <row r="83" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A83" s="1"/>
+      <c r="B83" s="10"/>
+      <c r="C83" s="10"/>
+      <c r="D83" s="10"/>
+      <c r="E83" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B82:E82"/>
+    <mergeCell ref="B83:E83"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -9649,27 +9733,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="7233923c-a7e0-4e49-b29e-d359fd888d60">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="6bf0a9f1-8f76-4db1-b737-dd267e3134be" xsi:nil="true"/>
-    <Documenttype xmlns="7233923c-a7e0-4e49-b29e-d359fd888d60">Document</Documenttype>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100B380A3F0EA06B24F8F03FA0CEBF15084" ma:contentTypeVersion="14" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="c0085e6b87ca3933b267e9388aac1dca">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ae75e153-7bf0-480f-b1ba-ba3c106dd4e5" xmlns:ns3="7233923c-a7e0-4e49-b29e-d359fd888d60" xmlns:ns4="6bf0a9f1-8f76-4db1-b737-dd267e3134be" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="9213f80c0b63d29d9b80bcf564b8da0f" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="ae75e153-7bf0-480f-b1ba-ba3c106dd4e5"/>
@@ -9904,26 +9967,28 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{08A04067-5DA7-43A9-846C-F6DCC738CC9A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="7233923c-a7e0-4e49-b29e-d359fd888d60">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="6bf0a9f1-8f76-4db1-b737-dd267e3134be" xsi:nil="true"/>
+    <Documenttype xmlns="7233923c-a7e0-4e49-b29e-d359fd888d60">Document</Documenttype>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C1250D19-A89E-42FB-8C44-4257CFEF0E0A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="7233923c-a7e0-4e49-b29e-d359fd888d60"/>
-    <ds:schemaRef ds:uri="6bf0a9f1-8f76-4db1-b737-dd267e3134be"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{52D429CD-BAB2-4952-97D3-3EE522B7C221}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -9941,4 +10006,23 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C1250D19-A89E-42FB-8C44-4257CFEF0E0A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="7233923c-a7e0-4e49-b29e-d359fd888d60"/>
+    <ds:schemaRef ds:uri="6bf0a9f1-8f76-4db1-b737-dd267e3134be"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{08A04067-5DA7-43A9-846C-F6DCC738CC9A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>